--- a/BasicSATResults.xlsx
+++ b/BasicSATResults.xlsx
@@ -3418,7 +3418,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>1.964462518692017</v>
+        <v>0.9758195877075195</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -3432,7 +3432,7 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>1.818732738494873</v>
+        <v>1.796380519866943</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>1.815217256546021</v>
+        <v>2.430566072463989</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.885675430297852</v>
+        <v>0.9759697914123535</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -3474,7 +3474,7 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>1.963106632232666</v>
+        <v>0.996192455291748</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -3488,7 +3488,7 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>1.974002361297607</v>
+        <v>1.527342319488525</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -3502,7 +3502,7 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>1.982160568237305</v>
+        <v>1.064942359924316</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>2.156147480010986</v>
+        <v>1.227008819580078</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3530,7 +3530,7 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>1.881437063217163</v>
+        <v>1.022164821624756</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>1.857609510421753</v>
+        <v>0.9990732669830322</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -3558,7 +3558,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>1.819639205932617</v>
+        <v>1.374906539916992</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -3572,7 +3572,7 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>1.790967702865601</v>
+        <v>0.9873661994934082</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>1.914241552352905</v>
+        <v>0.9901807308197021</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>1.966076135635376</v>
+        <v>1.017444133758545</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3614,7 +3614,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>2.011492490768433</v>
+        <v>1.145010709762573</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3628,7 +3628,7 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>1.921982049942017</v>
+        <v>1.194215297698975</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <v>1.984936237335205</v>
+        <v>1.025018692016602</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -3656,7 +3656,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>2.251559495925903</v>
+        <v>0.9929907321929932</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -3670,7 +3670,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.0391526222229</v>
+        <v>0.9810049533843994</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>2.095300197601318</v>
+        <v>0.9999072551727295</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>2.129321813583374</v>
+        <v>0.990109920501709</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -3712,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>2.132092237472534</v>
+        <v>1.085847854614258</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>2.470842838287354</v>
+        <v>2.671627044677734</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -3740,7 +3740,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>2.579885482788086</v>
+        <v>0.9789984226226807</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>1.976144075393677</v>
+        <v>0.9760086536407471</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>23</v>
       </c>
       <c r="C27">
-        <v>1.957790851593018</v>
+        <v>0.9919722080230713</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -3782,7 +3782,7 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>2.173362493515015</v>
+        <v>0.9792411327362061</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -3796,7 +3796,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>2.047039747238159</v>
+        <v>1.386384725570679</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>1.929303407669067</v>
+        <v>1.099234819412231</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3824,7 +3824,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>2.150977849960327</v>
+        <v>1.026155471801758</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>1.856672763824463</v>
+        <v>1.130550384521484</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -3852,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>1.867994546890259</v>
+        <v>1.037501573562622</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -3866,7 +3866,7 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>2.112108469009399</v>
+        <v>1.325160980224609</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>23</v>
       </c>
       <c r="C35">
-        <v>1.974060535430908</v>
+        <v>0.9869415760040283</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -3894,7 +3894,7 @@
         <v>23</v>
       </c>
       <c r="C36">
-        <v>1.796950578689575</v>
+        <v>0.9915456771850586</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>22</v>
       </c>
       <c r="C37">
-        <v>1.81158971786499</v>
+        <v>0.9923141002655029</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>23</v>
       </c>
       <c r="C38">
-        <v>2.420191526412964</v>
+        <v>1.027086973190308</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>23</v>
       </c>
       <c r="C39">
-        <v>1.964139223098755</v>
+        <v>1.062006711959839</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>23</v>
       </c>
       <c r="C40">
-        <v>1.779092788696289</v>
+        <v>2.625105857849121</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -3964,7 +3964,7 @@
         <v>23</v>
       </c>
       <c r="C41">
-        <v>1.765369892120361</v>
+        <v>1.200933456420898</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>23</v>
       </c>
       <c r="C42">
-        <v>1.788471698760986</v>
+        <v>1.605020761489868</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>23</v>
       </c>
       <c r="C43">
-        <v>1.818706035614014</v>
+        <v>1.157426357269287</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -4006,7 +4006,7 @@
         <v>23</v>
       </c>
       <c r="C44">
-        <v>1.912656545639038</v>
+        <v>0.9937236309051514</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -4020,7 +4020,7 @@
         <v>23</v>
       </c>
       <c r="C45">
-        <v>2.102720737457275</v>
+        <v>1.05755090713501</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>23</v>
       </c>
       <c r="C46">
-        <v>1.780953645706177</v>
+        <v>1.110604286193848</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -4048,7 +4048,7 @@
         <v>23</v>
       </c>
       <c r="C47">
-        <v>1.801053762435913</v>
+        <v>1.374667167663574</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -4062,7 +4062,7 @@
         <v>22</v>
       </c>
       <c r="C48">
-        <v>1.806137323379517</v>
+        <v>0.9899728298187256</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -4076,7 +4076,7 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>1.7907395362854</v>
+        <v>0.9877197742462158</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>23</v>
       </c>
       <c r="C50">
-        <v>1.802130699157715</v>
+        <v>1.131065368652344</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -4104,7 +4104,7 @@
         <v>23</v>
       </c>
       <c r="C51">
-        <v>2.04146409034729</v>
+        <v>0.992039680480957</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>23</v>
       </c>
       <c r="C52">
-        <v>1.79455304145813</v>
+        <v>1.788146734237671</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -4132,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="C53">
-        <v>1.799948215484619</v>
+        <v>0.9790234565734863</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>23</v>
       </c>
       <c r="C54">
-        <v>1.801373958587646</v>
+        <v>0.9871139526367188</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -4160,7 +4160,7 @@
         <v>23</v>
       </c>
       <c r="C55">
-        <v>1.797028541564941</v>
+        <v>0.9918472766876221</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>1.793532133102417</v>
+        <v>1.778154611587524</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>23</v>
       </c>
       <c r="C57">
-        <v>1.799657344818115</v>
+        <v>0.9828310012817383</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>24</v>
       </c>
       <c r="C58">
-        <v>2.090348243713379</v>
+        <v>1.834002494812012</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -4216,7 +4216,7 @@
         <v>22</v>
       </c>
       <c r="C59">
-        <v>1.781482696533203</v>
+        <v>0.9948470592498779</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -4230,7 +4230,7 @@
         <v>24</v>
       </c>
       <c r="C60">
-        <v>1.843430519104004</v>
+        <v>1.04238748550415</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -4244,7 +4244,7 @@
         <v>24</v>
       </c>
       <c r="C61">
-        <v>1.795975208282471</v>
+        <v>1.723754167556763</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="C62">
-        <v>1.790070295333862</v>
+        <v>1.002097368240356</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -4272,7 +4272,7 @@
         <v>24</v>
       </c>
       <c r="C63">
-        <v>2.048661231994629</v>
+        <v>0.998199462890625</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>24</v>
       </c>
       <c r="C64">
-        <v>1.828410625457764</v>
+        <v>0.9786577224731445</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -4300,7 +4300,7 @@
         <v>24</v>
       </c>
       <c r="C65">
-        <v>1.7630455493927</v>
+        <v>1.304693698883057</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -4314,7 +4314,7 @@
         <v>24</v>
       </c>
       <c r="C66">
-        <v>1.788986206054688</v>
+        <v>0.9777307510375977</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>1.790186405181885</v>
+        <v>1.029845237731934</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>24</v>
       </c>
       <c r="C68">
-        <v>1.80183482170105</v>
+        <v>1.010180711746216</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -4356,7 +4356,7 @@
         <v>24</v>
       </c>
       <c r="C69">
-        <v>1.794189691543579</v>
+        <v>0.9948470592498779</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -4370,7 +4370,7 @@
         <v>22</v>
       </c>
       <c r="C70">
-        <v>1.780445575714111</v>
+        <v>0.9953832626342773</v>
       </c>
       <c r="D70" t="b">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>24</v>
       </c>
       <c r="C71">
-        <v>2.482392072677612</v>
+        <v>1.024842977523804</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -4398,7 +4398,7 @@
         <v>24</v>
       </c>
       <c r="C72">
-        <v>1.920863628387451</v>
+        <v>1.031069278717041</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -4412,7 +4412,7 @@
         <v>24</v>
       </c>
       <c r="C73">
-        <v>1.826666355133057</v>
+        <v>1.077545166015625</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>24</v>
       </c>
       <c r="C74">
-        <v>1.940465688705444</v>
+        <v>1.259527206420898</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -4440,7 +4440,7 @@
         <v>24</v>
       </c>
       <c r="C75">
-        <v>2.015012264251709</v>
+        <v>1.337101459503174</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>24</v>
       </c>
       <c r="C76">
-        <v>1.804196834564209</v>
+        <v>1.156186103820801</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>24</v>
       </c>
       <c r="C77">
-        <v>1.843875646591187</v>
+        <v>1.186961889266968</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="C78">
-        <v>1.777136564254761</v>
+        <v>1.369017362594604</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -4496,7 +4496,7 @@
         <v>24</v>
       </c>
       <c r="C79">
-        <v>1.799343347549438</v>
+        <v>1.23820161819458</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -4510,7 +4510,7 @@
         <v>24</v>
       </c>
       <c r="C80">
-        <v>1.778509855270386</v>
+        <v>0.9993059635162354</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -4524,7 +4524,7 @@
         <v>22</v>
       </c>
       <c r="C81">
-        <v>1.794454336166382</v>
+        <v>1.005297183990479</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>24</v>
       </c>
       <c r="C82">
-        <v>1.818795442581177</v>
+        <v>1.004097938537598</v>
       </c>
       <c r="D82" t="b">
         <v>1</v>
@@ -4552,7 +4552,7 @@
         <v>24</v>
       </c>
       <c r="C83">
-        <v>1.784316539764404</v>
+        <v>1.565399408340454</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -4566,7 +4566,7 @@
         <v>24</v>
       </c>
       <c r="C84">
-        <v>1.873083353042603</v>
+        <v>1.240824699401855</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -4580,7 +4580,7 @@
         <v>24</v>
       </c>
       <c r="C85">
-        <v>1.916891574859619</v>
+        <v>1.167169809341431</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -4594,7 +4594,7 @@
         <v>24</v>
       </c>
       <c r="C86">
-        <v>1.79908561706543</v>
+        <v>1.045929431915283</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>24</v>
       </c>
       <c r="C87">
-        <v>1.912209272384644</v>
+        <v>1.748122453689575</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>24</v>
       </c>
       <c r="C88">
-        <v>1.802803993225098</v>
+        <v>1.31002140045166</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -4636,7 +4636,7 @@
         <v>24</v>
       </c>
       <c r="C89">
-        <v>1.795191526412964</v>
+        <v>1.026265144348145</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>24</v>
       </c>
       <c r="C90">
-        <v>2.042122840881348</v>
+        <v>1.03952956199646</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>24</v>
       </c>
       <c r="C91">
-        <v>1.809853792190552</v>
+        <v>0.9824059009552002</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -4678,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="C92">
-        <v>2.172992706298828</v>
+        <v>0.9761538505554199</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>24</v>
       </c>
       <c r="C93">
-        <v>1.95695686340332</v>
+        <v>1.047666549682617</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -4706,7 +4706,7 @@
         <v>24</v>
       </c>
       <c r="C94">
-        <v>1.794170379638672</v>
+        <v>1.061180830001831</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -4720,7 +4720,7 @@
         <v>24</v>
       </c>
       <c r="C95">
-        <v>1.983534574508667</v>
+        <v>1.181188344955444</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -4734,7 +4734,7 @@
         <v>24</v>
       </c>
       <c r="C96">
-        <v>1.819491624832153</v>
+        <v>0.9889457225799561</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -4748,7 +4748,7 @@
         <v>24</v>
       </c>
       <c r="C97">
-        <v>1.78044319152832</v>
+        <v>1.289218902587891</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -4762,7 +4762,7 @@
         <v>24</v>
       </c>
       <c r="C98">
-        <v>1.799181938171387</v>
+        <v>1.269738674163818</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>24</v>
       </c>
       <c r="C99">
-        <v>2.116928339004517</v>
+        <v>1.526057958602905</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -4790,7 +4790,7 @@
         <v>24</v>
       </c>
       <c r="C100">
-        <v>2.039524555206299</v>
+        <v>1.088021039962769</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -4804,7 +4804,7 @@
         <v>24</v>
       </c>
       <c r="C101">
-        <v>1.796170949935913</v>
+        <v>1.14982533454895</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>24</v>
       </c>
       <c r="C102">
-        <v>1.808709383010864</v>
+        <v>1.031413555145264</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>22</v>
       </c>
       <c r="C103">
-        <v>1.803344964981079</v>
+        <v>0.9999797344207764</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>24</v>
       </c>
       <c r="C104">
-        <v>2.021418571472168</v>
+        <v>1.010092258453369</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>24</v>
       </c>
       <c r="C105">
-        <v>1.796759843826294</v>
+        <v>1.795064449310303</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -4874,7 +4874,7 @@
         <v>24</v>
       </c>
       <c r="C106">
-        <v>1.810331583023071</v>
+        <v>1.016232967376709</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>24</v>
       </c>
       <c r="C107">
-        <v>1.790547370910645</v>
+        <v>1.008813142776489</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -4902,7 +4902,7 @@
         <v>24</v>
       </c>
       <c r="C108">
-        <v>1.813982963562012</v>
+        <v>1.767322063446045</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -4916,7 +4916,7 @@
         <v>24</v>
       </c>
       <c r="C109">
-        <v>1.891120433807373</v>
+        <v>1.424834728240967</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -4930,7 +4930,7 @@
         <v>24</v>
       </c>
       <c r="C110">
-        <v>1.871280193328857</v>
+        <v>1.026975154876709</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -4944,7 +4944,7 @@
         <v>24</v>
       </c>
       <c r="C111">
-        <v>1.829616069793701</v>
+        <v>1.27503490447998</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -4958,7 +4958,7 @@
         <v>24</v>
       </c>
       <c r="C112">
-        <v>1.967408180236816</v>
+        <v>0.6279187202453613</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -4972,7 +4972,7 @@
         <v>24</v>
       </c>
       <c r="C113">
-        <v>1.803888559341431</v>
+        <v>1.133259773254395</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>22</v>
       </c>
       <c r="C114">
-        <v>1.801195859909058</v>
+        <v>0.6177711486816406</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -5000,7 +5000,7 @@
         <v>24</v>
       </c>
       <c r="C115">
-        <v>2.484800100326538</v>
+        <v>0.6617567539215088</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>24</v>
       </c>
       <c r="C116">
-        <v>1.816824197769165</v>
+        <v>0.7644240856170654</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
@@ -5028,7 +5028,7 @@
         <v>24</v>
       </c>
       <c r="C117">
-        <v>1.790387392044067</v>
+        <v>0.611382007598877</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -5042,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="C118">
-        <v>1.790687799453735</v>
+        <v>0.635983943939209</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -5056,7 +5056,7 @@
         <v>24</v>
       </c>
       <c r="C119">
-        <v>1.826101541519165</v>
+        <v>0.6291079521179199</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -5070,7 +5070,7 @@
         <v>24</v>
       </c>
       <c r="C120">
-        <v>1.910135269165039</v>
+        <v>0.6311502456665039</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -5084,7 +5084,7 @@
         <v>24</v>
       </c>
       <c r="C121">
-        <v>1.823351383209229</v>
+        <v>0.8679208755493164</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>24</v>
       </c>
       <c r="C122">
-        <v>2.09075665473938</v>
+        <v>0.6399600505828857</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -5112,7 +5112,7 @@
         <v>24</v>
       </c>
       <c r="C123">
-        <v>1.818245887756348</v>
+        <v>0.6756091117858887</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -5126,7 +5126,7 @@
         <v>24</v>
       </c>
       <c r="C124">
-        <v>1.809412240982056</v>
+        <v>0.8040773868560791</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -5140,7 +5140,7 @@
         <v>22</v>
       </c>
       <c r="C125">
-        <v>2.094182729721069</v>
+        <v>0.7150321006774902</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -5154,7 +5154,7 @@
         <v>22</v>
       </c>
       <c r="C126">
-        <v>1.782889127731323</v>
+        <v>0.6184237003326416</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -5168,7 +5168,7 @@
         <v>24</v>
       </c>
       <c r="C127">
-        <v>1.803421974182129</v>
+        <v>0.6476337909698486</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -5182,7 +5182,7 @@
         <v>24</v>
       </c>
       <c r="C128">
-        <v>1.940864324569702</v>
+        <v>0.6463608741760254</v>
       </c>
       <c r="D128" t="b">
         <v>1</v>
@@ -5196,7 +5196,7 @@
         <v>24</v>
       </c>
       <c r="C129">
-        <v>1.806888580322266</v>
+        <v>0.6830737590789795</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>24</v>
       </c>
       <c r="C130">
-        <v>1.81617546081543</v>
+        <v>0.7109889984130859</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -5224,7 +5224,7 @@
         <v>24</v>
       </c>
       <c r="C131">
-        <v>1.812817573547363</v>
+        <v>0.6708011627197266</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -5238,7 +5238,7 @@
         <v>24</v>
       </c>
       <c r="C132">
-        <v>1.819998741149902</v>
+        <v>0.6673767566680908</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -5252,7 +5252,7 @@
         <v>24</v>
       </c>
       <c r="C133">
-        <v>1.824530363082886</v>
+        <v>0.8079619407653809</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>24</v>
       </c>
       <c r="C134">
-        <v>1.809014081954956</v>
+        <v>1.057504892349243</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -5280,7 +5280,7 @@
         <v>24</v>
       </c>
       <c r="C135">
-        <v>1.795201539993286</v>
+        <v>0.802711009979248</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -5294,7 +5294,7 @@
         <v>24</v>
       </c>
       <c r="C136">
-        <v>1.805777072906494</v>
+        <v>0.6592409610748291</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -5308,7 +5308,7 @@
         <v>23</v>
       </c>
       <c r="C137">
-        <v>1.808029174804688</v>
+        <v>0.7109630107879639</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -5322,7 +5322,7 @@
         <v>24</v>
       </c>
       <c r="C138">
-        <v>1.916719913482666</v>
+        <v>0.6184577941894531</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>24</v>
       </c>
       <c r="C139">
-        <v>1.791322946548462</v>
+        <v>0.6271371841430664</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -5350,7 +5350,7 @@
         <v>24</v>
       </c>
       <c r="C140">
-        <v>1.811033010482788</v>
+        <v>0.6203548908233643</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -5364,7 +5364,7 @@
         <v>24</v>
       </c>
       <c r="C141">
-        <v>2.179015874862671</v>
+        <v>0.6334230899810791</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>24</v>
       </c>
       <c r="C142">
-        <v>1.872405290603638</v>
+        <v>0.6179397106170654</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -5392,7 +5392,7 @@
         <v>24</v>
       </c>
       <c r="C143">
-        <v>1.816538572311401</v>
+        <v>0.7023255825042725</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -5406,7 +5406,7 @@
         <v>24</v>
       </c>
       <c r="C144">
-        <v>1.951675415039062</v>
+        <v>0.7323927879333496</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>24</v>
       </c>
       <c r="C145">
-        <v>1.798902034759521</v>
+        <v>0.6822524070739746</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -5434,7 +5434,7 @@
         <v>24</v>
       </c>
       <c r="C146">
-        <v>1.894345283508301</v>
+        <v>0.6435542106628418</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -5448,7 +5448,7 @@
         <v>24</v>
       </c>
       <c r="C147">
-        <v>1.976702928543091</v>
+        <v>0.6581392288208008</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
@@ -5462,7 +5462,7 @@
         <v>23</v>
       </c>
       <c r="C148">
-        <v>1.937774658203125</v>
+        <v>0.6728284358978271</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         <v>24</v>
       </c>
       <c r="C149">
-        <v>1.987105131149292</v>
+        <v>0.7293765544891357</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -5490,7 +5490,7 @@
         <v>24</v>
       </c>
       <c r="C150">
-        <v>1.80848240852356</v>
+        <v>0.7320632934570312</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -5504,7 +5504,7 @@
         <v>24</v>
       </c>
       <c r="C151">
-        <v>1.860095500946045</v>
+        <v>0.6916966438293457</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>24</v>
       </c>
       <c r="C152">
-        <v>1.814849853515625</v>
+        <v>0.8016073703765869</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>24</v>
       </c>
       <c r="C153">
-        <v>1.828128099441528</v>
+        <v>0.6420314311981201</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -5546,7 +5546,7 @@
         <v>24</v>
       </c>
       <c r="C154">
-        <v>1.82516622543335</v>
+        <v>0.8628358840942383</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         <v>24</v>
       </c>
       <c r="C155">
-        <v>1.829060077667236</v>
+        <v>0.7262232303619385</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -5574,7 +5574,7 @@
         <v>24</v>
       </c>
       <c r="C156">
-        <v>1.830007553100586</v>
+        <v>1.10193395614624</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>24</v>
       </c>
       <c r="C157">
-        <v>1.816071271896362</v>
+        <v>0.7425193786621094</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>24</v>
       </c>
       <c r="C158">
-        <v>1.819476127624512</v>
+        <v>0.926379919052124</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -5616,7 +5616,7 @@
         <v>23</v>
       </c>
       <c r="C159">
-        <v>1.822829484939575</v>
+        <v>0.6961822509765625</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -5630,7 +5630,7 @@
         <v>24</v>
       </c>
       <c r="C160">
-        <v>1.826388597488403</v>
+        <v>0.6515986919403076</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -5644,7 +5644,7 @@
         <v>24</v>
       </c>
       <c r="C161">
-        <v>1.813658237457275</v>
+        <v>0.6761801242828369</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
@@ -5658,7 +5658,7 @@
         <v>24</v>
       </c>
       <c r="C162">
-        <v>1.8100426197052</v>
+        <v>0.8569250106811523</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -5672,7 +5672,7 @@
         <v>24</v>
       </c>
       <c r="C163">
-        <v>1.908167362213135</v>
+        <v>0.6796011924743652</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -5686,7 +5686,7 @@
         <v>24</v>
       </c>
       <c r="C164">
-        <v>2.27204966545105</v>
+        <v>0.7334120273590088</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -5700,7 +5700,7 @@
         <v>24</v>
       </c>
       <c r="C165">
-        <v>2.037250995635986</v>
+        <v>0.6415877342224121</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -5714,7 +5714,7 @@
         <v>24</v>
       </c>
       <c r="C166">
-        <v>2.272220373153687</v>
+        <v>0.8951444625854492</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5728,7 +5728,7 @@
         <v>24</v>
       </c>
       <c r="C167">
-        <v>2.264501094818115</v>
+        <v>0.7290923595428467</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>24</v>
       </c>
       <c r="C168">
-        <v>2.074594259262085</v>
+        <v>0.9409494400024414</v>
       </c>
       <c r="D168" t="b">
         <v>1</v>
@@ -5756,7 +5756,7 @@
         <v>24</v>
       </c>
       <c r="C169">
-        <v>1.981101036071777</v>
+        <v>0.7703373432159424</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5770,7 +5770,7 @@
         <v>23</v>
       </c>
       <c r="C170">
-        <v>1.933079719543457</v>
+        <v>0.802842378616333</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>24</v>
       </c>
       <c r="C171">
-        <v>1.937034845352173</v>
+        <v>0.8604364395141602</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -5798,7 +5798,7 @@
         <v>24</v>
       </c>
       <c r="C172">
-        <v>2.623183488845825</v>
+        <v>0.9040789604187012</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5812,7 +5812,7 @@
         <v>24</v>
       </c>
       <c r="C173">
-        <v>1.891630887985229</v>
+        <v>0.8317732810974121</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -5826,7 +5826,7 @@
         <v>24</v>
       </c>
       <c r="C174">
-        <v>1.912294626235962</v>
+        <v>0.8095550537109375</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>24</v>
       </c>
       <c r="C175">
-        <v>1.918883800506592</v>
+        <v>0.777094841003418</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5854,7 +5854,7 @@
         <v>24</v>
       </c>
       <c r="C176">
-        <v>2.177748441696167</v>
+        <v>0.8507695198059082</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5868,7 +5868,7 @@
         <v>24</v>
       </c>
       <c r="C177">
-        <v>1.951161623001099</v>
+        <v>0.786107063293457</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>24</v>
       </c>
       <c r="C178">
-        <v>1.884955167770386</v>
+        <v>0.8362390995025635</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         <v>24</v>
       </c>
       <c r="C179">
-        <v>2.240328788757324</v>
+        <v>0.6749489307403564</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -5910,7 +5910,7 @@
         <v>24</v>
       </c>
       <c r="C180">
-        <v>2.166944265365601</v>
+        <v>0.9350953102111816</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5924,7 +5924,7 @@
         <v>23</v>
       </c>
       <c r="C181">
-        <v>2.339897394180298</v>
+        <v>0.7506036758422852</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -5938,7 +5938,7 @@
         <v>24</v>
       </c>
       <c r="C182">
-        <v>2.172888994216919</v>
+        <v>0.6358084678649902</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>24</v>
       </c>
       <c r="C183">
-        <v>1.900217056274414</v>
+        <v>0.686152458190918</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="C184">
-        <v>2.221971273422241</v>
+        <v>0.9053802490234375</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
@@ -5980,7 +5980,7 @@
         <v>24</v>
       </c>
       <c r="C185">
-        <v>2.044957637786865</v>
+        <v>0.6836574077606201</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5994,7 +5994,7 @@
         <v>24</v>
       </c>
       <c r="C186">
-        <v>1.92685341835022</v>
+        <v>0.6448464393615723</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -6008,7 +6008,7 @@
         <v>24</v>
       </c>
       <c r="C187">
-        <v>2.039058446884155</v>
+        <v>0.643862247467041</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>24</v>
       </c>
       <c r="C188">
-        <v>1.908002614974976</v>
+        <v>0.8692164421081543</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -6036,7 +6036,7 @@
         <v>24</v>
       </c>
       <c r="C189">
-        <v>1.979220867156982</v>
+        <v>0.6460340023040771</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -6050,7 +6050,7 @@
         <v>24</v>
       </c>
       <c r="C190">
-        <v>2.010858297348022</v>
+        <v>0.7028911113739014</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>24</v>
       </c>
       <c r="C191">
-        <v>1.909586668014526</v>
+        <v>1.047115802764893</v>
       </c>
       <c r="D191" t="b">
         <v>1</v>
@@ -6078,7 +6078,7 @@
         <v>23</v>
       </c>
       <c r="C192">
-        <v>2.142461776733398</v>
+        <v>0.7375943660736084</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -6092,7 +6092,7 @@
         <v>24</v>
       </c>
       <c r="C193">
-        <v>1.914999008178711</v>
+        <v>0.6402163505554199</v>
       </c>
       <c r="D193" t="b">
         <v>1</v>
@@ -6106,7 +6106,7 @@
         <v>24</v>
       </c>
       <c r="C194">
-        <v>2.070152997970581</v>
+        <v>0.700772762298584</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -6120,7 +6120,7 @@
         <v>24</v>
       </c>
       <c r="C195">
-        <v>1.919809341430664</v>
+        <v>0.8184094429016113</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -6134,7 +6134,7 @@
         <v>24</v>
       </c>
       <c r="C196">
-        <v>1.916945219039917</v>
+        <v>0.6496965885162354</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -6148,7 +6148,7 @@
         <v>24</v>
       </c>
       <c r="C197">
-        <v>1.924187183380127</v>
+        <v>0.7785506248474121</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -6162,7 +6162,7 @@
         <v>24</v>
       </c>
       <c r="C198">
-        <v>1.930359125137329</v>
+        <v>0.7737119197845459</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
@@ -6176,7 +6176,7 @@
         <v>24</v>
       </c>
       <c r="C199">
-        <v>1.916630268096924</v>
+        <v>0.9666550159454346</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -6190,7 +6190,7 @@
         <v>24</v>
       </c>
       <c r="C200">
-        <v>1.901341915130615</v>
+        <v>0.856175422668457</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
@@ -6204,7 +6204,7 @@
         <v>24</v>
       </c>
       <c r="C201">
-        <v>2.003531455993652</v>
+        <v>0.9510724544525146</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
@@ -6218,7 +6218,7 @@
         <v>24</v>
       </c>
       <c r="C202">
-        <v>2.013118267059326</v>
+        <v>0.9210400581359863</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -6232,7 +6232,7 @@
         <v>23</v>
       </c>
       <c r="C203">
-        <v>1.929039478302002</v>
+        <v>1.190167665481567</v>
       </c>
       <c r="D203" t="b">
         <v>1</v>
@@ -6246,7 +6246,7 @@
         <v>24</v>
       </c>
       <c r="C204">
-        <v>1.925036907196045</v>
+        <v>0.8218052387237549</v>
       </c>
       <c r="D204" t="b">
         <v>1</v>
@@ -6260,7 +6260,7 @@
         <v>24</v>
       </c>
       <c r="C205">
-        <v>1.975112915039062</v>
+        <v>0.7923276424407959</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
@@ -6274,7 +6274,7 @@
         <v>24</v>
       </c>
       <c r="C206">
-        <v>1.934905767440796</v>
+        <v>0.7826275825500488</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
@@ -6288,7 +6288,7 @@
         <v>24</v>
       </c>
       <c r="C207">
-        <v>1.92602276802063</v>
+        <v>0.7119927406311035</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
@@ -6302,7 +6302,7 @@
         <v>24</v>
       </c>
       <c r="C208">
-        <v>1.961566209793091</v>
+        <v>0.7705593109130859</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
@@ -6316,7 +6316,7 @@
         <v>24</v>
       </c>
       <c r="C209">
-        <v>1.936697483062744</v>
+        <v>0.8530576229095459</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -6330,7 +6330,7 @@
         <v>24</v>
       </c>
       <c r="C210">
-        <v>1.919719457626343</v>
+        <v>0.8193116188049316</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
@@ -6344,7 +6344,7 @@
         <v>24</v>
       </c>
       <c r="C211">
-        <v>1.912857294082642</v>
+        <v>0.7580459117889404</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -6358,7 +6358,7 @@
         <v>24</v>
       </c>
       <c r="C212">
-        <v>1.939535856246948</v>
+        <v>0.6481223106384277</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -6372,7 +6372,7 @@
         <v>24</v>
       </c>
       <c r="C213">
-        <v>1.905188322067261</v>
+        <v>0.6709659099578857</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -6386,7 +6386,7 @@
         <v>23</v>
       </c>
       <c r="C214">
-        <v>1.910860538482666</v>
+        <v>0.6556353569030762</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -6400,7 +6400,7 @@
         <v>24</v>
       </c>
       <c r="C215">
-        <v>1.921816825866699</v>
+        <v>0.7793474197387695</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -6414,7 +6414,7 @@
         <v>24</v>
       </c>
       <c r="C216">
-        <v>2.075583696365356</v>
+        <v>0.7140581607818604</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>24</v>
       </c>
       <c r="C217">
-        <v>2.342329740524292</v>
+        <v>0.7022881507873535</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>24</v>
       </c>
       <c r="C218">
-        <v>1.919203519821167</v>
+        <v>0.6566500663757324</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -6456,7 +6456,7 @@
         <v>24</v>
       </c>
       <c r="C219">
-        <v>2.170754671096802</v>
+        <v>0.6560816764831543</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -6470,7 +6470,7 @@
         <v>24</v>
       </c>
       <c r="C220">
-        <v>2.413042306900024</v>
+        <v>0.6459357738494873</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -6484,7 +6484,7 @@
         <v>24</v>
       </c>
       <c r="C221">
-        <v>1.988938570022583</v>
+        <v>0.6410529613494873</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -6498,7 +6498,7 @@
         <v>24</v>
       </c>
       <c r="C222">
-        <v>1.937111854553223</v>
+        <v>0.730910062789917</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6512,7 +6512,7 @@
         <v>24</v>
       </c>
       <c r="C223">
-        <v>1.901808023452759</v>
+        <v>0.8400213718414307</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>24</v>
       </c>
       <c r="C224">
-        <v>1.981551647186279</v>
+        <v>1.018977403640747</v>
       </c>
       <c r="D224" t="b">
         <v>1</v>
@@ -6540,7 +6540,7 @@
         <v>23</v>
       </c>
       <c r="C225">
-        <v>1.918462038040161</v>
+        <v>0.7799043655395508</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -6554,7 +6554,7 @@
         <v>24</v>
       </c>
       <c r="C226">
-        <v>1.923840999603271</v>
+        <v>0.7090945243835449</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
@@ -6568,7 +6568,7 @@
         <v>24</v>
       </c>
       <c r="C227">
-        <v>2.268781423568726</v>
+        <v>0.6461174488067627</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6582,7 +6582,7 @@
         <v>24</v>
       </c>
       <c r="C228">
-        <v>2.039247035980225</v>
+        <v>0.9503469467163086</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
@@ -6596,7 +6596,7 @@
         <v>24</v>
       </c>
       <c r="C229">
-        <v>1.897375822067261</v>
+        <v>0.6412858963012695</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>24</v>
       </c>
       <c r="C230">
-        <v>2.038226127624512</v>
+        <v>0.6422419548034668</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6624,7 +6624,7 @@
         <v>24</v>
       </c>
       <c r="C231">
-        <v>1.926159143447876</v>
+        <v>0.7713115215301514</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>24</v>
       </c>
       <c r="C232">
-        <v>1.887307643890381</v>
+        <v>0.6476242542266846</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         <v>24</v>
       </c>
       <c r="C233">
-        <v>2.082533121109009</v>
+        <v>0.6512160301208496</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -6666,7 +6666,7 @@
         <v>24</v>
       </c>
       <c r="C234">
-        <v>2.042130947113037</v>
+        <v>0.687159538269043</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6680,7 +6680,7 @@
         <v>24</v>
       </c>
       <c r="C235">
-        <v>2.123956918716431</v>
+        <v>0.8197343349456787</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
@@ -6694,7 +6694,7 @@
         <v>22</v>
       </c>
       <c r="C236">
-        <v>2.085956573486328</v>
+        <v>0.8102128505706787</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -6708,7 +6708,7 @@
         <v>23</v>
       </c>
       <c r="C237">
-        <v>1.947271347045898</v>
+        <v>0.9635748863220215</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
@@ -6722,7 +6722,7 @@
         <v>24</v>
       </c>
       <c r="C238">
-        <v>2.183924436569214</v>
+        <v>0.7703642845153809</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
@@ -6736,7 +6736,7 @@
         <v>24</v>
       </c>
       <c r="C239">
-        <v>1.917380571365356</v>
+        <v>1.325268745422363</v>
       </c>
       <c r="D239" t="b">
         <v>1</v>
@@ -6750,7 +6750,7 @@
         <v>24</v>
       </c>
       <c r="C240">
-        <v>1.958611965179443</v>
+        <v>0.8347733020782471</v>
       </c>
       <c r="D240" t="b">
         <v>1</v>
@@ -6764,7 +6764,7 @@
         <v>24</v>
       </c>
       <c r="C241">
-        <v>1.938840866088867</v>
+        <v>0.8369302749633789</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>24</v>
       </c>
       <c r="C242">
-        <v>1.909159183502197</v>
+        <v>0.7973270416259766</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
@@ -6792,7 +6792,7 @@
         <v>24</v>
       </c>
       <c r="C243">
-        <v>1.981750726699829</v>
+        <v>0.8167307376861572</v>
       </c>
       <c r="D243" t="b">
         <v>1</v>
@@ -6806,7 +6806,7 @@
         <v>24</v>
       </c>
       <c r="C244">
-        <v>2.265185832977295</v>
+        <v>0.7748446464538574</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -6820,7 +6820,7 @@
         <v>24</v>
       </c>
       <c r="C245">
-        <v>1.939103603363037</v>
+        <v>0.7295026779174805</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>24</v>
       </c>
       <c r="C246">
-        <v>2.127089262008667</v>
+        <v>0.6369233131408691</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -6848,7 +6848,7 @@
         <v>24</v>
       </c>
       <c r="C247">
-        <v>2.01222562789917</v>
+        <v>0.6516962051391602</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -6862,7 +6862,7 @@
         <v>23</v>
       </c>
       <c r="C248">
-        <v>2.069854974746704</v>
+        <v>0.6489150524139404</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -6876,7 +6876,7 @@
         <v>24</v>
       </c>
       <c r="C249">
-        <v>2.066851139068604</v>
+        <v>0.7017688751220703</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
@@ -6890,7 +6890,7 @@
         <v>24</v>
       </c>
       <c r="C250">
-        <v>1.887049436569214</v>
+        <v>0.6574974060058594</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
@@ -6904,7 +6904,7 @@
         <v>24</v>
       </c>
       <c r="C251">
-        <v>1.919421911239624</v>
+        <v>0.6431233882904053</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
@@ -6918,7 +6918,7 @@
         <v>24</v>
       </c>
       <c r="C252">
-        <v>1.914398670196533</v>
+        <v>0.6695594787597656</v>
       </c>
       <c r="D252" t="b">
         <v>1</v>
@@ -6932,7 +6932,7 @@
         <v>24</v>
       </c>
       <c r="C253">
-        <v>1.975830793380737</v>
+        <v>0.6656498908996582</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
@@ -6946,7 +6946,7 @@
         <v>24</v>
       </c>
       <c r="C254">
-        <v>2.16434383392334</v>
+        <v>0.6833834648132324</v>
       </c>
       <c r="D254" t="b">
         <v>1</v>
@@ -6960,7 +6960,7 @@
         <v>24</v>
       </c>
       <c r="C255">
-        <v>1.892321348190308</v>
+        <v>0.651165246963501</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>24</v>
       </c>
       <c r="C256">
-        <v>1.958401441574097</v>
+        <v>0.6490380764007568</v>
       </c>
       <c r="D256" t="b">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>24</v>
       </c>
       <c r="C257">
-        <v>1.935210466384888</v>
+        <v>0.65494704246521</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
@@ -7002,7 +7002,7 @@
         <v>24</v>
       </c>
       <c r="C258">
-        <v>2.256989717483521</v>
+        <v>1.034417152404785</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>23</v>
       </c>
       <c r="C259">
-        <v>1.910581827163696</v>
+        <v>0.6495473384857178</v>
       </c>
       <c r="D259" t="b">
         <v>1</v>
@@ -7030,7 +7030,7 @@
         <v>24</v>
       </c>
       <c r="C260">
-        <v>1.913476228713989</v>
+        <v>0.7298779487609863</v>
       </c>
       <c r="D260" t="b">
         <v>1</v>
@@ -7044,7 +7044,7 @@
         <v>24</v>
       </c>
       <c r="C261">
-        <v>2.218047142028809</v>
+        <v>0.8647303581237793</v>
       </c>
       <c r="D261" t="b">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>24</v>
       </c>
       <c r="C262">
-        <v>1.955475807189941</v>
+        <v>1.052825450897217</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
@@ -7072,7 +7072,7 @@
         <v>24</v>
       </c>
       <c r="C263">
-        <v>2.031853914260864</v>
+        <v>0.6397411823272705</v>
       </c>
       <c r="D263" t="b">
         <v>1</v>
@@ -7086,7 +7086,7 @@
         <v>24</v>
       </c>
       <c r="C264">
-        <v>2.017636299133301</v>
+        <v>1.572989940643311</v>
       </c>
       <c r="D264" t="b">
         <v>1</v>
@@ -7100,7 +7100,7 @@
         <v>24</v>
       </c>
       <c r="C265">
-        <v>1.930942296981812</v>
+        <v>0.8231253623962402</v>
       </c>
       <c r="D265" t="b">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>24</v>
       </c>
       <c r="C266">
-        <v>2.006017446517944</v>
+        <v>0.9725706577301025</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>24</v>
       </c>
       <c r="C267">
-        <v>2.040956497192383</v>
+        <v>0.832756519317627</v>
       </c>
       <c r="D267" t="b">
         <v>1</v>
@@ -7142,7 +7142,7 @@
         <v>24</v>
       </c>
       <c r="C268">
-        <v>1.903977155685425</v>
+        <v>0.796210765838623</v>
       </c>
       <c r="D268" t="b">
         <v>1</v>
@@ -7156,7 +7156,7 @@
         <v>24</v>
       </c>
       <c r="C269">
-        <v>1.976301908493042</v>
+        <v>0.7900781631469727</v>
       </c>
       <c r="D269" t="b">
         <v>1</v>
@@ -7170,7 +7170,7 @@
         <v>23</v>
       </c>
       <c r="C270">
-        <v>2.135553598403931</v>
+        <v>0.7121927738189697</v>
       </c>
       <c r="D270" t="b">
         <v>1</v>
@@ -7184,7 +7184,7 @@
         <v>24</v>
       </c>
       <c r="C271">
-        <v>2.02640175819397</v>
+        <v>0.9720585346221924</v>
       </c>
       <c r="D271" t="b">
         <v>1</v>
@@ -7198,7 +7198,7 @@
         <v>24</v>
       </c>
       <c r="C272">
-        <v>1.926795721054077</v>
+        <v>0.6561133861541748</v>
       </c>
       <c r="D272" t="b">
         <v>1</v>
@@ -7212,7 +7212,7 @@
         <v>24</v>
       </c>
       <c r="C273">
-        <v>1.924035787582397</v>
+        <v>0.7103300094604492</v>
       </c>
       <c r="D273" t="b">
         <v>1</v>
@@ -7226,7 +7226,7 @@
         <v>24</v>
       </c>
       <c r="C274">
-        <v>1.980252027511597</v>
+        <v>0.6470334529876709</v>
       </c>
       <c r="D274" t="b">
         <v>1</v>
@@ -7240,7 +7240,7 @@
         <v>24</v>
       </c>
       <c r="C275">
-        <v>2.157932996749878</v>
+        <v>0.9478356838226318</v>
       </c>
       <c r="D275" t="b">
         <v>1</v>
@@ -7254,7 +7254,7 @@
         <v>24</v>
       </c>
       <c r="C276">
-        <v>2.197120428085327</v>
+        <v>0.6771433353424072</v>
       </c>
       <c r="D276" t="b">
         <v>1</v>
@@ -7268,7 +7268,7 @@
         <v>24</v>
       </c>
       <c r="C277">
-        <v>1.918683290481567</v>
+        <v>0.6508996486663818</v>
       </c>
       <c r="D277" t="b">
         <v>1</v>
@@ -7282,7 +7282,7 @@
         <v>24</v>
       </c>
       <c r="C278">
-        <v>2.250288248062134</v>
+        <v>0.667959451675415</v>
       </c>
       <c r="D278" t="b">
         <v>1</v>
@@ -7296,7 +7296,7 @@
         <v>24</v>
       </c>
       <c r="C279">
-        <v>1.990180253982544</v>
+        <v>0.7310581207275391</v>
       </c>
       <c r="D279" t="b">
         <v>1</v>
@@ -7310,7 +7310,7 @@
         <v>24</v>
       </c>
       <c r="C280">
-        <v>1.947767734527588</v>
+        <v>0.6572060585021973</v>
       </c>
       <c r="D280" t="b">
         <v>1</v>
@@ -7324,7 +7324,7 @@
         <v>23</v>
       </c>
       <c r="C281">
-        <v>2.121192932128906</v>
+        <v>0.7880146503448486</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
@@ -7338,7 +7338,7 @@
         <v>24</v>
       </c>
       <c r="C282">
-        <v>1.984853506088257</v>
+        <v>1.125248670578003</v>
       </c>
       <c r="D282" t="b">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>24</v>
       </c>
       <c r="C283">
-        <v>1.926180124282837</v>
+        <v>0.6445863246917725</v>
       </c>
       <c r="D283" t="b">
         <v>1</v>
@@ -7366,7 +7366,7 @@
         <v>24</v>
       </c>
       <c r="C284">
-        <v>1.943398714065552</v>
+        <v>0.6531362533569336</v>
       </c>
       <c r="D284" t="b">
         <v>1</v>
@@ -7380,7 +7380,7 @@
         <v>24</v>
       </c>
       <c r="C285">
-        <v>1.917648315429688</v>
+        <v>0.6571011543273926</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -7394,7 +7394,7 @@
         <v>24</v>
       </c>
       <c r="C286">
-        <v>1.924311876296997</v>
+        <v>0.6443438529968262</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
@@ -7408,7 +7408,7 @@
         <v>24</v>
       </c>
       <c r="C287">
-        <v>1.937980651855469</v>
+        <v>0.6542618274688721</v>
       </c>
       <c r="D287" t="b">
         <v>1</v>
@@ -7422,7 +7422,7 @@
         <v>24</v>
       </c>
       <c r="C288">
-        <v>1.898703575134277</v>
+        <v>0.667841911315918</v>
       </c>
       <c r="D288" t="b">
         <v>1</v>
@@ -7436,7 +7436,7 @@
         <v>24</v>
       </c>
       <c r="C289">
-        <v>1.978012800216675</v>
+        <v>0.7800240516662598</v>
       </c>
       <c r="D289" t="b">
         <v>1</v>
@@ -7450,7 +7450,7 @@
         <v>24</v>
       </c>
       <c r="C290">
-        <v>1.942477226257324</v>
+        <v>0.8050079345703125</v>
       </c>
       <c r="D290" t="b">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>24</v>
       </c>
       <c r="C291">
-        <v>2.097231149673462</v>
+        <v>0.7878818511962891</v>
       </c>
       <c r="D291" t="b">
         <v>1</v>
@@ -7478,7 +7478,7 @@
         <v>23</v>
       </c>
       <c r="C292">
-        <v>1.912595272064209</v>
+        <v>0.7879629135131836</v>
       </c>
       <c r="D292" t="b">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>24</v>
       </c>
       <c r="C293">
-        <v>2.163577079772949</v>
+        <v>0.7901413440704346</v>
       </c>
       <c r="D293" t="b">
         <v>1</v>
@@ -7506,7 +7506,7 @@
         <v>24</v>
       </c>
       <c r="C294">
-        <v>1.935937881469727</v>
+        <v>0.7320756912231445</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
@@ -7520,7 +7520,7 @@
         <v>24</v>
       </c>
       <c r="C295">
-        <v>1.939253807067871</v>
+        <v>0.8183321952819824</v>
       </c>
       <c r="D295" t="b">
         <v>1</v>
@@ -7534,7 +7534,7 @@
         <v>24</v>
       </c>
       <c r="C296">
-        <v>1.905803442001343</v>
+        <v>0.8137693405151367</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
@@ -7548,7 +7548,7 @@
         <v>24</v>
       </c>
       <c r="C297">
-        <v>1.927654981613159</v>
+        <v>0.8074636459350586</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
@@ -7562,7 +7562,7 @@
         <v>24</v>
       </c>
       <c r="C298">
-        <v>1.926307439804077</v>
+        <v>0.8201522827148438</v>
       </c>
       <c r="D298" t="b">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>24</v>
       </c>
       <c r="C299">
-        <v>1.905458688735962</v>
+        <v>0.7948801517486572</v>
       </c>
       <c r="D299" t="b">
         <v>1</v>
@@ -7590,7 +7590,7 @@
         <v>24</v>
       </c>
       <c r="C300">
-        <v>1.965643405914307</v>
+        <v>0.6754741668701172</v>
       </c>
       <c r="D300" t="b">
         <v>1</v>
@@ -7604,7 +7604,7 @@
         <v>24</v>
       </c>
       <c r="C301">
-        <v>1.932308912277222</v>
+        <v>0.6393098831176758</v>
       </c>
       <c r="D301" t="b">
         <v>1</v>
@@ -7618,7 +7618,7 @@
         <v>24</v>
       </c>
       <c r="C302">
-        <v>1.923803329467773</v>
+        <v>1.050447463989258</v>
       </c>
       <c r="D302" t="b">
         <v>1</v>
@@ -7632,7 +7632,7 @@
         <v>23</v>
       </c>
       <c r="C303">
-        <v>1.896155595779419</v>
+        <v>0.8399248123168945</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
@@ -7646,7 +7646,7 @@
         <v>24</v>
       </c>
       <c r="C304">
-        <v>1.880834102630615</v>
+        <v>0.8157949447631836</v>
       </c>
       <c r="D304" t="b">
         <v>1</v>
@@ -7660,7 +7660,7 @@
         <v>24</v>
       </c>
       <c r="C305">
-        <v>1.918939113616943</v>
+        <v>1.124154806137085</v>
       </c>
       <c r="D305" t="b">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>24</v>
       </c>
       <c r="C306">
-        <v>1.919141530990601</v>
+        <v>0.8066275119781494</v>
       </c>
       <c r="D306" t="b">
         <v>1</v>
@@ -7688,7 +7688,7 @@
         <v>24</v>
       </c>
       <c r="C307">
-        <v>1.925436019897461</v>
+        <v>0.8209042549133301</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>24</v>
       </c>
       <c r="C308">
-        <v>1.924594879150391</v>
+        <v>1.009053468704224</v>
       </c>
       <c r="D308" t="b">
         <v>1</v>
@@ -7716,7 +7716,7 @@
         <v>24</v>
       </c>
       <c r="C309">
-        <v>1.948387384414673</v>
+        <v>0.820016622543335</v>
       </c>
       <c r="D309" t="b">
         <v>1</v>
@@ -7730,7 +7730,7 @@
         <v>24</v>
       </c>
       <c r="C310">
-        <v>1.940029859542847</v>
+        <v>0.8062341213226318</v>
       </c>
       <c r="D310" t="b">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>24</v>
       </c>
       <c r="C311">
-        <v>2.154646873474121</v>
+        <v>1.047785043716431</v>
       </c>
       <c r="D311" t="b">
         <v>1</v>
@@ -7758,7 +7758,7 @@
         <v>24</v>
       </c>
       <c r="C312">
-        <v>1.935153722763062</v>
+        <v>0.8155450820922852</v>
       </c>
       <c r="D312" t="b">
         <v>1</v>
@@ -7772,7 +7772,7 @@
         <v>24</v>
       </c>
       <c r="C313">
-        <v>1.912420511245728</v>
+        <v>0.6644272804260254</v>
       </c>
       <c r="D313" t="b">
         <v>1</v>
@@ -7786,7 +7786,7 @@
         <v>23</v>
       </c>
       <c r="C314">
-        <v>1.891987323760986</v>
+        <v>0.8148705959320068</v>
       </c>
       <c r="D314" t="b">
         <v>1</v>
@@ -7800,7 +7800,7 @@
         <v>24</v>
       </c>
       <c r="C315">
-        <v>1.957360029220581</v>
+        <v>0.7008283138275146</v>
       </c>
       <c r="D315" t="b">
         <v>1</v>
@@ -7814,7 +7814,7 @@
         <v>24</v>
       </c>
       <c r="C316">
-        <v>1.898781776428223</v>
+        <v>0.6422910690307617</v>
       </c>
       <c r="D316" t="b">
         <v>1</v>
@@ -7828,7 +7828,7 @@
         <v>24</v>
       </c>
       <c r="C317">
-        <v>1.961785078048706</v>
+        <v>0.6544816493988037</v>
       </c>
       <c r="D317" t="b">
         <v>1</v>
@@ -7842,7 +7842,7 @@
         <v>24</v>
       </c>
       <c r="C318">
-        <v>1.921296358108521</v>
+        <v>0.6782324314117432</v>
       </c>
       <c r="D318" t="b">
         <v>1</v>
@@ -7856,7 +7856,7 @@
         <v>24</v>
       </c>
       <c r="C319">
-        <v>1.942194700241089</v>
+        <v>0.6537086963653564</v>
       </c>
       <c r="D319" t="b">
         <v>1</v>
@@ -7870,7 +7870,7 @@
         <v>24</v>
       </c>
       <c r="C320">
-        <v>1.918884515762329</v>
+        <v>0.6491172313690186</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
@@ -7884,7 +7884,7 @@
         <v>24</v>
       </c>
       <c r="C321">
-        <v>1.926424980163574</v>
+        <v>0.705169677734375</v>
       </c>
       <c r="D321" t="b">
         <v>1</v>
@@ -7898,7 +7898,7 @@
         <v>24</v>
       </c>
       <c r="C322">
-        <v>1.929361820220947</v>
+        <v>0.6554901599884033</v>
       </c>
       <c r="D322" t="b">
         <v>1</v>
@@ -7912,7 +7912,7 @@
         <v>24</v>
       </c>
       <c r="C323">
-        <v>1.928809404373169</v>
+        <v>0.6495704650878906</v>
       </c>
       <c r="D323" t="b">
         <v>1</v>
@@ -7926,7 +7926,7 @@
         <v>24</v>
       </c>
       <c r="C324">
-        <v>1.96451210975647</v>
+        <v>1.130734920501709</v>
       </c>
       <c r="D324" t="b">
         <v>1</v>
@@ -7940,7 +7940,7 @@
         <v>23</v>
       </c>
       <c r="C325">
-        <v>1.961507558822632</v>
+        <v>0.7828254699707031</v>
       </c>
       <c r="D325" t="b">
         <v>1</v>
@@ -7954,7 +7954,7 @@
         <v>24</v>
       </c>
       <c r="C326">
-        <v>1.959314346313477</v>
+        <v>0.9215266704559326</v>
       </c>
       <c r="D326" t="b">
         <v>1</v>
@@ -7968,7 +7968,7 @@
         <v>24</v>
       </c>
       <c r="C327">
-        <v>1.952390909194946</v>
+        <v>0.6419281959533691</v>
       </c>
       <c r="D327" t="b">
         <v>1</v>
@@ -7982,7 +7982,7 @@
         <v>24</v>
       </c>
       <c r="C328">
-        <v>2.567641019821167</v>
+        <v>0.755962610244751</v>
       </c>
       <c r="D328" t="b">
         <v>1</v>
@@ -7996,7 +7996,7 @@
         <v>24</v>
       </c>
       <c r="C329">
-        <v>1.93696928024292</v>
+        <v>0.652590274810791</v>
       </c>
       <c r="D329" t="b">
         <v>1</v>
@@ -8010,7 +8010,7 @@
         <v>24</v>
       </c>
       <c r="C330">
-        <v>2.056519031524658</v>
+        <v>0.7145695686340332</v>
       </c>
       <c r="D330" t="b">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>24</v>
       </c>
       <c r="C331">
-        <v>1.981690168380737</v>
+        <v>0.6694676876068115</v>
       </c>
       <c r="D331" t="b">
         <v>1</v>
@@ -8038,7 +8038,7 @@
         <v>24</v>
       </c>
       <c r="C332">
-        <v>1.858803749084473</v>
+        <v>0.6880676746368408</v>
       </c>
       <c r="D332" t="b">
         <v>1</v>
@@ -8052,7 +8052,7 @@
         <v>24</v>
       </c>
       <c r="C333">
-        <v>1.943388938903809</v>
+        <v>0.7962157726287842</v>
       </c>
       <c r="D333" t="b">
         <v>1</v>
@@ -8066,7 +8066,7 @@
         <v>24</v>
       </c>
       <c r="C334">
-        <v>2.216693162918091</v>
+        <v>0.6702065467834473</v>
       </c>
       <c r="D334" t="b">
         <v>1</v>
@@ -8080,7 +8080,7 @@
         <v>24</v>
       </c>
       <c r="C335">
-        <v>2.212657690048218</v>
+        <v>0.9582083225250244</v>
       </c>
       <c r="D335" t="b">
         <v>1</v>
@@ -8094,7 +8094,7 @@
         <v>23</v>
       </c>
       <c r="C336">
-        <v>2.497946500778198</v>
+        <v>0.6922717094421387</v>
       </c>
       <c r="D336" t="b">
         <v>1</v>
@@ -8108,7 +8108,7 @@
         <v>24</v>
       </c>
       <c r="C337">
-        <v>1.840967893600464</v>
+        <v>0.7963178157806396</v>
       </c>
       <c r="D337" t="b">
         <v>1</v>
@@ -8122,7 +8122,7 @@
         <v>24</v>
       </c>
       <c r="C338">
-        <v>1.911936044692993</v>
+        <v>0.6854958534240723</v>
       </c>
       <c r="D338" t="b">
         <v>1</v>
@@ -8136,7 +8136,7 @@
         <v>24</v>
       </c>
       <c r="C339">
-        <v>1.8346848487854</v>
+        <v>0.9976184368133545</v>
       </c>
       <c r="D339" t="b">
         <v>1</v>
@@ -8150,7 +8150,7 @@
         <v>24</v>
       </c>
       <c r="C340">
-        <v>1.858640432357788</v>
+        <v>0.8980109691619873</v>
       </c>
       <c r="D340" t="b">
         <v>1</v>
@@ -8164,7 +8164,7 @@
         <v>24</v>
       </c>
       <c r="C341">
-        <v>1.813819408416748</v>
+        <v>0.6747510433197021</v>
       </c>
       <c r="D341" t="b">
         <v>1</v>
@@ -8178,7 +8178,7 @@
         <v>24</v>
       </c>
       <c r="C342">
-        <v>1.84686803817749</v>
+        <v>0.6772351264953613</v>
       </c>
       <c r="D342" t="b">
         <v>1</v>
@@ -8192,7 +8192,7 @@
         <v>24</v>
       </c>
       <c r="C343">
-        <v>1.838186502456665</v>
+        <v>0.8010694980621338</v>
       </c>
       <c r="D343" t="b">
         <v>1</v>
@@ -8206,7 +8206,7 @@
         <v>24</v>
       </c>
       <c r="C344">
-        <v>1.82600736618042</v>
+        <v>0.6771872043609619</v>
       </c>
       <c r="D344" t="b">
         <v>1</v>
@@ -8220,7 +8220,7 @@
         <v>24</v>
       </c>
       <c r="C345">
-        <v>1.838392972946167</v>
+        <v>0.794691801071167</v>
       </c>
       <c r="D345" t="b">
         <v>1</v>
@@ -8234,7 +8234,7 @@
         <v>24</v>
       </c>
       <c r="C346">
-        <v>1.824011564254761</v>
+        <v>1.048194885253906</v>
       </c>
       <c r="D346" t="b">
         <v>1</v>
@@ -8248,7 +8248,7 @@
         <v>22</v>
       </c>
       <c r="C347">
-        <v>1.813341856002808</v>
+        <v>0.8143332004547119</v>
       </c>
       <c r="D347" t="b">
         <v>1</v>
@@ -8262,7 +8262,7 @@
         <v>23</v>
       </c>
       <c r="C348">
-        <v>1.842286109924316</v>
+        <v>0.9625537395477295</v>
       </c>
       <c r="D348" t="b">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>24</v>
       </c>
       <c r="C349">
-        <v>1.829116582870483</v>
+        <v>0.740199089050293</v>
       </c>
       <c r="D349" t="b">
         <v>1</v>
@@ -8290,7 +8290,7 @@
         <v>24</v>
       </c>
       <c r="C350">
-        <v>1.812304735183716</v>
+        <v>0.6719365119934082</v>
       </c>
       <c r="D350" t="b">
         <v>1</v>
@@ -8304,7 +8304,7 @@
         <v>25</v>
       </c>
       <c r="C351">
-        <v>2.161810398101807</v>
+        <v>0.6405029296875</v>
       </c>
       <c r="D351" t="b">
         <v>1</v>
@@ -8318,7 +8318,7 @@
         <v>25</v>
       </c>
       <c r="C352">
-        <v>2.053072452545166</v>
+        <v>0.6338217258453369</v>
       </c>
       <c r="D352" t="b">
         <v>1</v>
@@ -8332,7 +8332,7 @@
         <v>25</v>
       </c>
       <c r="C353">
-        <v>1.836093902587891</v>
+        <v>0.6425745487213135</v>
       </c>
       <c r="D353" t="b">
         <v>1</v>
@@ -8346,7 +8346,7 @@
         <v>25</v>
       </c>
       <c r="C354">
-        <v>1.897832632064819</v>
+        <v>0.8387117385864258</v>
       </c>
       <c r="D354" t="b">
         <v>1</v>
@@ -8360,7 +8360,7 @@
         <v>25</v>
       </c>
       <c r="C355">
-        <v>1.844415426254272</v>
+        <v>0.6341691017150879</v>
       </c>
       <c r="D355" t="b">
         <v>1</v>
@@ -8374,7 +8374,7 @@
         <v>25</v>
       </c>
       <c r="C356">
-        <v>1.834635257720947</v>
+        <v>0.783721923828125</v>
       </c>
       <c r="D356" t="b">
         <v>1</v>
@@ -8388,7 +8388,7 @@
         <v>25</v>
       </c>
       <c r="C357">
-        <v>2.814642667770386</v>
+        <v>0.7235438823699951</v>
       </c>
       <c r="D357" t="b">
         <v>1</v>
@@ -8402,7 +8402,7 @@
         <v>25</v>
       </c>
       <c r="C358">
-        <v>1.83973240852356</v>
+        <v>0.89768385887146</v>
       </c>
       <c r="D358" t="b">
         <v>1</v>
@@ -8416,7 +8416,7 @@
         <v>23</v>
       </c>
       <c r="C359">
-        <v>2.262921810150146</v>
+        <v>0.6329381465911865</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -8430,7 +8430,7 @@
         <v>25</v>
       </c>
       <c r="C360">
-        <v>2.037622928619385</v>
+        <v>0.6408672332763672</v>
       </c>
       <c r="D360" t="b">
         <v>1</v>
@@ -8444,7 +8444,7 @@
         <v>25</v>
       </c>
       <c r="C361">
-        <v>1.816188335418701</v>
+        <v>0.6403086185455322</v>
       </c>
       <c r="D361" t="b">
         <v>1</v>
@@ -8458,7 +8458,7 @@
         <v>25</v>
       </c>
       <c r="C362">
-        <v>1.816332101821899</v>
+        <v>0.6250119209289551</v>
       </c>
       <c r="D362" t="b">
         <v>1</v>
@@ -8472,7 +8472,7 @@
         <v>25</v>
       </c>
       <c r="C363">
-        <v>1.82246732711792</v>
+        <v>0.63883376121521</v>
       </c>
       <c r="D363" t="b">
         <v>1</v>
@@ -8486,7 +8486,7 @@
         <v>25</v>
       </c>
       <c r="C364">
-        <v>1.985006332397461</v>
+        <v>0.6603174209594727</v>
       </c>
       <c r="D364" t="b">
         <v>1</v>
@@ -8500,7 +8500,7 @@
         <v>25</v>
       </c>
       <c r="C365">
-        <v>1.836966514587402</v>
+        <v>0.6510505676269531</v>
       </c>
       <c r="D365" t="b">
         <v>1</v>
@@ -8514,7 +8514,7 @@
         <v>25</v>
       </c>
       <c r="C366">
-        <v>1.854507446289062</v>
+        <v>0.6342835426330566</v>
       </c>
       <c r="D366" t="b">
         <v>1</v>
@@ -8528,7 +8528,7 @@
         <v>25</v>
       </c>
       <c r="C367">
-        <v>2.032621622085571</v>
+        <v>0.6318457126617432</v>
       </c>
       <c r="D367" t="b">
         <v>1</v>
@@ -8542,7 +8542,7 @@
         <v>25</v>
       </c>
       <c r="C368">
-        <v>1.813891649246216</v>
+        <v>0.772442102432251</v>
       </c>
       <c r="D368" t="b">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>25</v>
       </c>
       <c r="C369">
-        <v>2.240474939346313</v>
+        <v>0.6525013446807861</v>
       </c>
       <c r="D369" t="b">
         <v>1</v>
@@ -8570,7 +8570,7 @@
         <v>23</v>
       </c>
       <c r="C370">
-        <v>1.890543222427368</v>
+        <v>0.6278047561645508</v>
       </c>
       <c r="D370" t="b">
         <v>1</v>
@@ -8584,7 +8584,7 @@
         <v>25</v>
       </c>
       <c r="C371">
-        <v>2.079964399337769</v>
+        <v>0.6316390037536621</v>
       </c>
       <c r="D371" t="b">
         <v>1</v>
@@ -8598,7 +8598,7 @@
         <v>25</v>
       </c>
       <c r="C372">
-        <v>1.994372606277466</v>
+        <v>0.8214271068572998</v>
       </c>
       <c r="D372" t="b">
         <v>1</v>
@@ -8612,7 +8612,7 @@
         <v>25</v>
       </c>
       <c r="C373">
-        <v>1.82579779624939</v>
+        <v>0.6223077774047852</v>
       </c>
       <c r="D373" t="b">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>25</v>
       </c>
       <c r="C374">
-        <v>2.094407081604004</v>
+        <v>0.6809921264648438</v>
       </c>
       <c r="D374" t="b">
         <v>1</v>
@@ -8640,7 +8640,7 @@
         <v>25</v>
       </c>
       <c r="C375">
-        <v>1.824644804000854</v>
+        <v>0.650702953338623</v>
       </c>
       <c r="D375" t="b">
         <v>1</v>
@@ -8654,7 +8654,7 @@
         <v>25</v>
       </c>
       <c r="C376">
-        <v>1.829076051712036</v>
+        <v>0.6618359088897705</v>
       </c>
       <c r="D376" t="b">
         <v>1</v>
@@ -8668,7 +8668,7 @@
         <v>25</v>
       </c>
       <c r="C377">
-        <v>1.847152233123779</v>
+        <v>0.7902238368988037</v>
       </c>
       <c r="D377" t="b">
         <v>1</v>
@@ -8682,7 +8682,7 @@
         <v>25</v>
       </c>
       <c r="C378">
-        <v>2.058292627334595</v>
+        <v>0.7294161319732666</v>
       </c>
       <c r="D378" t="b">
         <v>1</v>
@@ -8696,7 +8696,7 @@
         <v>25</v>
       </c>
       <c r="C379">
-        <v>1.869606018066406</v>
+        <v>0.9405503273010254</v>
       </c>
       <c r="D379" t="b">
         <v>1</v>
@@ -8710,7 +8710,7 @@
         <v>25</v>
       </c>
       <c r="C380">
-        <v>1.828099727630615</v>
+        <v>0.9488639831542969</v>
       </c>
       <c r="D380" t="b">
         <v>1</v>
@@ -8724,7 +8724,7 @@
         <v>23</v>
       </c>
       <c r="C381">
-        <v>1.833925247192383</v>
+        <v>0.8678615093231201</v>
       </c>
       <c r="D381" t="b">
         <v>1</v>
@@ -8738,7 +8738,7 @@
         <v>25</v>
       </c>
       <c r="C382">
-        <v>1.849779605865479</v>
+        <v>0.9965767860412598</v>
       </c>
       <c r="D382" t="b">
         <v>1</v>
@@ -8752,7 +8752,7 @@
         <v>25</v>
       </c>
       <c r="C383">
-        <v>1.812275171279907</v>
+        <v>0.8407919406890869</v>
       </c>
       <c r="D383" t="b">
         <v>1</v>
@@ -8766,7 +8766,7 @@
         <v>25</v>
       </c>
       <c r="C384">
-        <v>2.030011415481567</v>
+        <v>0.7228624820709229</v>
       </c>
       <c r="D384" t="b">
         <v>1</v>
@@ -8780,7 +8780,7 @@
         <v>25</v>
       </c>
       <c r="C385">
-        <v>1.933239698410034</v>
+        <v>0.6655817031860352</v>
       </c>
       <c r="D385" t="b">
         <v>1</v>
@@ -8794,7 +8794,7 @@
         <v>25</v>
       </c>
       <c r="C386">
-        <v>1.982952117919922</v>
+        <v>0.6703255176544189</v>
       </c>
       <c r="D386" t="b">
         <v>1</v>
@@ -8808,7 +8808,7 @@
         <v>25</v>
       </c>
       <c r="C387">
-        <v>1.918892383575439</v>
+        <v>0.6570858955383301</v>
       </c>
       <c r="D387" t="b">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>25</v>
       </c>
       <c r="C388">
-        <v>1.838207006454468</v>
+        <v>0.6287262439727783</v>
       </c>
       <c r="D388" t="b">
         <v>1</v>
@@ -8836,7 +8836,7 @@
         <v>25</v>
       </c>
       <c r="C389">
-        <v>1.813860893249512</v>
+        <v>0.6276679039001465</v>
       </c>
       <c r="D389" t="b">
         <v>1</v>
@@ -8850,7 +8850,7 @@
         <v>25</v>
       </c>
       <c r="C390">
-        <v>1.836089849472046</v>
+        <v>0.6310746669769287</v>
       </c>
       <c r="D390" t="b">
         <v>1</v>
@@ -8864,7 +8864,7 @@
         <v>25</v>
       </c>
       <c r="C391">
-        <v>1.975883007049561</v>
+        <v>0.6240828037261963</v>
       </c>
       <c r="D391" t="b">
         <v>1</v>
@@ -8878,7 +8878,7 @@
         <v>23</v>
       </c>
       <c r="C392">
-        <v>1.844634532928467</v>
+        <v>0.7135453224182129</v>
       </c>
       <c r="D392" t="b">
         <v>1</v>
@@ -8892,7 +8892,7 @@
         <v>25</v>
       </c>
       <c r="C393">
-        <v>1.826380252838135</v>
+        <v>0.7133452892303467</v>
       </c>
       <c r="D393" t="b">
         <v>1</v>
@@ -8906,7 +8906,7 @@
         <v>25</v>
       </c>
       <c r="C394">
-        <v>2.097830057144165</v>
+        <v>0.6861963272094727</v>
       </c>
       <c r="D394" t="b">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>25</v>
       </c>
       <c r="C395">
-        <v>1.824643850326538</v>
+        <v>0.6883769035339355</v>
       </c>
       <c r="D395" t="b">
         <v>1</v>
@@ -8934,7 +8934,7 @@
         <v>25</v>
       </c>
       <c r="C396">
-        <v>1.83682656288147</v>
+        <v>0.6760187149047852</v>
       </c>
       <c r="D396" t="b">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>25</v>
       </c>
       <c r="C397">
-        <v>1.845989942550659</v>
+        <v>0.7133009433746338</v>
       </c>
       <c r="D397" t="b">
         <v>1</v>
@@ -8962,7 +8962,7 @@
         <v>25</v>
       </c>
       <c r="C398">
-        <v>1.825488090515137</v>
+        <v>0.6468839645385742</v>
       </c>
       <c r="D398" t="b">
         <v>1</v>
@@ -8976,7 +8976,7 @@
         <v>25</v>
       </c>
       <c r="C399">
-        <v>1.834084510803223</v>
+        <v>0.6648063659667969</v>
       </c>
       <c r="D399" t="b">
         <v>1</v>
@@ -8990,7 +8990,7 @@
         <v>25</v>
       </c>
       <c r="C400">
-        <v>2.265080690383911</v>
+        <v>0.6442489624023438</v>
       </c>
       <c r="D400" t="b">
         <v>1</v>
@@ -9004,7 +9004,7 @@
         <v>25</v>
       </c>
       <c r="C401">
-        <v>1.954968452453613</v>
+        <v>0.6278011798858643</v>
       </c>
       <c r="D401" t="b">
         <v>1</v>
@@ -9018,7 +9018,7 @@
         <v>25</v>
       </c>
       <c r="C402">
-        <v>1.92303204536438</v>
+        <v>0.6422810554504395</v>
       </c>
       <c r="D402" t="b">
         <v>1</v>
@@ -9032,7 +9032,7 @@
         <v>23</v>
       </c>
       <c r="C403">
-        <v>1.832136154174805</v>
+        <v>1.253935098648071</v>
       </c>
       <c r="D403" t="b">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>25</v>
       </c>
       <c r="C404">
-        <v>1.832903146743774</v>
+        <v>0.837446928024292</v>
       </c>
       <c r="D404" t="b">
         <v>1</v>
@@ -9060,7 +9060,7 @@
         <v>25</v>
       </c>
       <c r="C405">
-        <v>2.261939764022827</v>
+        <v>0.8357598781585693</v>
       </c>
       <c r="D405" t="b">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>25</v>
       </c>
       <c r="C406">
-        <v>2.15817403793335</v>
+        <v>1.012696743011475</v>
       </c>
       <c r="D406" t="b">
         <v>1</v>
@@ -9088,7 +9088,7 @@
         <v>25</v>
       </c>
       <c r="C407">
-        <v>2.221342325210571</v>
+        <v>0.8158767223358154</v>
       </c>
       <c r="D407" t="b">
         <v>1</v>
@@ -9102,7 +9102,7 @@
         <v>25</v>
       </c>
       <c r="C408">
-        <v>1.995220899581909</v>
+        <v>0.7170436382293701</v>
       </c>
       <c r="D408" t="b">
         <v>1</v>
@@ -9116,7 +9116,7 @@
         <v>25</v>
       </c>
       <c r="C409">
-        <v>1.900049448013306</v>
+        <v>0.658064603805542</v>
       </c>
       <c r="D409" t="b">
         <v>1</v>
@@ -9130,7 +9130,7 @@
         <v>25</v>
       </c>
       <c r="C410">
-        <v>1.812750816345215</v>
+        <v>0.988133430480957</v>
       </c>
       <c r="D410" t="b">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>25</v>
       </c>
       <c r="C411">
-        <v>1.835566759109497</v>
+        <v>1.271618843078613</v>
       </c>
       <c r="D411" t="b">
         <v>1</v>
@@ -9158,7 +9158,7 @@
         <v>25</v>
       </c>
       <c r="C412">
-        <v>1.9499831199646</v>
+        <v>1.216346025466919</v>
       </c>
       <c r="D412" t="b">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>25</v>
       </c>
       <c r="C413">
-        <v>2.055788040161133</v>
+        <v>0.7208740711212158</v>
       </c>
       <c r="D413" t="b">
         <v>1</v>
@@ -9186,7 +9186,7 @@
         <v>23</v>
       </c>
       <c r="C414">
-        <v>1.830811023712158</v>
+        <v>0.6619954109191895</v>
       </c>
       <c r="D414" t="b">
         <v>1</v>
@@ -9200,7 +9200,7 @@
         <v>25</v>
       </c>
       <c r="C415">
-        <v>1.835561275482178</v>
+        <v>0.7236521244049072</v>
       </c>
       <c r="D415" t="b">
         <v>1</v>
@@ -9214,7 +9214,7 @@
         <v>25</v>
       </c>
       <c r="C416">
-        <v>1.837369680404663</v>
+        <v>0.6341526508331299</v>
       </c>
       <c r="D416" t="b">
         <v>1</v>
@@ -9228,7 +9228,7 @@
         <v>25</v>
       </c>
       <c r="C417">
-        <v>1.89711332321167</v>
+        <v>0.6379296779632568</v>
       </c>
       <c r="D417" t="b">
         <v>1</v>
@@ -9242,7 +9242,7 @@
         <v>25</v>
       </c>
       <c r="C418">
-        <v>2.147850513458252</v>
+        <v>0.6670732498168945</v>
       </c>
       <c r="D418" t="b">
         <v>1</v>
@@ -9256,7 +9256,7 @@
         <v>25</v>
       </c>
       <c r="C419">
-        <v>1.830087900161743</v>
+        <v>0.7729945182800293</v>
       </c>
       <c r="D419" t="b">
         <v>1</v>
@@ -9270,7 +9270,7 @@
         <v>25</v>
       </c>
       <c r="C420">
-        <v>1.860174655914307</v>
+        <v>0.6391067504882812</v>
       </c>
       <c r="D420" t="b">
         <v>1</v>
@@ -9284,7 +9284,7 @@
         <v>25</v>
       </c>
       <c r="C421">
-        <v>1.820914745330811</v>
+        <v>0.7330217361450195</v>
       </c>
       <c r="D421" t="b">
         <v>1</v>
@@ -9298,7 +9298,7 @@
         <v>25</v>
       </c>
       <c r="C422">
-        <v>1.980513095855713</v>
+        <v>0.8478817939758301</v>
       </c>
       <c r="D422" t="b">
         <v>1</v>
@@ -9312,7 +9312,7 @@
         <v>25</v>
       </c>
       <c r="C423">
-        <v>1.834121704101562</v>
+        <v>0.6433377265930176</v>
       </c>
       <c r="D423" t="b">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>25</v>
       </c>
       <c r="C424">
-        <v>1.832082748413086</v>
+        <v>0.6926896572113037</v>
       </c>
       <c r="D424" t="b">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>23</v>
       </c>
       <c r="C425">
-        <v>1.835885524749756</v>
+        <v>0.8231399059295654</v>
       </c>
       <c r="D425" t="b">
         <v>1</v>
@@ -9354,7 +9354,7 @@
         <v>25</v>
       </c>
       <c r="C426">
-        <v>2.189132452011108</v>
+        <v>0.6479055881500244</v>
       </c>
       <c r="D426" t="b">
         <v>1</v>
@@ -9368,7 +9368,7 @@
         <v>25</v>
       </c>
       <c r="C427">
-        <v>1.828121185302734</v>
+        <v>0.6709141731262207</v>
       </c>
       <c r="D427" t="b">
         <v>1</v>
@@ -9382,7 +9382,7 @@
         <v>25</v>
       </c>
       <c r="C428">
-        <v>1.906058788299561</v>
+        <v>1.163504123687744</v>
       </c>
       <c r="D428" t="b">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>25</v>
       </c>
       <c r="C429">
-        <v>2.187101125717163</v>
+        <v>0.8204872608184814</v>
       </c>
       <c r="D429" t="b">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>25</v>
       </c>
       <c r="C430">
-        <v>1.825979948043823</v>
+        <v>0.9301023483276367</v>
       </c>
       <c r="D430" t="b">
         <v>1</v>
@@ -9424,7 +9424,7 @@
         <v>25</v>
       </c>
       <c r="C431">
-        <v>1.876132249832153</v>
+        <v>0.8080523014068604</v>
       </c>
       <c r="D431" t="b">
         <v>1</v>
@@ -9438,7 +9438,7 @@
         <v>25</v>
       </c>
       <c r="C432">
-        <v>1.822715759277344</v>
+        <v>1.045125484466553</v>
       </c>
       <c r="D432" t="b">
         <v>1</v>
@@ -9452,7 +9452,7 @@
         <v>25</v>
       </c>
       <c r="C433">
-        <v>1.997054815292358</v>
+        <v>0.7099418640136719</v>
       </c>
       <c r="D433" t="b">
         <v>1</v>
@@ -9466,7 +9466,7 @@
         <v>25</v>
       </c>
       <c r="C434">
-        <v>1.854128837585449</v>
+        <v>0.723146915435791</v>
       </c>
       <c r="D434" t="b">
         <v>1</v>
@@ -9480,7 +9480,7 @@
         <v>25</v>
       </c>
       <c r="C435">
-        <v>1.849024295806885</v>
+        <v>0.6940176486968994</v>
       </c>
       <c r="D435" t="b">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>23</v>
       </c>
       <c r="C436">
-        <v>1.819802045822144</v>
+        <v>0.7650847434997559</v>
       </c>
       <c r="D436" t="b">
         <v>1</v>
@@ -9508,7 +9508,7 @@
         <v>25</v>
       </c>
       <c r="C437">
-        <v>1.816335201263428</v>
+        <v>0.7537477016448975</v>
       </c>
       <c r="D437" t="b">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>25</v>
       </c>
       <c r="C438">
-        <v>1.823107004165649</v>
+        <v>0.8712828159332275</v>
       </c>
       <c r="D438" t="b">
         <v>1</v>
@@ -9536,7 +9536,7 @@
         <v>25</v>
       </c>
       <c r="C439">
-        <v>1.85099720954895</v>
+        <v>0.7212655544281006</v>
       </c>
       <c r="D439" t="b">
         <v>1</v>
@@ -9550,7 +9550,7 @@
         <v>25</v>
       </c>
       <c r="C440">
-        <v>1.847198963165283</v>
+        <v>0.6779775619506836</v>
       </c>
       <c r="D440" t="b">
         <v>1</v>
@@ -9564,7 +9564,7 @@
         <v>25</v>
       </c>
       <c r="C441">
-        <v>1.967740058898926</v>
+        <v>0.6632096767425537</v>
       </c>
       <c r="D441" t="b">
         <v>1</v>
@@ -9578,7 +9578,7 @@
         <v>25</v>
       </c>
       <c r="C442">
-        <v>2.308073282241821</v>
+        <v>0.6398289203643799</v>
       </c>
       <c r="D442" t="b">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>25</v>
       </c>
       <c r="C443">
-        <v>2.664056777954102</v>
+        <v>0.6392083168029785</v>
       </c>
       <c r="D443" t="b">
         <v>1</v>
@@ -9606,7 +9606,7 @@
         <v>25</v>
       </c>
       <c r="C444">
-        <v>2.893197774887085</v>
+        <v>0.6401894092559814</v>
       </c>
       <c r="D444" t="b">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>25</v>
       </c>
       <c r="C445">
-        <v>2.295900583267212</v>
+        <v>1.067459583282471</v>
       </c>
       <c r="D445" t="b">
         <v>1</v>
@@ -9634,7 +9634,7 @@
         <v>25</v>
       </c>
       <c r="C446">
-        <v>1.855145454406738</v>
+        <v>1.070089817047119</v>
       </c>
       <c r="D446" t="b">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>23</v>
       </c>
       <c r="C447">
-        <v>2.203021049499512</v>
+        <v>0.6742327213287354</v>
       </c>
       <c r="D447" t="b">
         <v>1</v>
@@ -9662,7 +9662,7 @@
         <v>25</v>
       </c>
       <c r="C448">
-        <v>1.870918750762939</v>
+        <v>0.6770541667938232</v>
       </c>
       <c r="D448" t="b">
         <v>1</v>
@@ -9676,7 +9676,7 @@
         <v>25</v>
       </c>
       <c r="C449">
-        <v>2.441218614578247</v>
+        <v>0.6409859657287598</v>
       </c>
       <c r="D449" t="b">
         <v>1</v>
@@ -9690,7 +9690,7 @@
         <v>25</v>
       </c>
       <c r="C450">
-        <v>2.334530830383301</v>
+        <v>0.8600008487701416</v>
       </c>
       <c r="D450" t="b">
         <v>1</v>
@@ -9704,7 +9704,7 @@
         <v>25</v>
       </c>
       <c r="C451">
-        <v>2.255101680755615</v>
+        <v>0.8156561851501465</v>
       </c>
       <c r="D451" t="b">
         <v>1</v>
@@ -9718,7 +9718,7 @@
         <v>25</v>
       </c>
       <c r="C452">
-        <v>2.237488269805908</v>
+        <v>1.175502777099609</v>
       </c>
       <c r="D452" t="b">
         <v>1</v>
@@ -9732,7 +9732,7 @@
         <v>25</v>
       </c>
       <c r="C453">
-        <v>1.814361095428467</v>
+        <v>1.136623382568359</v>
       </c>
       <c r="D453" t="b">
         <v>1</v>
@@ -9746,7 +9746,7 @@
         <v>25</v>
       </c>
       <c r="C454">
-        <v>1.826786279678345</v>
+        <v>0.6874101161956787</v>
       </c>
       <c r="D454" t="b">
         <v>1</v>
@@ -9760,7 +9760,7 @@
         <v>25</v>
       </c>
       <c r="C455">
-        <v>1.832217454910278</v>
+        <v>0.6509580612182617</v>
       </c>
       <c r="D455" t="b">
         <v>1</v>
@@ -9774,7 +9774,7 @@
         <v>25</v>
       </c>
       <c r="C456">
-        <v>1.840124845504761</v>
+        <v>0.7008774280548096</v>
       </c>
       <c r="D456" t="b">
         <v>1</v>
@@ -9788,7 +9788,7 @@
         <v>25</v>
       </c>
       <c r="C457">
-        <v>1.859927415847778</v>
+        <v>1.127204656600952</v>
       </c>
       <c r="D457" t="b">
         <v>1</v>
@@ -9802,7 +9802,7 @@
         <v>22</v>
       </c>
       <c r="C458">
-        <v>1.835509300231934</v>
+        <v>0.7522256374359131</v>
       </c>
       <c r="D458" t="b">
         <v>1</v>
@@ -9816,7 +9816,7 @@
         <v>23</v>
       </c>
       <c r="C459">
-        <v>1.833517551422119</v>
+        <v>0.7035794258117676</v>
       </c>
       <c r="D459" t="b">
         <v>1</v>
@@ -9830,7 +9830,7 @@
         <v>25</v>
       </c>
       <c r="C460">
-        <v>1.838951587677002</v>
+        <v>0.64703369140625</v>
       </c>
       <c r="D460" t="b">
         <v>1</v>
@@ -9844,7 +9844,7 @@
         <v>25</v>
       </c>
       <c r="C461">
-        <v>2.010990858078003</v>
+        <v>0.6321978569030762</v>
       </c>
       <c r="D461" t="b">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>25</v>
       </c>
       <c r="C462">
-        <v>1.947740316390991</v>
+        <v>1.022895574569702</v>
       </c>
       <c r="D462" t="b">
         <v>1</v>
@@ -9872,7 +9872,7 @@
         <v>25</v>
       </c>
       <c r="C463">
-        <v>1.990637302398682</v>
+        <v>0.6806540489196777</v>
       </c>
       <c r="D463" t="b">
         <v>1</v>
@@ -9886,7 +9886,7 @@
         <v>25</v>
       </c>
       <c r="C464">
-        <v>2.469281673431396</v>
+        <v>0.7023589611053467</v>
       </c>
       <c r="D464" t="b">
         <v>1</v>
@@ -9900,7 +9900,7 @@
         <v>25</v>
       </c>
       <c r="C465">
-        <v>1.939562797546387</v>
+        <v>0.7332625389099121</v>
       </c>
       <c r="D465" t="b">
         <v>1</v>
@@ -9914,7 +9914,7 @@
         <v>25</v>
       </c>
       <c r="C466">
-        <v>1.954575300216675</v>
+        <v>0.6598377227783203</v>
       </c>
       <c r="D466" t="b">
         <v>1</v>
@@ -9928,7 +9928,7 @@
         <v>25</v>
       </c>
       <c r="C467">
-        <v>1.900558710098267</v>
+        <v>0.6603653430938721</v>
       </c>
       <c r="D467" t="b">
         <v>1</v>
@@ -9942,7 +9942,7 @@
         <v>25</v>
       </c>
       <c r="C468">
-        <v>1.945900917053223</v>
+        <v>0.72263503074646</v>
       </c>
       <c r="D468" t="b">
         <v>1</v>
@@ -9956,7 +9956,7 @@
         <v>25</v>
       </c>
       <c r="C469">
-        <v>1.956052780151367</v>
+        <v>0.7246196269989014</v>
       </c>
       <c r="D469" t="b">
         <v>1</v>
@@ -9970,7 +9970,7 @@
         <v>23</v>
       </c>
       <c r="C470">
-        <v>1.907114505767822</v>
+        <v>0.6544308662414551</v>
       </c>
       <c r="D470" t="b">
         <v>1</v>
@@ -9984,7 +9984,7 @@
         <v>25</v>
       </c>
       <c r="C471">
-        <v>1.938942909240723</v>
+        <v>0.9017691612243652</v>
       </c>
       <c r="D471" t="b">
         <v>1</v>
@@ -9998,7 +9998,7 @@
         <v>25</v>
       </c>
       <c r="C472">
-        <v>1.980770111083984</v>
+        <v>0.6888720989227295</v>
       </c>
       <c r="D472" t="b">
         <v>1</v>
@@ -10012,7 +10012,7 @@
         <v>25</v>
       </c>
       <c r="C473">
-        <v>2.023918628692627</v>
+        <v>0.6641759872436523</v>
       </c>
       <c r="D473" t="b">
         <v>1</v>
@@ -10026,7 +10026,7 @@
         <v>25</v>
       </c>
       <c r="C474">
-        <v>2.085505962371826</v>
+        <v>0.816035270690918</v>
       </c>
       <c r="D474" t="b">
         <v>1</v>
@@ -10040,7 +10040,7 @@
         <v>25</v>
       </c>
       <c r="C475">
-        <v>2.111024141311646</v>
+        <v>0.6868636608123779</v>
       </c>
       <c r="D475" t="b">
         <v>1</v>
@@ -10054,7 +10054,7 @@
         <v>25</v>
       </c>
       <c r="C476">
-        <v>1.928991556167603</v>
+        <v>0.6444525718688965</v>
       </c>
       <c r="D476" t="b">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>25</v>
       </c>
       <c r="C477">
-        <v>1.931933641433716</v>
+        <v>0.7233326435089111</v>
       </c>
       <c r="D477" t="b">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>25</v>
       </c>
       <c r="C478">
-        <v>1.952023983001709</v>
+        <v>0.7089316844940186</v>
       </c>
       <c r="D478" t="b">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>25</v>
       </c>
       <c r="C479">
-        <v>1.945930957794189</v>
+        <v>0.6675667762756348</v>
       </c>
       <c r="D479" t="b">
         <v>1</v>
@@ -10110,7 +10110,7 @@
         <v>25</v>
       </c>
       <c r="C480">
-        <v>1.93401575088501</v>
+        <v>0.7260482311248779</v>
       </c>
       <c r="D480" t="b">
         <v>1</v>
@@ -10124,7 +10124,7 @@
         <v>23</v>
       </c>
       <c r="C481">
-        <v>1.948486804962158</v>
+        <v>0.6545710563659668</v>
       </c>
       <c r="D481" t="b">
         <v>1</v>
@@ -10138,7 +10138,7 @@
         <v>25</v>
       </c>
       <c r="C482">
-        <v>1.951736211776733</v>
+        <v>1.188480615615845</v>
       </c>
       <c r="D482" t="b">
         <v>1</v>
@@ -10152,7 +10152,7 @@
         <v>25</v>
       </c>
       <c r="C483">
-        <v>1.940536975860596</v>
+        <v>0.6604280471801758</v>
       </c>
       <c r="D483" t="b">
         <v>1</v>
@@ -10166,7 +10166,7 @@
         <v>25</v>
       </c>
       <c r="C484">
-        <v>1.929426431655884</v>
+        <v>0.6952958106994629</v>
       </c>
       <c r="D484" t="b">
         <v>1</v>
@@ -10180,7 +10180,7 @@
         <v>25</v>
       </c>
       <c r="C485">
-        <v>1.939921855926514</v>
+        <v>0.6917963027954102</v>
       </c>
       <c r="D485" t="b">
         <v>1</v>
@@ -10194,7 +10194,7 @@
         <v>25</v>
       </c>
       <c r="C486">
-        <v>1.955113887786865</v>
+        <v>0.8356432914733887</v>
       </c>
       <c r="D486" t="b">
         <v>1</v>
@@ -10208,7 +10208,7 @@
         <v>25</v>
       </c>
       <c r="C487">
-        <v>1.927010297775269</v>
+        <v>0.7346925735473633</v>
       </c>
       <c r="D487" t="b">
         <v>1</v>
@@ -10222,7 +10222,7 @@
         <v>25</v>
       </c>
       <c r="C488">
-        <v>2.182124376296997</v>
+        <v>0.7085096836090088</v>
       </c>
       <c r="D488" t="b">
         <v>1</v>
@@ -10236,7 +10236,7 @@
         <v>25</v>
       </c>
       <c r="C489">
-        <v>2.145346403121948</v>
+        <v>1.210697174072266</v>
       </c>
       <c r="D489" t="b">
         <v>1</v>
@@ -10250,7 +10250,7 @@
         <v>25</v>
       </c>
       <c r="C490">
-        <v>1.954379558563232</v>
+        <v>0.8425533771514893</v>
       </c>
       <c r="D490" t="b">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>25</v>
       </c>
       <c r="C491">
-        <v>1.978991508483887</v>
+        <v>0.6841700077056885</v>
       </c>
       <c r="D491" t="b">
         <v>1</v>
@@ -10278,7 +10278,7 @@
         <v>23</v>
       </c>
       <c r="C492">
-        <v>1.992059469223022</v>
+        <v>0.8421053886413574</v>
       </c>
       <c r="D492" t="b">
         <v>1</v>
@@ -10292,7 +10292,7 @@
         <v>25</v>
       </c>
       <c r="C493">
-        <v>1.972467422485352</v>
+        <v>0.7507727146148682</v>
       </c>
       <c r="D493" t="b">
         <v>1</v>
@@ -10306,7 +10306,7 @@
         <v>25</v>
       </c>
       <c r="C494">
-        <v>1.991621732711792</v>
+        <v>0.6732258796691895</v>
       </c>
       <c r="D494" t="b">
         <v>1</v>
@@ -10320,7 +10320,7 @@
         <v>25</v>
       </c>
       <c r="C495">
-        <v>1.950021505355835</v>
+        <v>0.711716890335083</v>
       </c>
       <c r="D495" t="b">
         <v>1</v>
@@ -10334,7 +10334,7 @@
         <v>25</v>
       </c>
       <c r="C496">
-        <v>2.380915880203247</v>
+        <v>0.7362504005432129</v>
       </c>
       <c r="D496" t="b">
         <v>1</v>
@@ -10348,7 +10348,7 @@
         <v>25</v>
       </c>
       <c r="C497">
-        <v>2.128227233886719</v>
+        <v>0.6720495223999023</v>
       </c>
       <c r="D497" t="b">
         <v>1</v>
@@ -10362,7 +10362,7 @@
         <v>25</v>
       </c>
       <c r="C498">
-        <v>2.250765085220337</v>
+        <v>0.6872224807739258</v>
       </c>
       <c r="D498" t="b">
         <v>1</v>
@@ -10376,7 +10376,7 @@
         <v>25</v>
       </c>
       <c r="C499">
-        <v>1.922499179840088</v>
+        <v>1.223968982696533</v>
       </c>
       <c r="D499" t="b">
         <v>1</v>
@@ -10390,7 +10390,7 @@
         <v>25</v>
       </c>
       <c r="C500">
-        <v>1.93144965171814</v>
+        <v>0.6648929119110107</v>
       </c>
       <c r="D500" t="b">
         <v>1</v>
@@ -10404,7 +10404,7 @@
         <v>25</v>
       </c>
       <c r="C501">
-        <v>2.059144258499146</v>
+        <v>0.6563470363616943</v>
       </c>
       <c r="D501" t="b">
         <v>1</v>
@@ -10418,7 +10418,7 @@
         <v>25</v>
       </c>
       <c r="C502">
-        <v>2.319934129714966</v>
+        <v>1.005688428878784</v>
       </c>
       <c r="D502" t="b">
         <v>1</v>
@@ -10432,7 +10432,7 @@
         <v>23</v>
       </c>
       <c r="C503">
-        <v>2.074539661407471</v>
+        <v>0.7629570960998535</v>
       </c>
       <c r="D503" t="b">
         <v>1</v>
@@ -10446,7 +10446,7 @@
         <v>25</v>
       </c>
       <c r="C504">
-        <v>1.945478439331055</v>
+        <v>1.089501857757568</v>
       </c>
       <c r="D504" t="b">
         <v>1</v>
@@ -10460,7 +10460,7 @@
         <v>25</v>
       </c>
       <c r="C505">
-        <v>1.920084238052368</v>
+        <v>0.7058398723602295</v>
       </c>
       <c r="D505" t="b">
         <v>1</v>
@@ -10474,7 +10474,7 @@
         <v>25</v>
       </c>
       <c r="C506">
-        <v>1.925973176956177</v>
+        <v>1.1571946144104</v>
       </c>
       <c r="D506" t="b">
         <v>1</v>
@@ -10488,7 +10488,7 @@
         <v>25</v>
       </c>
       <c r="C507">
-        <v>1.923448801040649</v>
+        <v>0.9749233722686768</v>
       </c>
       <c r="D507" t="b">
         <v>1</v>
@@ -10502,7 +10502,7 @@
         <v>25</v>
       </c>
       <c r="C508">
-        <v>1.94252872467041</v>
+        <v>0.770012378692627</v>
       </c>
       <c r="D508" t="b">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>25</v>
       </c>
       <c r="C509">
-        <v>1.940672636032104</v>
+        <v>1.209132194519043</v>
       </c>
       <c r="D509" t="b">
         <v>1</v>
@@ -10530,7 +10530,7 @@
         <v>25</v>
       </c>
       <c r="C510">
-        <v>1.911826133728027</v>
+        <v>0.638134241104126</v>
       </c>
       <c r="D510" t="b">
         <v>1</v>
@@ -10544,7 +10544,7 @@
         <v>25</v>
       </c>
       <c r="C511">
-        <v>1.918708324432373</v>
+        <v>0.7811129093170166</v>
       </c>
       <c r="D511" t="b">
         <v>1</v>
@@ -10558,7 +10558,7 @@
         <v>25</v>
       </c>
       <c r="C512">
-        <v>1.916973114013672</v>
+        <v>0.8116943836212158</v>
       </c>
       <c r="D512" t="b">
         <v>1</v>
@@ -10572,7 +10572,7 @@
         <v>25</v>
       </c>
       <c r="C513">
-        <v>2.355379104614258</v>
+        <v>0.6387553215026855</v>
       </c>
       <c r="D513" t="b">
         <v>1</v>
@@ -10586,7 +10586,7 @@
         <v>23</v>
       </c>
       <c r="C514">
-        <v>1.930054664611816</v>
+        <v>0.82057785987854</v>
       </c>
       <c r="D514" t="b">
         <v>1</v>
@@ -10600,7 +10600,7 @@
         <v>25</v>
       </c>
       <c r="C515">
-        <v>1.97425103187561</v>
+        <v>0.6870498657226562</v>
       </c>
       <c r="D515" t="b">
         <v>1</v>
@@ -10614,7 +10614,7 @@
         <v>25</v>
       </c>
       <c r="C516">
-        <v>2.010373830795288</v>
+        <v>0.6747992038726807</v>
       </c>
       <c r="D516" t="b">
         <v>1</v>
@@ -10628,7 +10628,7 @@
         <v>25</v>
       </c>
       <c r="C517">
-        <v>2.341124296188354</v>
+        <v>0.7326846122741699</v>
       </c>
       <c r="D517" t="b">
         <v>1</v>
@@ -10642,7 +10642,7 @@
         <v>25</v>
       </c>
       <c r="C518">
-        <v>2.009695529937744</v>
+        <v>0.6396527290344238</v>
       </c>
       <c r="D518" t="b">
         <v>1</v>
@@ -10656,7 +10656,7 @@
         <v>25</v>
       </c>
       <c r="C519">
-        <v>2.003574848175049</v>
+        <v>0.7283878326416016</v>
       </c>
       <c r="D519" t="b">
         <v>1</v>
@@ -10670,7 +10670,7 @@
         <v>25</v>
       </c>
       <c r="C520">
-        <v>1.911475658416748</v>
+        <v>0.661022424697876</v>
       </c>
       <c r="D520" t="b">
         <v>1</v>
@@ -10684,7 +10684,7 @@
         <v>25</v>
       </c>
       <c r="C521">
-        <v>2.571860551834106</v>
+        <v>0.6549007892608643</v>
       </c>
       <c r="D521" t="b">
         <v>1</v>
@@ -10698,7 +10698,7 @@
         <v>25</v>
       </c>
       <c r="C522">
-        <v>1.929857969284058</v>
+        <v>0.7037301063537598</v>
       </c>
       <c r="D522" t="b">
         <v>1</v>
@@ -10712,7 +10712,7 @@
         <v>25</v>
       </c>
       <c r="C523">
-        <v>1.925933837890625</v>
+        <v>0.6959421634674072</v>
       </c>
       <c r="D523" t="b">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>25</v>
       </c>
       <c r="C524">
-        <v>2.233045816421509</v>
+        <v>0.6585164070129395</v>
       </c>
       <c r="D524" t="b">
         <v>1</v>
@@ -10740,7 +10740,7 @@
         <v>23</v>
       </c>
       <c r="C525">
-        <v>1.939876794815063</v>
+        <v>0.6648919582366943</v>
       </c>
       <c r="D525" t="b">
         <v>1</v>
@@ -10754,7 +10754,7 @@
         <v>25</v>
       </c>
       <c r="C526">
-        <v>2.053208351135254</v>
+        <v>0.6661088466644287</v>
       </c>
       <c r="D526" t="b">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>25</v>
       </c>
       <c r="C527">
-        <v>2.056485176086426</v>
+        <v>0.6429803371429443</v>
       </c>
       <c r="D527" t="b">
         <v>1</v>
@@ -10782,7 +10782,7 @@
         <v>25</v>
       </c>
       <c r="C528">
-        <v>1.972468137741089</v>
+        <v>0.8396956920623779</v>
       </c>
       <c r="D528" t="b">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         <v>25</v>
       </c>
       <c r="C529">
-        <v>1.926230430603027</v>
+        <v>0.8913624286651611</v>
       </c>
       <c r="D529" t="b">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>25</v>
       </c>
       <c r="C530">
-        <v>2.277507066726685</v>
+        <v>0.796022891998291</v>
       </c>
       <c r="D530" t="b">
         <v>1</v>
@@ -10824,7 +10824,7 @@
         <v>25</v>
       </c>
       <c r="C531">
-        <v>1.912503004074097</v>
+        <v>0.6902673244476318</v>
       </c>
       <c r="D531" t="b">
         <v>1</v>
@@ -10838,7 +10838,7 @@
         <v>25</v>
       </c>
       <c r="C532">
-        <v>2.17754054069519</v>
+        <v>0.6368212699890137</v>
       </c>
       <c r="D532" t="b">
         <v>1</v>
@@ -10852,7 +10852,7 @@
         <v>25</v>
       </c>
       <c r="C533">
-        <v>1.986329793930054</v>
+        <v>1.110712289810181</v>
       </c>
       <c r="D533" t="b">
         <v>1</v>
@@ -10866,7 +10866,7 @@
         <v>25</v>
       </c>
       <c r="C534">
-        <v>2.183448314666748</v>
+        <v>0.6312065124511719</v>
       </c>
       <c r="D534" t="b">
         <v>1</v>
@@ -10880,7 +10880,7 @@
         <v>25</v>
       </c>
       <c r="C535">
-        <v>2.191558599472046</v>
+        <v>0.7188832759857178</v>
       </c>
       <c r="D535" t="b">
         <v>1</v>
@@ -10894,7 +10894,7 @@
         <v>23</v>
       </c>
       <c r="C536">
-        <v>1.924103736877441</v>
+        <v>0.6897280216217041</v>
       </c>
       <c r="D536" t="b">
         <v>1</v>
@@ -10908,7 +10908,7 @@
         <v>25</v>
       </c>
       <c r="C537">
-        <v>1.952864408493042</v>
+        <v>0.730398416519165</v>
       </c>
       <c r="D537" t="b">
         <v>1</v>
@@ -10922,7 +10922,7 @@
         <v>25</v>
       </c>
       <c r="C538">
-        <v>1.931277513504028</v>
+        <v>1.19068169593811</v>
       </c>
       <c r="D538" t="b">
         <v>1</v>
@@ -10936,7 +10936,7 @@
         <v>25</v>
       </c>
       <c r="C539">
-        <v>2.178412199020386</v>
+        <v>0.6842281818389893</v>
       </c>
       <c r="D539" t="b">
         <v>1</v>
@@ -10950,7 +10950,7 @@
         <v>25</v>
       </c>
       <c r="C540">
-        <v>2.092472791671753</v>
+        <v>0.6688172817230225</v>
       </c>
       <c r="D540" t="b">
         <v>1</v>
@@ -10964,7 +10964,7 @@
         <v>25</v>
       </c>
       <c r="C541">
-        <v>1.928977966308594</v>
+        <v>0.6622757911682129</v>
       </c>
       <c r="D541" t="b">
         <v>1</v>
@@ -10978,7 +10978,7 @@
         <v>25</v>
       </c>
       <c r="C542">
-        <v>1.946258306503296</v>
+        <v>0.7066338062286377</v>
       </c>
       <c r="D542" t="b">
         <v>1</v>
@@ -10992,7 +10992,7 @@
         <v>25</v>
       </c>
       <c r="C543">
-        <v>2.252849578857422</v>
+        <v>0.6288723945617676</v>
       </c>
       <c r="D543" t="b">
         <v>1</v>
@@ -11006,7 +11006,7 @@
         <v>25</v>
       </c>
       <c r="C544">
-        <v>1.973094463348389</v>
+        <v>0.6834454536437988</v>
       </c>
       <c r="D544" t="b">
         <v>1</v>
@@ -11020,7 +11020,7 @@
         <v>25</v>
       </c>
       <c r="C545">
-        <v>1.980483531951904</v>
+        <v>0.6397624015808105</v>
       </c>
       <c r="D545" t="b">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>25</v>
       </c>
       <c r="C546">
-        <v>1.924590587615967</v>
+        <v>0.9621803760528564</v>
       </c>
       <c r="D546" t="b">
         <v>1</v>
@@ -11048,7 +11048,7 @@
         <v>23</v>
       </c>
       <c r="C547">
-        <v>1.955182790756226</v>
+        <v>0.7418608665466309</v>
       </c>
       <c r="D547" t="b">
         <v>1</v>
@@ -11062,7 +11062,7 @@
         <v>25</v>
       </c>
       <c r="C548">
-        <v>1.986632585525513</v>
+        <v>0.657071590423584</v>
       </c>
       <c r="D548" t="b">
         <v>1</v>
@@ -11076,7 +11076,7 @@
         <v>25</v>
       </c>
       <c r="C549">
-        <v>1.911626815795898</v>
+        <v>0.620868444442749</v>
       </c>
       <c r="D549" t="b">
         <v>1</v>
@@ -11090,7 +11090,7 @@
         <v>25</v>
       </c>
       <c r="C550">
-        <v>2.089473485946655</v>
+        <v>0.7060630321502686</v>
       </c>
       <c r="D550" t="b">
         <v>1</v>
@@ -11104,7 +11104,7 @@
         <v>25</v>
       </c>
       <c r="C551">
-        <v>1.959999084472656</v>
+        <v>0.6262600421905518</v>
       </c>
       <c r="D551" t="b">
         <v>1</v>
@@ -11118,7 +11118,7 @@
         <v>25</v>
       </c>
       <c r="C552">
-        <v>2.007070779800415</v>
+        <v>0.7046756744384766</v>
       </c>
       <c r="D552" t="b">
         <v>1</v>
@@ -11132,7 +11132,7 @@
         <v>25</v>
       </c>
       <c r="C553">
-        <v>2.369521856307983</v>
+        <v>0.659193754196167</v>
       </c>
       <c r="D553" t="b">
         <v>1</v>
@@ -11146,7 +11146,7 @@
         <v>25</v>
       </c>
       <c r="C554">
-        <v>1.932392358779907</v>
+        <v>0.6489241123199463</v>
       </c>
       <c r="D554" t="b">
         <v>1</v>
@@ -11160,7 +11160,7 @@
         <v>25</v>
       </c>
       <c r="C555">
-        <v>1.936922788619995</v>
+        <v>0.6661496162414551</v>
       </c>
       <c r="D555" t="b">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>25</v>
       </c>
       <c r="C556">
-        <v>1.972979307174683</v>
+        <v>0.7128305435180664</v>
       </c>
       <c r="D556" t="b">
         <v>1</v>
@@ -11188,7 +11188,7 @@
         <v>25</v>
       </c>
       <c r="C557">
-        <v>1.983603954315186</v>
+        <v>0.6918373107910156</v>
       </c>
       <c r="D557" t="b">
         <v>1</v>
@@ -11202,7 +11202,7 @@
         <v>23</v>
       </c>
       <c r="C558">
-        <v>2.198668003082275</v>
+        <v>0.6723291873931885</v>
       </c>
       <c r="D558" t="b">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>25</v>
       </c>
       <c r="C559">
-        <v>2.027089834213257</v>
+        <v>0.7299551963806152</v>
       </c>
       <c r="D559" t="b">
         <v>1</v>
@@ -11230,7 +11230,7 @@
         <v>25</v>
       </c>
       <c r="C560">
-        <v>2.030119895935059</v>
+        <v>1.497491598129272</v>
       </c>
       <c r="D560" t="b">
         <v>1</v>
@@ -11244,7 +11244,7 @@
         <v>25</v>
       </c>
       <c r="C561">
-        <v>1.935580253601074</v>
+        <v>0.6736395359039307</v>
       </c>
       <c r="D561" t="b">
         <v>1</v>
@@ -11258,7 +11258,7 @@
         <v>25</v>
       </c>
       <c r="C562">
-        <v>1.960264682769775</v>
+        <v>0.7513809204101562</v>
       </c>
       <c r="D562" t="b">
         <v>1</v>
@@ -11272,7 +11272,7 @@
         <v>25</v>
       </c>
       <c r="C563">
-        <v>1.970937728881836</v>
+        <v>0.9174609184265137</v>
       </c>
       <c r="D563" t="b">
         <v>1</v>
@@ -11286,7 +11286,7 @@
         <v>25</v>
       </c>
       <c r="C564">
-        <v>2.096070051193237</v>
+        <v>0.6673183441162109</v>
       </c>
       <c r="D564" t="b">
         <v>1</v>
@@ -11300,7 +11300,7 @@
         <v>25</v>
       </c>
       <c r="C565">
-        <v>1.895538330078125</v>
+        <v>0.6493775844573975</v>
       </c>
       <c r="D565" t="b">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>25</v>
       </c>
       <c r="C566">
-        <v>1.928938865661621</v>
+        <v>0.678774356842041</v>
       </c>
       <c r="D566" t="b">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>25</v>
       </c>
       <c r="C567">
-        <v>2.253391027450562</v>
+        <v>0.6992158889770508</v>
       </c>
       <c r="D567" t="b">
         <v>1</v>
@@ -11342,7 +11342,7 @@
         <v>25</v>
       </c>
       <c r="C568">
-        <v>1.93114161491394</v>
+        <v>0.8205668926239014</v>
       </c>
       <c r="D568" t="b">
         <v>1</v>
@@ -11356,7 +11356,7 @@
         <v>22</v>
       </c>
       <c r="C569">
-        <v>1.933928728103638</v>
+        <v>0.6503324508666992</v>
       </c>
       <c r="D569" t="b">
         <v>1</v>
@@ -11370,7 +11370,7 @@
         <v>23</v>
       </c>
       <c r="C570">
-        <v>1.912086486816406</v>
+        <v>1.133265972137451</v>
       </c>
       <c r="D570" t="b">
         <v>1</v>
@@ -11384,7 +11384,7 @@
         <v>25</v>
       </c>
       <c r="C571">
-        <v>1.920120239257812</v>
+        <v>0.6790049076080322</v>
       </c>
       <c r="D571" t="b">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>25</v>
       </c>
       <c r="C572">
-        <v>2.081129312515259</v>
+        <v>0.6443288326263428</v>
       </c>
       <c r="D572" t="b">
         <v>1</v>
@@ -11412,7 +11412,7 @@
         <v>25</v>
       </c>
       <c r="C573">
-        <v>1.923891067504883</v>
+        <v>0.6842334270477295</v>
       </c>
       <c r="D573" t="b">
         <v>1</v>
@@ -11426,7 +11426,7 @@
         <v>25</v>
       </c>
       <c r="C574">
-        <v>2.060477018356323</v>
+        <v>0.6840133666992188</v>
       </c>
       <c r="D574" t="b">
         <v>1</v>
@@ -11440,7 +11440,7 @@
         <v>25</v>
       </c>
       <c r="C575">
-        <v>1.956776857376099</v>
+        <v>0.8140683174133301</v>
       </c>
       <c r="D575" t="b">
         <v>1</v>
@@ -11454,7 +11454,7 @@
         <v>25</v>
       </c>
       <c r="C576">
-        <v>1.89478611946106</v>
+        <v>0.6912636756896973</v>
       </c>
       <c r="D576" t="b">
         <v>1</v>
@@ -11468,7 +11468,7 @@
         <v>25</v>
       </c>
       <c r="C577">
-        <v>1.85420298576355</v>
+        <v>0.8229913711547852</v>
       </c>
       <c r="D577" t="b">
         <v>1</v>
@@ -11482,7 +11482,7 @@
         <v>25</v>
       </c>
       <c r="C578">
-        <v>1.912087440490723</v>
+        <v>0.6388158798217773</v>
       </c>
       <c r="D578" t="b">
         <v>1</v>
@@ -11496,7 +11496,7 @@
         <v>25</v>
       </c>
       <c r="C579">
-        <v>1.934008359909058</v>
+        <v>0.6649997234344482</v>
       </c>
       <c r="D579" t="b">
         <v>1</v>
@@ -11510,7 +11510,7 @@
         <v>25</v>
       </c>
       <c r="C580">
-        <v>1.835889339447021</v>
+        <v>0.7015969753265381</v>
       </c>
       <c r="D580" t="b">
         <v>1</v>
@@ -11524,7 +11524,7 @@
         <v>23</v>
       </c>
       <c r="C581">
-        <v>1.838134527206421</v>
+        <v>0.7424848079681396</v>
       </c>
       <c r="D581" t="b">
         <v>1</v>
@@ -11538,7 +11538,7 @@
         <v>25</v>
       </c>
       <c r="C582">
-        <v>1.838685750961304</v>
+        <v>0.6493136882781982</v>
       </c>
       <c r="D582" t="b">
         <v>1</v>
@@ -11552,7 +11552,7 @@
         <v>25</v>
       </c>
       <c r="C583">
-        <v>1.838559150695801</v>
+        <v>0.7593147754669189</v>
       </c>
       <c r="D583" t="b">
         <v>1</v>
@@ -11566,7 +11566,7 @@
         <v>25</v>
       </c>
       <c r="C584">
-        <v>2.255626678466797</v>
+        <v>1.029999732971191</v>
       </c>
       <c r="D584" t="b">
         <v>1</v>
@@ -11580,7 +11580,7 @@
         <v>25</v>
       </c>
       <c r="C585">
-        <v>1.912070274353027</v>
+        <v>0.7866702079772949</v>
       </c>
       <c r="D585" t="b">
         <v>1</v>
@@ -11594,7 +11594,7 @@
         <v>25</v>
       </c>
       <c r="C586">
-        <v>1.827126264572144</v>
+        <v>0.710660457611084</v>
       </c>
       <c r="D586" t="b">
         <v>1</v>
@@ -11608,7 +11608,7 @@
         <v>25</v>
       </c>
       <c r="C587">
-        <v>1.819371938705444</v>
+        <v>1.159706115722656</v>
       </c>
       <c r="D587" t="b">
         <v>1</v>
@@ -11622,7 +11622,7 @@
         <v>25</v>
       </c>
       <c r="C588">
-        <v>1.965590000152588</v>
+        <v>0.705622673034668</v>
       </c>
       <c r="D588" t="b">
         <v>1</v>
@@ -11636,7 +11636,7 @@
         <v>25</v>
       </c>
       <c r="C589">
-        <v>2.025078773498535</v>
+        <v>0.6550843715667725</v>
       </c>
       <c r="D589" t="b">
         <v>1</v>
@@ -11650,7 +11650,7 @@
         <v>25</v>
       </c>
       <c r="C590">
-        <v>2.039166927337646</v>
+        <v>0.645876407623291</v>
       </c>
       <c r="D590" t="b">
         <v>1</v>
@@ -11664,7 +11664,7 @@
         <v>25</v>
       </c>
       <c r="C591">
-        <v>1.872841596603394</v>
+        <v>0.7845652103424072</v>
       </c>
       <c r="D591" t="b">
         <v>1</v>
@@ -11678,7 +11678,7 @@
         <v>23</v>
       </c>
       <c r="C592">
-        <v>1.826340198516846</v>
+        <v>0.6390101909637451</v>
       </c>
       <c r="D592" t="b">
         <v>1</v>
@@ -11692,7 +11692,7 @@
         <v>25</v>
       </c>
       <c r="C593">
-        <v>1.835477590560913</v>
+        <v>0.7352936267852783</v>
       </c>
       <c r="D593" t="b">
         <v>1</v>
@@ -11706,7 +11706,7 @@
         <v>25</v>
       </c>
       <c r="C594">
-        <v>1.930148124694824</v>
+        <v>0.6615769863128662</v>
       </c>
       <c r="D594" t="b">
         <v>1</v>
@@ -11720,7 +11720,7 @@
         <v>25</v>
       </c>
       <c r="C595">
-        <v>1.80097222328186</v>
+        <v>0.67287278175354</v>
       </c>
       <c r="D595" t="b">
         <v>1</v>
@@ -11734,7 +11734,7 @@
         <v>25</v>
       </c>
       <c r="C596">
-        <v>1.831063032150269</v>
+        <v>0.7459988594055176</v>
       </c>
       <c r="D596" t="b">
         <v>1</v>
@@ -11748,7 +11748,7 @@
         <v>25</v>
       </c>
       <c r="C597">
-        <v>2.590523242950439</v>
+        <v>0.6716592311859131</v>
       </c>
       <c r="D597" t="b">
         <v>1</v>
@@ -11762,7 +11762,7 @@
         <v>25</v>
       </c>
       <c r="C598">
-        <v>1.823102474212646</v>
+        <v>0.6994426250457764</v>
       </c>
       <c r="D598" t="b">
         <v>1</v>
@@ -11776,7 +11776,7 @@
         <v>25</v>
       </c>
       <c r="C599">
-        <v>1.838323354721069</v>
+        <v>0.6741900444030762</v>
       </c>
       <c r="D599" t="b">
         <v>1</v>
@@ -11790,7 +11790,7 @@
         <v>25</v>
       </c>
       <c r="C600">
-        <v>1.826901435852051</v>
+        <v>1.020994901657104</v>
       </c>
       <c r="D600" t="b">
         <v>1</v>
@@ -11804,7 +11804,7 @@
         <v>25</v>
       </c>
       <c r="C601">
-        <v>1.836191892623901</v>
+        <v>0.668041467666626</v>
       </c>
       <c r="D601" t="b">
         <v>1</v>
@@ -11818,7 +11818,7 @@
         <v>25</v>
       </c>
       <c r="C602">
-        <v>1.814815044403076</v>
+        <v>0.8439128398895264</v>
       </c>
       <c r="D602" t="b">
         <v>1</v>
@@ -11832,7 +11832,7 @@
         <v>23</v>
       </c>
       <c r="C603">
-        <v>2.126495599746704</v>
+        <v>0.6855201721191406</v>
       </c>
       <c r="D603" t="b">
         <v>1</v>
@@ -11846,7 +11846,7 @@
         <v>25</v>
       </c>
       <c r="C604">
-        <v>1.825953245162964</v>
+        <v>0.7301084995269775</v>
       </c>
       <c r="D604" t="b">
         <v>1</v>
@@ -11860,7 +11860,7 @@
         <v>25</v>
       </c>
       <c r="C605">
-        <v>1.837056398391724</v>
+        <v>0.8992240428924561</v>
       </c>
       <c r="D605" t="b">
         <v>1</v>
@@ -11874,7 +11874,7 @@
         <v>25</v>
       </c>
       <c r="C606">
-        <v>1.820972204208374</v>
+        <v>0.6777141094207764</v>
       </c>
       <c r="D606" t="b">
         <v>1</v>
@@ -11888,7 +11888,7 @@
         <v>25</v>
       </c>
       <c r="C607">
-        <v>1.829061269760132</v>
+        <v>0.6756634712219238</v>
       </c>
       <c r="D607" t="b">
         <v>1</v>
@@ -11902,7 +11902,7 @@
         <v>25</v>
       </c>
       <c r="C608">
-        <v>1.893959522247314</v>
+        <v>0.7013380527496338</v>
       </c>
       <c r="D608" t="b">
         <v>1</v>
@@ -11916,7 +11916,7 @@
         <v>25</v>
       </c>
       <c r="C609">
-        <v>1.837042093276978</v>
+        <v>0.6709139347076416</v>
       </c>
       <c r="D609" t="b">
         <v>1</v>
@@ -11930,7 +11930,7 @@
         <v>25</v>
       </c>
       <c r="C610">
-        <v>1.832083702087402</v>
+        <v>1.140358448028564</v>
       </c>
       <c r="D610" t="b">
         <v>1</v>
@@ -11944,7 +11944,7 @@
         <v>25</v>
       </c>
       <c r="C611">
-        <v>2.487084865570068</v>
+        <v>0.6789581775665283</v>
       </c>
       <c r="D611" t="b">
         <v>1</v>
@@ -11958,7 +11958,7 @@
         <v>25</v>
       </c>
       <c r="C612">
-        <v>1.834694385528564</v>
+        <v>0.6417620182037354</v>
       </c>
       <c r="D612" t="b">
         <v>1</v>
@@ -11972,7 +11972,7 @@
         <v>25</v>
       </c>
       <c r="C613">
-        <v>1.830220460891724</v>
+        <v>0.6779944896697998</v>
       </c>
       <c r="D613" t="b">
         <v>1</v>
@@ -11986,7 +11986,7 @@
         <v>23</v>
       </c>
       <c r="C614">
-        <v>1.839061260223389</v>
+        <v>0.9803116321563721</v>
       </c>
       <c r="D614" t="b">
         <v>1</v>
@@ -12000,7 +12000,7 @@
         <v>25</v>
       </c>
       <c r="C615">
-        <v>1.854246616363525</v>
+        <v>0.6918900012969971</v>
       </c>
       <c r="D615" t="b">
         <v>1</v>
@@ -12014,7 +12014,7 @@
         <v>25</v>
       </c>
       <c r="C616">
-        <v>1.849780082702637</v>
+        <v>0.7758898735046387</v>
       </c>
       <c r="D616" t="b">
         <v>1</v>
@@ -12028,7 +12028,7 @@
         <v>25</v>
       </c>
       <c r="C617">
-        <v>2.34663724899292</v>
+        <v>0.9182460308074951</v>
       </c>
       <c r="D617" t="b">
         <v>1</v>
@@ -12042,7 +12042,7 @@
         <v>25</v>
       </c>
       <c r="C618">
-        <v>1.8348708152771</v>
+        <v>0.7109348773956299</v>
       </c>
       <c r="D618" t="b">
         <v>1</v>
@@ -12056,7 +12056,7 @@
         <v>25</v>
       </c>
       <c r="C619">
-        <v>2.034050941467285</v>
+        <v>0.7039341926574707</v>
       </c>
       <c r="D619" t="b">
         <v>1</v>
@@ -12070,7 +12070,7 @@
         <v>25</v>
       </c>
       <c r="C620">
-        <v>1.82027268409729</v>
+        <v>0.8487176895141602</v>
       </c>
       <c r="D620" t="b">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>25</v>
       </c>
       <c r="C621">
-        <v>1.814846992492676</v>
+        <v>0.9939758777618408</v>
       </c>
       <c r="D621" t="b">
         <v>1</v>
@@ -12098,7 +12098,7 @@
         <v>25</v>
       </c>
       <c r="C622">
-        <v>1.829293727874756</v>
+        <v>0.8623685836791992</v>
       </c>
       <c r="D622" t="b">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>25</v>
       </c>
       <c r="C623">
-        <v>2.105270862579346</v>
+        <v>0.9799466133117676</v>
       </c>
       <c r="D623" t="b">
         <v>1</v>
@@ -12126,7 +12126,7 @@
         <v>25</v>
       </c>
       <c r="C624">
-        <v>1.828800439834595</v>
+        <v>0.7237191200256348</v>
       </c>
       <c r="D624" t="b">
         <v>1</v>
@@ -12140,7 +12140,7 @@
         <v>23</v>
       </c>
       <c r="C625">
-        <v>2.23408031463623</v>
+        <v>0.7340564727783203</v>
       </c>
       <c r="D625" t="b">
         <v>1</v>
@@ -12154,7 +12154,7 @@
         <v>25</v>
       </c>
       <c r="C626">
-        <v>1.888933420181274</v>
+        <v>0.6621420383453369</v>
       </c>
       <c r="D626" t="b">
         <v>1</v>
@@ -12168,7 +12168,7 @@
         <v>25</v>
       </c>
       <c r="C627">
-        <v>1.835588455200195</v>
+        <v>0.7017931938171387</v>
       </c>
       <c r="D627" t="b">
         <v>1</v>
@@ -12182,7 +12182,7 @@
         <v>25</v>
       </c>
       <c r="C628">
-        <v>2.0367431640625</v>
+        <v>0.8171126842498779</v>
       </c>
       <c r="D628" t="b">
         <v>1</v>
@@ -12196,7 +12196,7 @@
         <v>25</v>
       </c>
       <c r="C629">
-        <v>2.291623592376709</v>
+        <v>0.7431254386901855</v>
       </c>
       <c r="D629" t="b">
         <v>1</v>
@@ -12210,7 +12210,7 @@
         <v>25</v>
       </c>
       <c r="C630">
-        <v>1.820595741271973</v>
+        <v>0.6784214973449707</v>
       </c>
       <c r="D630" t="b">
         <v>1</v>
@@ -12224,7 +12224,7 @@
         <v>25</v>
       </c>
       <c r="C631">
-        <v>1.830893754959106</v>
+        <v>0.9818699359893799</v>
       </c>
       <c r="D631" t="b">
         <v>1</v>
@@ -12238,7 +12238,7 @@
         <v>25</v>
       </c>
       <c r="C632">
-        <v>1.848882675170898</v>
+        <v>0.6860053539276123</v>
       </c>
       <c r="D632" t="b">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>25</v>
       </c>
       <c r="C633">
-        <v>1.840068817138672</v>
+        <v>0.7336487770080566</v>
       </c>
       <c r="D633" t="b">
         <v>1</v>
@@ -12266,7 +12266,7 @@
         <v>25</v>
       </c>
       <c r="C634">
-        <v>1.822068691253662</v>
+        <v>0.9021401405334473</v>
       </c>
       <c r="D634" t="b">
         <v>1</v>
@@ -12280,7 +12280,7 @@
         <v>25</v>
       </c>
       <c r="C635">
-        <v>2.161412954330444</v>
+        <v>0.6399781703948975</v>
       </c>
       <c r="D635" t="b">
         <v>1</v>
@@ -12294,7 +12294,7 @@
         <v>23</v>
       </c>
       <c r="C636">
-        <v>2.262314319610596</v>
+        <v>0.6812124252319336</v>
       </c>
       <c r="D636" t="b">
         <v>1</v>
@@ -12308,7 +12308,7 @@
         <v>25</v>
       </c>
       <c r="C637">
-        <v>1.851379871368408</v>
+        <v>0.673734188079834</v>
       </c>
       <c r="D637" t="b">
         <v>1</v>
@@ -12322,7 +12322,7 @@
         <v>25</v>
       </c>
       <c r="C638">
-        <v>1.831233739852905</v>
+        <v>0.6503007411956787</v>
       </c>
       <c r="D638" t="b">
         <v>1</v>
@@ -12336,7 +12336,7 @@
         <v>25</v>
       </c>
       <c r="C639">
-        <v>1.998957395553589</v>
+        <v>0.8079888820648193</v>
       </c>
       <c r="D639" t="b">
         <v>1</v>
@@ -12350,7 +12350,7 @@
         <v>25</v>
       </c>
       <c r="C640">
-        <v>1.841227293014526</v>
+        <v>0.7338790893554688</v>
       </c>
       <c r="D640" t="b">
         <v>1</v>
@@ -12364,7 +12364,7 @@
         <v>25</v>
       </c>
       <c r="C641">
-        <v>1.871844530105591</v>
+        <v>0.7161214351654053</v>
       </c>
       <c r="D641" t="b">
         <v>1</v>
@@ -12378,7 +12378,7 @@
         <v>25</v>
       </c>
       <c r="C642">
-        <v>1.829963445663452</v>
+        <v>0.7248368263244629</v>
       </c>
       <c r="D642" t="b">
         <v>1</v>
@@ -12392,7 +12392,7 @@
         <v>25</v>
       </c>
       <c r="C643">
-        <v>2.166103839874268</v>
+        <v>0.651209831237793</v>
       </c>
       <c r="D643" t="b">
         <v>1</v>
@@ -12406,7 +12406,7 @@
         <v>25</v>
       </c>
       <c r="C644">
-        <v>1.851626396179199</v>
+        <v>0.8194434642791748</v>
       </c>
       <c r="D644" t="b">
         <v>1</v>
@@ -12420,7 +12420,7 @@
         <v>25</v>
       </c>
       <c r="C645">
-        <v>1.950594425201416</v>
+        <v>0.637944221496582</v>
       </c>
       <c r="D645" t="b">
         <v>1</v>
@@ -12434,7 +12434,7 @@
         <v>25</v>
       </c>
       <c r="C646">
-        <v>1.880024433135986</v>
+        <v>0.8042542934417725</v>
       </c>
       <c r="D646" t="b">
         <v>1</v>
@@ -12448,7 +12448,7 @@
         <v>23</v>
       </c>
       <c r="C647">
-        <v>1.890413999557495</v>
+        <v>0.6653053760528564</v>
       </c>
       <c r="D647" t="b">
         <v>1</v>
@@ -12462,7 +12462,7 @@
         <v>25</v>
       </c>
       <c r="C648">
-        <v>2.095717191696167</v>
+        <v>0.9505836963653564</v>
       </c>
       <c r="D648" t="b">
         <v>1</v>
@@ -12476,7 +12476,7 @@
         <v>25</v>
       </c>
       <c r="C649">
-        <v>1.954726696014404</v>
+        <v>0.6922693252563477</v>
       </c>
       <c r="D649" t="b">
         <v>1</v>
@@ -12490,7 +12490,7 @@
         <v>25</v>
       </c>
       <c r="C650">
-        <v>1.844871044158936</v>
+        <v>0.7083957195281982</v>
       </c>
       <c r="D650" t="b">
         <v>1</v>
@@ -12504,7 +12504,7 @@
         <v>25</v>
       </c>
       <c r="C651">
-        <v>1.855870723724365</v>
+        <v>0.699425220489502</v>
       </c>
       <c r="D651" t="b">
         <v>1</v>
@@ -12518,7 +12518,7 @@
         <v>25</v>
       </c>
       <c r="C652">
-        <v>1.832103252410889</v>
+        <v>0.6320106983184814</v>
       </c>
       <c r="D652" t="b">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>25</v>
       </c>
       <c r="C653">
-        <v>2.755196571350098</v>
+        <v>0.7790958881378174</v>
       </c>
       <c r="D653" t="b">
         <v>1</v>
@@ -12546,7 +12546,7 @@
         <v>25</v>
       </c>
       <c r="C654">
-        <v>1.820708990097046</v>
+        <v>0.727494478225708</v>
       </c>
       <c r="D654" t="b">
         <v>1</v>
@@ -12560,7 +12560,7 @@
         <v>25</v>
       </c>
       <c r="C655">
-        <v>1.835087537765503</v>
+        <v>0.6765310764312744</v>
       </c>
       <c r="D655" t="b">
         <v>1</v>
@@ -12574,7 +12574,7 @@
         <v>25</v>
       </c>
       <c r="C656">
-        <v>2.474222183227539</v>
+        <v>0.6625397205352783</v>
       </c>
       <c r="D656" t="b">
         <v>1</v>
@@ -12588,7 +12588,7 @@
         <v>25</v>
       </c>
       <c r="C657">
-        <v>1.856407642364502</v>
+        <v>0.6364812850952148</v>
       </c>
       <c r="D657" t="b">
         <v>1</v>
@@ -12602,7 +12602,7 @@
         <v>23</v>
       </c>
       <c r="C658">
-        <v>1.957188844680786</v>
+        <v>0.671445369720459</v>
       </c>
       <c r="D658" t="b">
         <v>1</v>
@@ -12616,7 +12616,7 @@
         <v>25</v>
       </c>
       <c r="C659">
-        <v>1.97111964225769</v>
+        <v>0.634570837020874</v>
       </c>
       <c r="D659" t="b">
         <v>1</v>
@@ -12630,7 +12630,7 @@
         <v>25</v>
       </c>
       <c r="C660">
-        <v>2.157647609710693</v>
+        <v>0.6650161743164062</v>
       </c>
       <c r="D660" t="b">
         <v>1</v>
@@ -12644,7 +12644,7 @@
         <v>25</v>
       </c>
       <c r="C661">
-        <v>1.830353498458862</v>
+        <v>0.6688203811645508</v>
       </c>
       <c r="D661" t="b">
         <v>1</v>
@@ -12658,7 +12658,7 @@
         <v>25</v>
       </c>
       <c r="C662">
-        <v>1.837389707565308</v>
+        <v>0.8960049152374268</v>
       </c>
       <c r="D662" t="b">
         <v>1</v>
@@ -12672,7 +12672,7 @@
         <v>25</v>
       </c>
       <c r="C663">
-        <v>1.843462467193604</v>
+        <v>1.102659463882446</v>
       </c>
       <c r="D663" t="b">
         <v>1</v>
@@ -12686,7 +12686,7 @@
         <v>25</v>
       </c>
       <c r="C664">
-        <v>1.816235542297363</v>
+        <v>0.720374584197998</v>
       </c>
       <c r="D664" t="b">
         <v>1</v>
@@ -12700,7 +12700,7 @@
         <v>25</v>
       </c>
       <c r="C665">
-        <v>1.82206654548645</v>
+        <v>0.7330992221832275</v>
       </c>
       <c r="D665" t="b">
         <v>1</v>
@@ -12714,7 +12714,7 @@
         <v>25</v>
       </c>
       <c r="C666">
-        <v>2.212483882904053</v>
+        <v>0.9255902767181396</v>
       </c>
       <c r="D666" t="b">
         <v>1</v>
@@ -12728,7 +12728,7 @@
         <v>25</v>
       </c>
       <c r="C667">
-        <v>1.846611499786377</v>
+        <v>0.7418105602264404</v>
       </c>
       <c r="D667" t="b">
         <v>1</v>
@@ -12742,7 +12742,7 @@
         <v>25</v>
       </c>
       <c r="C668">
-        <v>1.829025983810425</v>
+        <v>1.110761642456055</v>
       </c>
       <c r="D668" t="b">
         <v>1</v>
@@ -12756,7 +12756,7 @@
         <v>23</v>
       </c>
       <c r="C669">
-        <v>1.950122833251953</v>
+        <v>0.9125735759735107</v>
       </c>
       <c r="D669" t="b">
         <v>1</v>
@@ -12770,7 +12770,7 @@
         <v>25</v>
       </c>
       <c r="C670">
-        <v>2.175969839096069</v>
+        <v>0.6912105083465576</v>
       </c>
       <c r="D670" t="b">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>25</v>
       </c>
       <c r="C671">
-        <v>1.828922033309937</v>
+        <v>0.7947320938110352</v>
       </c>
       <c r="D671" t="b">
         <v>1</v>
@@ -12798,7 +12798,7 @@
         <v>25</v>
       </c>
       <c r="C672">
-        <v>2.040639638900757</v>
+        <v>0.9260685443878174</v>
       </c>
       <c r="D672" t="b">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>25</v>
       </c>
       <c r="C673">
-        <v>1.848270416259766</v>
+        <v>0.8104572296142578</v>
       </c>
       <c r="D673" t="b">
         <v>1</v>
@@ -12826,7 +12826,7 @@
         <v>25</v>
       </c>
       <c r="C674">
-        <v>2.145261764526367</v>
+        <v>0.8735852241516113</v>
       </c>
       <c r="D674" t="b">
         <v>1</v>
@@ -12840,7 +12840,7 @@
         <v>25</v>
       </c>
       <c r="C675">
-        <v>2.027995347976685</v>
+        <v>0.9231803417205811</v>
       </c>
       <c r="D675" t="b">
         <v>1</v>
@@ -12854,7 +12854,7 @@
         <v>25</v>
       </c>
       <c r="C676">
-        <v>1.820208787918091</v>
+        <v>0.6618351936340332</v>
       </c>
       <c r="D676" t="b">
         <v>1</v>
@@ -12868,7 +12868,7 @@
         <v>25</v>
       </c>
       <c r="C677">
-        <v>1.807621717453003</v>
+        <v>0.9493999481201172</v>
       </c>
       <c r="D677" t="b">
         <v>1</v>
@@ -12882,7 +12882,7 @@
         <v>25</v>
       </c>
       <c r="C678">
-        <v>1.833660840988159</v>
+        <v>0.8755667209625244</v>
       </c>
       <c r="D678" t="b">
         <v>1</v>
@@ -12896,7 +12896,7 @@
         <v>25</v>
       </c>
       <c r="C679">
-        <v>2.035625219345093</v>
+        <v>0.921534538269043</v>
       </c>
       <c r="D679" t="b">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>22</v>
       </c>
       <c r="C680">
-        <v>1.8405442237854</v>
+        <v>0.7421438694000244</v>
       </c>
       <c r="D680" t="b">
         <v>1</v>
@@ -12924,7 +12924,7 @@
         <v>23</v>
       </c>
       <c r="C681">
-        <v>1.814023733139038</v>
+        <v>1.269549131393433</v>
       </c>
       <c r="D681" t="b">
         <v>1</v>
@@ -12938,7 +12938,7 @@
         <v>25</v>
       </c>
       <c r="C682">
-        <v>1.84040904045105</v>
+        <v>0.7801871299743652</v>
       </c>
       <c r="D682" t="b">
         <v>1</v>
@@ -12952,7 +12952,7 @@
         <v>25</v>
       </c>
       <c r="C683">
-        <v>1.988790273666382</v>
+        <v>0.7600913047790527</v>
       </c>
       <c r="D683" t="b">
         <v>1</v>
@@ -12966,7 +12966,7 @@
         <v>25</v>
       </c>
       <c r="C684">
-        <v>1.826369047164917</v>
+        <v>0.8448123931884766</v>
       </c>
       <c r="D684" t="b">
         <v>1</v>
@@ -12980,7 +12980,7 @@
         <v>25</v>
       </c>
       <c r="C685">
-        <v>2.03254508972168</v>
+        <v>0.8022985458374023</v>
       </c>
       <c r="D685" t="b">
         <v>1</v>
@@ -12994,7 +12994,7 @@
         <v>25</v>
       </c>
       <c r="C686">
-        <v>1.818933725357056</v>
+        <v>0.7583656311035156</v>
       </c>
       <c r="D686" t="b">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>25</v>
       </c>
       <c r="C687">
-        <v>1.884140253067017</v>
+        <v>0.8343009948730469</v>
       </c>
       <c r="D687" t="b">
         <v>1</v>
@@ -13022,7 +13022,7 @@
         <v>26</v>
       </c>
       <c r="C688">
-        <v>2.405341625213623</v>
+        <v>0.681159496307373</v>
       </c>
       <c r="D688" t="b">
         <v>1</v>
@@ -13036,7 +13036,7 @@
         <v>26</v>
       </c>
       <c r="C689">
-        <v>1.956204414367676</v>
+        <v>0.7089107036590576</v>
       </c>
       <c r="D689" t="b">
         <v>1</v>
@@ -13050,7 +13050,7 @@
         <v>26</v>
       </c>
       <c r="C690">
-        <v>1.832116365432739</v>
+        <v>0.7148702144622803</v>
       </c>
       <c r="D690" t="b">
         <v>1</v>
@@ -13064,7 +13064,7 @@
         <v>26</v>
       </c>
       <c r="C691">
-        <v>1.824095726013184</v>
+        <v>0.6572566032409668</v>
       </c>
       <c r="D691" t="b">
         <v>1</v>
@@ -13078,7 +13078,7 @@
         <v>23</v>
       </c>
       <c r="C692">
-        <v>1.817795515060425</v>
+        <v>0.6437919139862061</v>
       </c>
       <c r="D692" t="b">
         <v>1</v>
@@ -13092,7 +13092,7 @@
         <v>26</v>
       </c>
       <c r="C693">
-        <v>1.836922645568848</v>
+        <v>0.6417644023895264</v>
       </c>
       <c r="D693" t="b">
         <v>1</v>
@@ -13106,7 +13106,7 @@
         <v>26</v>
       </c>
       <c r="C694">
-        <v>1.848098993301392</v>
+        <v>0.6453537940979004</v>
       </c>
       <c r="D694" t="b">
         <v>1</v>
@@ -13120,7 +13120,7 @@
         <v>26</v>
       </c>
       <c r="C695">
-        <v>1.966935634613037</v>
+        <v>0.977245569229126</v>
       </c>
       <c r="D695" t="b">
         <v>1</v>
@@ -13134,7 +13134,7 @@
         <v>26</v>
       </c>
       <c r="C696">
-        <v>2.238040685653687</v>
+        <v>0.661815881729126</v>
       </c>
       <c r="D696" t="b">
         <v>1</v>
@@ -13148,7 +13148,7 @@
         <v>26</v>
       </c>
       <c r="C697">
-        <v>1.835185289382935</v>
+        <v>0.6410317420959473</v>
       </c>
       <c r="D697" t="b">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>26</v>
       </c>
       <c r="C698">
-        <v>2.025657415390015</v>
+        <v>0.6340608596801758</v>
       </c>
       <c r="D698" t="b">
         <v>1</v>
@@ -13176,7 +13176,7 @@
         <v>26</v>
       </c>
       <c r="C699">
-        <v>1.843069314956665</v>
+        <v>0.6311476230621338</v>
       </c>
       <c r="D699" t="b">
         <v>1</v>
@@ -13190,7 +13190,7 @@
         <v>26</v>
       </c>
       <c r="C700">
-        <v>2.094743490219116</v>
+        <v>0.6410324573516846</v>
       </c>
       <c r="D700" t="b">
         <v>1</v>
@@ -13204,7 +13204,7 @@
         <v>26</v>
       </c>
       <c r="C701">
-        <v>2.243704557418823</v>
+        <v>0.6983001232147217</v>
       </c>
       <c r="D701" t="b">
         <v>1</v>
@@ -13218,7 +13218,7 @@
         <v>26</v>
       </c>
       <c r="C702">
-        <v>2.034498691558838</v>
+        <v>0.6319537162780762</v>
       </c>
       <c r="D702" t="b">
         <v>1</v>
@@ -13232,7 +13232,7 @@
         <v>23</v>
       </c>
       <c r="C703">
-        <v>2.037337064743042</v>
+        <v>0.6422660350799561</v>
       </c>
       <c r="D703" t="b">
         <v>1</v>
@@ -13246,7 +13246,7 @@
         <v>26</v>
       </c>
       <c r="C704">
-        <v>2.48753547668457</v>
+        <v>0.660555362701416</v>
       </c>
       <c r="D704" t="b">
         <v>1</v>
@@ -13260,7 +13260,7 @@
         <v>26</v>
       </c>
       <c r="C705">
-        <v>2.041434526443481</v>
+        <v>0.6593577861785889</v>
       </c>
       <c r="D705" t="b">
         <v>1</v>
@@ -13274,7 +13274,7 @@
         <v>26</v>
       </c>
       <c r="C706">
-        <v>1.947734355926514</v>
+        <v>0.751854419708252</v>
       </c>
       <c r="D706" t="b">
         <v>1</v>
@@ -13288,7 +13288,7 @@
         <v>26</v>
       </c>
       <c r="C707">
-        <v>1.858965158462524</v>
+        <v>0.6620278358459473</v>
       </c>
       <c r="D707" t="b">
         <v>1</v>
@@ -13302,7 +13302,7 @@
         <v>26</v>
       </c>
       <c r="C708">
-        <v>2.046140909194946</v>
+        <v>0.6759762763977051</v>
       </c>
       <c r="D708" t="b">
         <v>1</v>
@@ -13316,7 +13316,7 @@
         <v>26</v>
       </c>
       <c r="C709">
-        <v>2.023766040802002</v>
+        <v>0.7171196937561035</v>
       </c>
       <c r="D709" t="b">
         <v>1</v>
@@ -13330,7 +13330,7 @@
         <v>26</v>
       </c>
       <c r="C710">
-        <v>1.846996545791626</v>
+        <v>0.634674072265625</v>
       </c>
       <c r="D710" t="b">
         <v>1</v>
@@ -13344,7 +13344,7 @@
         <v>26</v>
       </c>
       <c r="C711">
-        <v>2.680258750915527</v>
+        <v>0.6364877223968506</v>
       </c>
       <c r="D711" t="b">
         <v>1</v>
@@ -13358,7 +13358,7 @@
         <v>26</v>
       </c>
       <c r="C712">
-        <v>1.860404253005981</v>
+        <v>0.6789727210998535</v>
       </c>
       <c r="D712" t="b">
         <v>1</v>
@@ -13372,7 +13372,7 @@
         <v>26</v>
       </c>
       <c r="C713">
-        <v>2.122614145278931</v>
+        <v>0.721839427947998</v>
       </c>
       <c r="D713" t="b">
         <v>1</v>
@@ -13386,7 +13386,7 @@
         <v>23</v>
       </c>
       <c r="C714">
-        <v>2.000699996948242</v>
+        <v>1.121425867080688</v>
       </c>
       <c r="D714" t="b">
         <v>1</v>
@@ -13400,7 +13400,7 @@
         <v>26</v>
       </c>
       <c r="C715">
-        <v>1.832365036010742</v>
+        <v>0.6879489421844482</v>
       </c>
       <c r="D715" t="b">
         <v>1</v>
@@ -13414,7 +13414,7 @@
         <v>26</v>
       </c>
       <c r="C716">
-        <v>1.818648815155029</v>
+        <v>0.7215886116027832</v>
       </c>
       <c r="D716" t="b">
         <v>1</v>
@@ -13428,7 +13428,7 @@
         <v>26</v>
       </c>
       <c r="C717">
-        <v>1.824987649917603</v>
+        <v>1.13813591003418</v>
       </c>
       <c r="D717" t="b">
         <v>1</v>
@@ -13442,7 +13442,7 @@
         <v>26</v>
       </c>
       <c r="C718">
-        <v>2.004788160324097</v>
+        <v>0.6864864826202393</v>
       </c>
       <c r="D718" t="b">
         <v>1</v>
@@ -13456,7 +13456,7 @@
         <v>26</v>
       </c>
       <c r="C719">
-        <v>1.818116903305054</v>
+        <v>0.7815022468566895</v>
       </c>
       <c r="D719" t="b">
         <v>1</v>
@@ -13470,7 +13470,7 @@
         <v>26</v>
       </c>
       <c r="C720">
-        <v>1.842686653137207</v>
+        <v>0.6811087131500244</v>
       </c>
       <c r="D720" t="b">
         <v>1</v>
@@ -13484,7 +13484,7 @@
         <v>26</v>
       </c>
       <c r="C721">
-        <v>1.852260112762451</v>
+        <v>0.6506352424621582</v>
       </c>
       <c r="D721" t="b">
         <v>1</v>
@@ -13498,7 +13498,7 @@
         <v>26</v>
       </c>
       <c r="C722">
-        <v>1.901035070419312</v>
+        <v>0.6444344520568848</v>
       </c>
       <c r="D722" t="b">
         <v>1</v>
@@ -13512,7 +13512,7 @@
         <v>26</v>
       </c>
       <c r="C723">
-        <v>1.971549987792969</v>
+        <v>0.839113712310791</v>
       </c>
       <c r="D723" t="b">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>26</v>
       </c>
       <c r="C724">
-        <v>1.887654542922974</v>
+        <v>0.735581636428833</v>
       </c>
       <c r="D724" t="b">
         <v>1</v>
@@ -13540,7 +13540,7 @@
         <v>23</v>
       </c>
       <c r="C725">
-        <v>1.90574312210083</v>
+        <v>0.6295680999755859</v>
       </c>
       <c r="D725" t="b">
         <v>1</v>
@@ -13554,7 +13554,7 @@
         <v>26</v>
       </c>
       <c r="C726">
-        <v>1.845279455184937</v>
+        <v>0.6738705635070801</v>
       </c>
       <c r="D726" t="b">
         <v>1</v>
@@ -13568,7 +13568,7 @@
         <v>26</v>
       </c>
       <c r="C727">
-        <v>1.82588791847229</v>
+        <v>0.6550414562225342</v>
       </c>
       <c r="D727" t="b">
         <v>1</v>
@@ -13582,7 +13582,7 @@
         <v>26</v>
       </c>
       <c r="C728">
-        <v>1.841925144195557</v>
+        <v>0.9276635646820068</v>
       </c>
       <c r="D728" t="b">
         <v>1</v>
@@ -13596,7 +13596,7 @@
         <v>26</v>
       </c>
       <c r="C729">
-        <v>2.118220329284668</v>
+        <v>0.6404380798339844</v>
       </c>
       <c r="D729" t="b">
         <v>1</v>
@@ -13610,7 +13610,7 @@
         <v>26</v>
       </c>
       <c r="C730">
-        <v>1.901913404464722</v>
+        <v>0.6550705432891846</v>
       </c>
       <c r="D730" t="b">
         <v>1</v>
@@ -13624,7 +13624,7 @@
         <v>26</v>
       </c>
       <c r="C731">
-        <v>1.95352029800415</v>
+        <v>0.7032055854797363</v>
       </c>
       <c r="D731" t="b">
         <v>1</v>
@@ -13638,7 +13638,7 @@
         <v>26</v>
       </c>
       <c r="C732">
-        <v>1.842426538467407</v>
+        <v>0.8340451717376709</v>
       </c>
       <c r="D732" t="b">
         <v>1</v>
@@ -13652,7 +13652,7 @@
         <v>26</v>
       </c>
       <c r="C733">
-        <v>2.032109498977661</v>
+        <v>0.7130308151245117</v>
       </c>
       <c r="D733" t="b">
         <v>1</v>
@@ -13666,7 +13666,7 @@
         <v>26</v>
       </c>
       <c r="C734">
-        <v>1.833609104156494</v>
+        <v>0.6940443515777588</v>
       </c>
       <c r="D734" t="b">
         <v>1</v>
@@ -13680,7 +13680,7 @@
         <v>26</v>
       </c>
       <c r="C735">
-        <v>1.84275221824646</v>
+        <v>0.7410101890563965</v>
       </c>
       <c r="D735" t="b">
         <v>1</v>
@@ -13694,7 +13694,7 @@
         <v>23</v>
       </c>
       <c r="C736">
-        <v>2.09656286239624</v>
+        <v>0.6775853633880615</v>
       </c>
       <c r="D736" t="b">
         <v>1</v>
@@ -13708,7 +13708,7 @@
         <v>26</v>
       </c>
       <c r="C737">
-        <v>1.832109212875366</v>
+        <v>0.7249507904052734</v>
       </c>
       <c r="D737" t="b">
         <v>1</v>
@@ -13722,7 +13722,7 @@
         <v>26</v>
       </c>
       <c r="C738">
-        <v>1.827118873596191</v>
+        <v>0.6647803783416748</v>
       </c>
       <c r="D738" t="b">
         <v>1</v>
@@ -13736,7 +13736,7 @@
         <v>26</v>
       </c>
       <c r="C739">
-        <v>1.837373018264771</v>
+        <v>0.6560428142547607</v>
       </c>
       <c r="D739" t="b">
         <v>1</v>
@@ -13750,7 +13750,7 @@
         <v>26</v>
       </c>
       <c r="C740">
-        <v>1.91152548789978</v>
+        <v>0.6330709457397461</v>
       </c>
       <c r="D740" t="b">
         <v>1</v>
@@ -13764,7 +13764,7 @@
         <v>26</v>
       </c>
       <c r="C741">
-        <v>1.918061017990112</v>
+        <v>0.9129414558410645</v>
       </c>
       <c r="D741" t="b">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>26</v>
       </c>
       <c r="C742">
-        <v>2.215943336486816</v>
+        <v>0.7711012363433838</v>
       </c>
       <c r="D742" t="b">
         <v>1</v>
@@ -13792,7 +13792,7 @@
         <v>26</v>
       </c>
       <c r="C743">
-        <v>1.825443267822266</v>
+        <v>0.9599928855895996</v>
       </c>
       <c r="D743" t="b">
         <v>1</v>
@@ -13806,7 +13806,7 @@
         <v>26</v>
       </c>
       <c r="C744">
-        <v>1.840861320495605</v>
+        <v>0.672360897064209</v>
       </c>
       <c r="D744" t="b">
         <v>1</v>
@@ -13820,7 +13820,7 @@
         <v>26</v>
       </c>
       <c r="C745">
-        <v>1.841981172561646</v>
+        <v>0.6517136096954346</v>
       </c>
       <c r="D745" t="b">
         <v>1</v>
@@ -13834,7 +13834,7 @@
         <v>26</v>
       </c>
       <c r="C746">
-        <v>1.820870876312256</v>
+        <v>0.7245070934295654</v>
       </c>
       <c r="D746" t="b">
         <v>1</v>
@@ -13848,7 +13848,7 @@
         <v>23</v>
       </c>
       <c r="C747">
-        <v>1.9320068359375</v>
+        <v>0.6598238945007324</v>
       </c>
       <c r="D747" t="b">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>26</v>
       </c>
       <c r="C748">
-        <v>1.836064338684082</v>
+        <v>1.24472713470459</v>
       </c>
       <c r="D748" t="b">
         <v>1</v>
@@ -13876,7 +13876,7 @@
         <v>26</v>
       </c>
       <c r="C749">
-        <v>1.829503297805786</v>
+        <v>1.155243158340454</v>
       </c>
       <c r="D749" t="b">
         <v>1</v>
@@ -13890,7 +13890,7 @@
         <v>26</v>
       </c>
       <c r="C750">
-        <v>1.835669755935669</v>
+        <v>0.7185630798339844</v>
       </c>
       <c r="D750" t="b">
         <v>1</v>
@@ -13904,7 +13904,7 @@
         <v>26</v>
       </c>
       <c r="C751">
-        <v>1.857969760894775</v>
+        <v>0.7792649269104004</v>
       </c>
       <c r="D751" t="b">
         <v>1</v>
@@ -13918,7 +13918,7 @@
         <v>26</v>
       </c>
       <c r="C752">
-        <v>1.90270471572876</v>
+        <v>0.9571654796600342</v>
       </c>
       <c r="D752" t="b">
         <v>1</v>
@@ -13932,7 +13932,7 @@
         <v>26</v>
       </c>
       <c r="C753">
-        <v>1.843082666397095</v>
+        <v>1.028813362121582</v>
       </c>
       <c r="D753" t="b">
         <v>1</v>
@@ -13946,7 +13946,7 @@
         <v>26</v>
       </c>
       <c r="C754">
-        <v>1.835731029510498</v>
+        <v>0.6744730472564697</v>
       </c>
       <c r="D754" t="b">
         <v>1</v>
@@ -13960,7 +13960,7 @@
         <v>26</v>
       </c>
       <c r="C755">
-        <v>1.844580411911011</v>
+        <v>0.7082746028900146</v>
       </c>
       <c r="D755" t="b">
         <v>1</v>
@@ -13974,7 +13974,7 @@
         <v>26</v>
       </c>
       <c r="C756">
-        <v>1.843877077102661</v>
+        <v>0.9468042850494385</v>
       </c>
       <c r="D756" t="b">
         <v>1</v>
@@ -13988,7 +13988,7 @@
         <v>26</v>
       </c>
       <c r="C757">
-        <v>2.015913724899292</v>
+        <v>0.6487793922424316</v>
       </c>
       <c r="D757" t="b">
         <v>1</v>
@@ -14002,7 +14002,7 @@
         <v>23</v>
       </c>
       <c r="C758">
-        <v>1.835036039352417</v>
+        <v>0.6394438743591309</v>
       </c>
       <c r="D758" t="b">
         <v>1</v>
@@ -14016,7 +14016,7 @@
         <v>26</v>
       </c>
       <c r="C759">
-        <v>1.844684839248657</v>
+        <v>0.8999021053314209</v>
       </c>
       <c r="D759" t="b">
         <v>1</v>
@@ -14030,7 +14030,7 @@
         <v>26</v>
       </c>
       <c r="C760">
-        <v>1.888339519500732</v>
+        <v>0.7367649078369141</v>
       </c>
       <c r="D760" t="b">
         <v>1</v>
@@ -14044,7 +14044,7 @@
         <v>26</v>
       </c>
       <c r="C761">
-        <v>1.822025537490845</v>
+        <v>0.6579885482788086</v>
       </c>
       <c r="D761" t="b">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>26</v>
       </c>
       <c r="C762">
-        <v>1.844287872314453</v>
+        <v>0.6482946872711182</v>
       </c>
       <c r="D762" t="b">
         <v>1</v>
@@ -14072,7 +14072,7 @@
         <v>26</v>
       </c>
       <c r="C763">
-        <v>1.845338344573975</v>
+        <v>0.9130942821502686</v>
       </c>
       <c r="D763" t="b">
         <v>1</v>
@@ -14086,7 +14086,7 @@
         <v>26</v>
       </c>
       <c r="C764">
-        <v>3.108447074890137</v>
+        <v>0.7922303676605225</v>
       </c>
       <c r="D764" t="b">
         <v>1</v>
@@ -14100,7 +14100,7 @@
         <v>26</v>
       </c>
       <c r="C765">
-        <v>2.665006399154663</v>
+        <v>0.6598820686340332</v>
       </c>
       <c r="D765" t="b">
         <v>1</v>
@@ -14114,7 +14114,7 @@
         <v>26</v>
       </c>
       <c r="C766">
-        <v>1.81736159324646</v>
+        <v>0.7227051258087158</v>
       </c>
       <c r="D766" t="b">
         <v>1</v>
@@ -14128,7 +14128,7 @@
         <v>26</v>
       </c>
       <c r="C767">
-        <v>2.135710954666138</v>
+        <v>0.7370476722717285</v>
       </c>
       <c r="D767" t="b">
         <v>1</v>
@@ -14142,7 +14142,7 @@
         <v>26</v>
       </c>
       <c r="C768">
-        <v>1.838508129119873</v>
+        <v>0.7460639476776123</v>
       </c>
       <c r="D768" t="b">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>23</v>
       </c>
       <c r="C769">
-        <v>1.925819158554077</v>
+        <v>0.7771568298339844</v>
       </c>
       <c r="D769" t="b">
         <v>1</v>
@@ -14170,7 +14170,7 @@
         <v>26</v>
       </c>
       <c r="C770">
-        <v>2.093995332717896</v>
+        <v>0.6979880332946777</v>
       </c>
       <c r="D770" t="b">
         <v>1</v>
@@ -14184,7 +14184,7 @@
         <v>26</v>
       </c>
       <c r="C771">
-        <v>1.812400579452515</v>
+        <v>0.6428539752960205</v>
       </c>
       <c r="D771" t="b">
         <v>1</v>
@@ -14198,7 +14198,7 @@
         <v>26</v>
       </c>
       <c r="C772">
-        <v>1.823548555374146</v>
+        <v>0.7692110538482666</v>
       </c>
       <c r="D772" t="b">
         <v>1</v>
@@ -14212,7 +14212,7 @@
         <v>26</v>
       </c>
       <c r="C773">
-        <v>1.843901872634888</v>
+        <v>0.7740781307220459</v>
       </c>
       <c r="D773" t="b">
         <v>1</v>
@@ -14226,7 +14226,7 @@
         <v>26</v>
       </c>
       <c r="C774">
-        <v>1.825380086898804</v>
+        <v>0.8248488903045654</v>
       </c>
       <c r="D774" t="b">
         <v>1</v>
@@ -14240,7 +14240,7 @@
         <v>26</v>
       </c>
       <c r="C775">
-        <v>1.821951627731323</v>
+        <v>0.6851198673248291</v>
       </c>
       <c r="D775" t="b">
         <v>1</v>
@@ -14254,7 +14254,7 @@
         <v>26</v>
       </c>
       <c r="C776">
-        <v>1.845657825469971</v>
+        <v>0.6369984149932861</v>
       </c>
       <c r="D776" t="b">
         <v>1</v>
@@ -14268,7 +14268,7 @@
         <v>26</v>
       </c>
       <c r="C777">
-        <v>1.846389055252075</v>
+        <v>0.6763777732849121</v>
       </c>
       <c r="D777" t="b">
         <v>1</v>
@@ -14282,7 +14282,7 @@
         <v>26</v>
       </c>
       <c r="C778">
-        <v>1.821626663208008</v>
+        <v>0.7119698524475098</v>
       </c>
       <c r="D778" t="b">
         <v>1</v>
@@ -14296,7 +14296,7 @@
         <v>26</v>
       </c>
       <c r="C779">
-        <v>1.821038246154785</v>
+        <v>0.7537598609924316</v>
       </c>
       <c r="D779" t="b">
         <v>1</v>
@@ -14310,7 +14310,7 @@
         <v>23</v>
       </c>
       <c r="C780">
-        <v>1.843643426895142</v>
+        <v>1.053545713424683</v>
       </c>
       <c r="D780" t="b">
         <v>1</v>
@@ -14324,7 +14324,7 @@
         <v>26</v>
       </c>
       <c r="C781">
-        <v>1.828408241271973</v>
+        <v>1.106672763824463</v>
       </c>
       <c r="D781" t="b">
         <v>1</v>
@@ -14338,7 +14338,7 @@
         <v>26</v>
       </c>
       <c r="C782">
-        <v>2.260109186172485</v>
+        <v>1.05527663230896</v>
       </c>
       <c r="D782" t="b">
         <v>1</v>
@@ -14352,7 +14352,7 @@
         <v>26</v>
       </c>
       <c r="C783">
-        <v>1.810373306274414</v>
+        <v>0.6357204914093018</v>
       </c>
       <c r="D783" t="b">
         <v>1</v>
@@ -14366,7 +14366,7 @@
         <v>26</v>
       </c>
       <c r="C784">
-        <v>1.837062358856201</v>
+        <v>0.635289192199707</v>
       </c>
       <c r="D784" t="b">
         <v>1</v>
@@ -14380,7 +14380,7 @@
         <v>26</v>
       </c>
       <c r="C785">
-        <v>1.814796686172485</v>
+        <v>0.639899730682373</v>
       </c>
       <c r="D785" t="b">
         <v>1</v>
@@ -14394,7 +14394,7 @@
         <v>26</v>
       </c>
       <c r="C786">
-        <v>2.135454654693604</v>
+        <v>0.6920475959777832</v>
       </c>
       <c r="D786" t="b">
         <v>1</v>
@@ -14408,7 +14408,7 @@
         <v>26</v>
       </c>
       <c r="C787">
-        <v>1.835865497589111</v>
+        <v>0.7968828678131104</v>
       </c>
       <c r="D787" t="b">
         <v>1</v>
@@ -14422,7 +14422,7 @@
         <v>26</v>
       </c>
       <c r="C788">
-        <v>1.876733779907227</v>
+        <v>0.6640045642852783</v>
       </c>
       <c r="D788" t="b">
         <v>1</v>
@@ -14436,7 +14436,7 @@
         <v>26</v>
       </c>
       <c r="C789">
-        <v>1.8241868019104</v>
+        <v>0.6330366134643555</v>
       </c>
       <c r="D789" t="b">
         <v>1</v>
@@ -14450,7 +14450,7 @@
         <v>26</v>
       </c>
       <c r="C790">
-        <v>2.249154329299927</v>
+        <v>1.211918592453003</v>
       </c>
       <c r="D790" t="b">
         <v>1</v>
@@ -14464,7 +14464,7 @@
         <v>22</v>
       </c>
       <c r="C791">
-        <v>1.828667879104614</v>
+        <v>0.6260907649993896</v>
       </c>
       <c r="D791" t="b">
         <v>1</v>
@@ -14478,7 +14478,7 @@
         <v>23</v>
       </c>
       <c r="C792">
-        <v>1.825918674468994</v>
+        <v>0.6499500274658203</v>
       </c>
       <c r="D792" t="b">
         <v>1</v>
@@ -14492,7 +14492,7 @@
         <v>26</v>
       </c>
       <c r="C793">
-        <v>2.029595375061035</v>
+        <v>0.6865098476409912</v>
       </c>
       <c r="D793" t="b">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>26</v>
       </c>
       <c r="C794">
-        <v>1.942997455596924</v>
+        <v>0.7875475883483887</v>
       </c>
       <c r="D794" t="b">
         <v>1</v>
@@ -14520,7 +14520,7 @@
         <v>26</v>
       </c>
       <c r="C795">
-        <v>1.82102108001709</v>
+        <v>0.7052335739135742</v>
       </c>
       <c r="D795" t="b">
         <v>1</v>
@@ -14534,7 +14534,7 @@
         <v>26</v>
       </c>
       <c r="C796">
-        <v>2.068161725997925</v>
+        <v>1.212055206298828</v>
       </c>
       <c r="D796" t="b">
         <v>1</v>
@@ -14548,7 +14548,7 @@
         <v>26</v>
       </c>
       <c r="C797">
-        <v>2.165773153305054</v>
+        <v>0.7109472751617432</v>
       </c>
       <c r="D797" t="b">
         <v>1</v>
@@ -14562,7 +14562,7 @@
         <v>26</v>
       </c>
       <c r="C798">
-        <v>1.867530822753906</v>
+        <v>0.6469666957855225</v>
       </c>
       <c r="D798" t="b">
         <v>1</v>
@@ -14576,7 +14576,7 @@
         <v>26</v>
       </c>
       <c r="C799">
-        <v>1.831716299057007</v>
+        <v>0.6615281105041504</v>
       </c>
       <c r="D799" t="b">
         <v>1</v>
@@ -14590,7 +14590,7 @@
         <v>26</v>
       </c>
       <c r="C800">
-        <v>1.919811487197876</v>
+        <v>0.6701130867004395</v>
       </c>
       <c r="D800" t="b">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>26</v>
       </c>
       <c r="C801">
-        <v>1.824951171875</v>
+        <v>0.6947498321533203</v>
       </c>
       <c r="D801" t="b">
         <v>1</v>
@@ -14618,7 +14618,7 @@
         <v>26</v>
       </c>
       <c r="C802">
-        <v>1.97291088104248</v>
+        <v>0.6433594226837158</v>
       </c>
       <c r="D802" t="b">
         <v>1</v>
@@ -14632,7 +14632,7 @@
         <v>23</v>
       </c>
       <c r="C803">
-        <v>1.82307767868042</v>
+        <v>0.6595137119293213</v>
       </c>
       <c r="D803" t="b">
         <v>1</v>
@@ -14646,7 +14646,7 @@
         <v>26</v>
       </c>
       <c r="C804">
-        <v>1.84996509552002</v>
+        <v>0.6275656223297119</v>
       </c>
       <c r="D804" t="b">
         <v>1</v>
@@ -14660,7 +14660,7 @@
         <v>26</v>
       </c>
       <c r="C805">
-        <v>1.829690456390381</v>
+        <v>0.6404845714569092</v>
       </c>
       <c r="D805" t="b">
         <v>1</v>
@@ -14674,7 +14674,7 @@
         <v>26</v>
       </c>
       <c r="C806">
-        <v>1.941228628158569</v>
+        <v>0.938218355178833</v>
       </c>
       <c r="D806" t="b">
         <v>1</v>
@@ -14688,7 +14688,7 @@
         <v>26</v>
       </c>
       <c r="C807">
-        <v>1.839043855667114</v>
+        <v>0.6355555057525635</v>
       </c>
       <c r="D807" t="b">
         <v>1</v>
@@ -14702,7 +14702,7 @@
         <v>26</v>
       </c>
       <c r="C808">
-        <v>1.842455148696899</v>
+        <v>0.6329174041748047</v>
       </c>
       <c r="D808" t="b">
         <v>1</v>
@@ -14716,7 +14716,7 @@
         <v>26</v>
       </c>
       <c r="C809">
-        <v>1.840185880661011</v>
+        <v>0.6266372203826904</v>
       </c>
       <c r="D809" t="b">
         <v>1</v>
@@ -14730,7 +14730,7 @@
         <v>26</v>
       </c>
       <c r="C810">
-        <v>1.833763122558594</v>
+        <v>0.6227452754974365</v>
       </c>
       <c r="D810" t="b">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>26</v>
       </c>
       <c r="C811">
-        <v>1.829910755157471</v>
+        <v>0.6289401054382324</v>
       </c>
       <c r="D811" t="b">
         <v>1</v>
@@ -14758,7 +14758,7 @@
         <v>26</v>
       </c>
       <c r="C812">
-        <v>2.245183229446411</v>
+        <v>0.6303040981292725</v>
       </c>
       <c r="D812" t="b">
         <v>1</v>
@@ -14772,7 +14772,7 @@
         <v>26</v>
       </c>
       <c r="C813">
-        <v>1.83073353767395</v>
+        <v>0.680870532989502</v>
       </c>
       <c r="D813" t="b">
         <v>1</v>
@@ -14786,7 +14786,7 @@
         <v>23</v>
       </c>
       <c r="C814">
-        <v>2.154247045516968</v>
+        <v>0.6338751316070557</v>
       </c>
       <c r="D814" t="b">
         <v>1</v>
@@ -14800,7 +14800,7 @@
         <v>26</v>
       </c>
       <c r="C815">
-        <v>2.268440961837769</v>
+        <v>0.7740447521209717</v>
       </c>
       <c r="D815" t="b">
         <v>1</v>
@@ -14814,7 +14814,7 @@
         <v>26</v>
       </c>
       <c r="C816">
-        <v>1.837602376937866</v>
+        <v>0.8577632904052734</v>
       </c>
       <c r="D816" t="b">
         <v>1</v>
@@ -14828,7 +14828,7 @@
         <v>26</v>
       </c>
       <c r="C817">
-        <v>1.885054588317871</v>
+        <v>0.6682374477386475</v>
       </c>
       <c r="D817" t="b">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>26</v>
       </c>
       <c r="C818">
-        <v>1.825295686721802</v>
+        <v>1.006547689437866</v>
       </c>
       <c r="D818" t="b">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>26</v>
       </c>
       <c r="C819">
-        <v>1.826645612716675</v>
+        <v>0.806431770324707</v>
       </c>
       <c r="D819" t="b">
         <v>1</v>
@@ -14870,7 +14870,7 @@
         <v>26</v>
       </c>
       <c r="C820">
-        <v>2.178204298019409</v>
+        <v>0.6419136524200439</v>
       </c>
       <c r="D820" t="b">
         <v>1</v>
@@ -14884,7 +14884,7 @@
         <v>26</v>
       </c>
       <c r="C821">
-        <v>1.847808361053467</v>
+        <v>0.6300532817840576</v>
       </c>
       <c r="D821" t="b">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>26</v>
       </c>
       <c r="C822">
-        <v>2.221076965332031</v>
+        <v>0.6962759494781494</v>
       </c>
       <c r="D822" t="b">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>26</v>
       </c>
       <c r="C823">
-        <v>1.824568271636963</v>
+        <v>1.093374729156494</v>
       </c>
       <c r="D823" t="b">
         <v>1</v>
@@ -14926,7 +14926,7 @@
         <v>26</v>
       </c>
       <c r="C824">
-        <v>2.067026615142822</v>
+        <v>1.128771781921387</v>
       </c>
       <c r="D824" t="b">
         <v>1</v>
@@ -14940,7 +14940,7 @@
         <v>23</v>
       </c>
       <c r="C825">
-        <v>1.824350357055664</v>
+        <v>0.6504552364349365</v>
       </c>
       <c r="D825" t="b">
         <v>1</v>
@@ -14954,7 +14954,7 @@
         <v>26</v>
       </c>
       <c r="C826">
-        <v>1.95186710357666</v>
+        <v>0.7272558212280273</v>
       </c>
       <c r="D826" t="b">
         <v>1</v>
@@ -14968,7 +14968,7 @@
         <v>26</v>
       </c>
       <c r="C827">
-        <v>2.1511070728302</v>
+        <v>0.6334574222564697</v>
       </c>
       <c r="D827" t="b">
         <v>1</v>
@@ -14982,7 +14982,7 @@
         <v>26</v>
       </c>
       <c r="C828">
-        <v>1.82781720161438</v>
+        <v>0.6719870567321777</v>
       </c>
       <c r="D828" t="b">
         <v>1</v>
@@ -14996,7 +14996,7 @@
         <v>26</v>
       </c>
       <c r="C829">
-        <v>2.257670640945435</v>
+        <v>0.665935754776001</v>
       </c>
       <c r="D829" t="b">
         <v>1</v>
@@ -15010,7 +15010,7 @@
         <v>26</v>
       </c>
       <c r="C830">
-        <v>1.815775871276855</v>
+        <v>0.6181018352508545</v>
       </c>
       <c r="D830" t="b">
         <v>1</v>
@@ -15024,7 +15024,7 @@
         <v>26</v>
       </c>
       <c r="C831">
-        <v>2.243422269821167</v>
+        <v>0.8310348987579346</v>
       </c>
       <c r="D831" t="b">
         <v>1</v>
@@ -15038,7 +15038,7 @@
         <v>26</v>
       </c>
       <c r="C832">
-        <v>1.824431896209717</v>
+        <v>0.6268408298492432</v>
       </c>
       <c r="D832" t="b">
         <v>1</v>
@@ -15052,7 +15052,7 @@
         <v>26</v>
       </c>
       <c r="C833">
-        <v>1.824109077453613</v>
+        <v>0.6255331039428711</v>
       </c>
       <c r="D833" t="b">
         <v>1</v>
@@ -15066,7 +15066,7 @@
         <v>26</v>
       </c>
       <c r="C834">
-        <v>1.832396984100342</v>
+        <v>0.6348137855529785</v>
       </c>
       <c r="D834" t="b">
         <v>1</v>
@@ -15080,7 +15080,7 @@
         <v>26</v>
       </c>
       <c r="C835">
-        <v>2.521514892578125</v>
+        <v>0.6520724296569824</v>
       </c>
       <c r="D835" t="b">
         <v>1</v>
@@ -15094,7 +15094,7 @@
         <v>23</v>
       </c>
       <c r="C836">
-        <v>1.840928077697754</v>
+        <v>0.6260509490966797</v>
       </c>
       <c r="D836" t="b">
         <v>1</v>
@@ -15108,7 +15108,7 @@
         <v>26</v>
       </c>
       <c r="C837">
-        <v>1.837344408035278</v>
+        <v>0.6360423564910889</v>
       </c>
       <c r="D837" t="b">
         <v>1</v>
@@ -15122,7 +15122,7 @@
         <v>26</v>
       </c>
       <c r="C838">
-        <v>2.008728742599487</v>
+        <v>0.6600253582000732</v>
       </c>
       <c r="D838" t="b">
         <v>1</v>
@@ -15136,7 +15136,7 @@
         <v>26</v>
       </c>
       <c r="C839">
-        <v>2.099210977554321</v>
+        <v>0.8122119903564453</v>
       </c>
       <c r="D839" t="b">
         <v>1</v>
@@ -15150,7 +15150,7 @@
         <v>26</v>
       </c>
       <c r="C840">
-        <v>1.828903198242188</v>
+        <v>0.6460273265838623</v>
       </c>
       <c r="D840" t="b">
         <v>1</v>
@@ -15164,7 +15164,7 @@
         <v>26</v>
       </c>
       <c r="C841">
-        <v>1.835403680801392</v>
+        <v>0.6978795528411865</v>
       </c>
       <c r="D841" t="b">
         <v>1</v>
@@ -15178,7 +15178,7 @@
         <v>26</v>
       </c>
       <c r="C842">
-        <v>2.168702840805054</v>
+        <v>0.6340227127075195</v>
       </c>
       <c r="D842" t="b">
         <v>1</v>
@@ -15192,7 +15192,7 @@
         <v>26</v>
       </c>
       <c r="C843">
-        <v>1.905355930328369</v>
+        <v>0.6380839347839355</v>
       </c>
       <c r="D843" t="b">
         <v>1</v>
@@ -15206,7 +15206,7 @@
         <v>26</v>
       </c>
       <c r="C844">
-        <v>1.838039636611938</v>
+        <v>0.6650912761688232</v>
       </c>
       <c r="D844" t="b">
         <v>1</v>
@@ -15220,7 +15220,7 @@
         <v>26</v>
       </c>
       <c r="C845">
-        <v>1.827621459960938</v>
+        <v>0.6314306259155273</v>
       </c>
       <c r="D845" t="b">
         <v>1</v>
@@ -15234,7 +15234,7 @@
         <v>26</v>
       </c>
       <c r="C846">
-        <v>2.294524908065796</v>
+        <v>0.6357564926147461</v>
       </c>
       <c r="D846" t="b">
         <v>1</v>
@@ -15248,7 +15248,7 @@
         <v>23</v>
       </c>
       <c r="C847">
-        <v>1.817934274673462</v>
+        <v>0.6251239776611328</v>
       </c>
       <c r="D847" t="b">
         <v>1</v>
@@ -15262,7 +15262,7 @@
         <v>26</v>
       </c>
       <c r="C848">
-        <v>2.049852132797241</v>
+        <v>0.6281061172485352</v>
       </c>
       <c r="D848" t="b">
         <v>1</v>
@@ -15276,7 +15276,7 @@
         <v>26</v>
       </c>
       <c r="C849">
-        <v>2.137942790985107</v>
+        <v>0.6770820617675781</v>
       </c>
       <c r="D849" t="b">
         <v>1</v>
@@ -15290,7 +15290,7 @@
         <v>26</v>
       </c>
       <c r="C850">
-        <v>2.005171298980713</v>
+        <v>0.6270473003387451</v>
       </c>
       <c r="D850" t="b">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>26</v>
       </c>
       <c r="C851">
-        <v>1.939188480377197</v>
+        <v>0.6330294609069824</v>
       </c>
       <c r="D851" t="b">
         <v>1</v>
@@ -15318,7 +15318,7 @@
         <v>26</v>
       </c>
       <c r="C852">
-        <v>2.283958911895752</v>
+        <v>0.6410279273986816</v>
       </c>
       <c r="D852" t="b">
         <v>1</v>
@@ -15332,7 +15332,7 @@
         <v>26</v>
       </c>
       <c r="C853">
-        <v>1.981324911117554</v>
+        <v>0.69602370262146</v>
       </c>
       <c r="D853" t="b">
         <v>1</v>
@@ -15346,7 +15346,7 @@
         <v>26</v>
       </c>
       <c r="C854">
-        <v>1.956637382507324</v>
+        <v>0.6258196830749512</v>
       </c>
       <c r="D854" t="b">
         <v>1</v>
@@ -15360,7 +15360,7 @@
         <v>26</v>
       </c>
       <c r="C855">
-        <v>2.003663301467896</v>
+        <v>0.7361938953399658</v>
       </c>
       <c r="D855" t="b">
         <v>1</v>
@@ -15374,7 +15374,7 @@
         <v>26</v>
       </c>
       <c r="C856">
-        <v>1.937331914901733</v>
+        <v>0.6403732299804688</v>
       </c>
       <c r="D856" t="b">
         <v>1</v>
@@ -15388,7 +15388,7 @@
         <v>26</v>
       </c>
       <c r="C857">
-        <v>1.9402015209198</v>
+        <v>0.7117822170257568</v>
       </c>
       <c r="D857" t="b">
         <v>1</v>
@@ -15402,7 +15402,7 @@
         <v>23</v>
       </c>
       <c r="C858">
-        <v>2.241148233413696</v>
+        <v>0.6334917545318604</v>
       </c>
       <c r="D858" t="b">
         <v>1</v>
@@ -15416,7 +15416,7 @@
         <v>26</v>
       </c>
       <c r="C859">
-        <v>1.903164863586426</v>
+        <v>0.6326069831848145</v>
       </c>
       <c r="D859" t="b">
         <v>1</v>
@@ -15430,7 +15430,7 @@
         <v>26</v>
       </c>
       <c r="C860">
-        <v>1.920543670654297</v>
+        <v>0.8589959144592285</v>
       </c>
       <c r="D860" t="b">
         <v>1</v>
@@ -15444,7 +15444,7 @@
         <v>26</v>
       </c>
       <c r="C861">
-        <v>2.208192348480225</v>
+        <v>0.6759645938873291</v>
       </c>
       <c r="D861" t="b">
         <v>1</v>
@@ -15458,7 +15458,7 @@
         <v>26</v>
       </c>
       <c r="C862">
-        <v>1.962236642837524</v>
+        <v>0.6389381885528564</v>
       </c>
       <c r="D862" t="b">
         <v>1</v>
@@ -15472,7 +15472,7 @@
         <v>26</v>
       </c>
       <c r="C863">
-        <v>2.000999450683594</v>
+        <v>0.6369707584381104</v>
       </c>
       <c r="D863" t="b">
         <v>1</v>
@@ -15486,7 +15486,7 @@
         <v>26</v>
       </c>
       <c r="C864">
-        <v>2.033754825592041</v>
+        <v>0.8410358428955078</v>
       </c>
       <c r="D864" t="b">
         <v>1</v>
@@ -15500,7 +15500,7 @@
         <v>26</v>
       </c>
       <c r="C865">
-        <v>1.928067922592163</v>
+        <v>0.635390043258667</v>
       </c>
       <c r="D865" t="b">
         <v>1</v>
@@ -15514,7 +15514,7 @@
         <v>26</v>
       </c>
       <c r="C866">
-        <v>1.940960168838501</v>
+        <v>0.742767333984375</v>
       </c>
       <c r="D866" t="b">
         <v>1</v>
@@ -15528,7 +15528,7 @@
         <v>26</v>
       </c>
       <c r="C867">
-        <v>1.936101913452148</v>
+        <v>1.094133615493774</v>
       </c>
       <c r="D867" t="b">
         <v>1</v>
@@ -15542,7 +15542,7 @@
         <v>26</v>
       </c>
       <c r="C868">
-        <v>2.015920877456665</v>
+        <v>0.63995361328125</v>
       </c>
       <c r="D868" t="b">
         <v>1</v>
@@ -15556,7 +15556,7 @@
         <v>23</v>
       </c>
       <c r="C869">
-        <v>2.148517608642578</v>
+        <v>0.624290943145752</v>
       </c>
       <c r="D869" t="b">
         <v>1</v>
@@ -15570,7 +15570,7 @@
         <v>26</v>
       </c>
       <c r="C870">
-        <v>2.16356348991394</v>
+        <v>0.6446924209594727</v>
       </c>
       <c r="D870" t="b">
         <v>1</v>
@@ -15584,7 +15584,7 @@
         <v>26</v>
       </c>
       <c r="C871">
-        <v>2.087872505187988</v>
+        <v>0.9577207565307617</v>
       </c>
       <c r="D871" t="b">
         <v>1</v>
@@ -15598,7 +15598,7 @@
         <v>26</v>
       </c>
       <c r="C872">
-        <v>1.900994539260864</v>
+        <v>0.6483361721038818</v>
       </c>
       <c r="D872" t="b">
         <v>1</v>
@@ -15612,7 +15612,7 @@
         <v>26</v>
       </c>
       <c r="C873">
-        <v>2.143006563186646</v>
+        <v>0.6440351009368896</v>
       </c>
       <c r="D873" t="b">
         <v>1</v>
@@ -15626,7 +15626,7 @@
         <v>26</v>
       </c>
       <c r="C874">
-        <v>1.92497992515564</v>
+        <v>0.6339643001556396</v>
       </c>
       <c r="D874" t="b">
         <v>1</v>
@@ -15640,7 +15640,7 @@
         <v>26</v>
       </c>
       <c r="C875">
-        <v>1.910997629165649</v>
+        <v>0.732935905456543</v>
       </c>
       <c r="D875" t="b">
         <v>1</v>
@@ -15654,7 +15654,7 @@
         <v>26</v>
       </c>
       <c r="C876">
-        <v>2.103153467178345</v>
+        <v>0.6320674419403076</v>
       </c>
       <c r="D876" t="b">
         <v>1</v>
@@ -15668,7 +15668,7 @@
         <v>26</v>
       </c>
       <c r="C877">
-        <v>1.937822580337524</v>
+        <v>0.6362078189849854</v>
       </c>
       <c r="D877" t="b">
         <v>1</v>
@@ -15682,7 +15682,7 @@
         <v>26</v>
       </c>
       <c r="C878">
-        <v>1.9507737159729</v>
+        <v>0.6418967247009277</v>
       </c>
       <c r="D878" t="b">
         <v>1</v>
@@ -15696,7 +15696,7 @@
         <v>26</v>
       </c>
       <c r="C879">
-        <v>2.185726404190063</v>
+        <v>0.6648292541503906</v>
       </c>
       <c r="D879" t="b">
         <v>1</v>
@@ -15710,7 +15710,7 @@
         <v>23</v>
       </c>
       <c r="C880">
-        <v>2.206339359283447</v>
+        <v>0.633577823638916</v>
       </c>
       <c r="D880" t="b">
         <v>1</v>
@@ -15724,7 +15724,7 @@
         <v>26</v>
       </c>
       <c r="C881">
-        <v>1.948344945907593</v>
+        <v>0.6590337753295898</v>
       </c>
       <c r="D881" t="b">
         <v>1</v>
@@ -15738,7 +15738,7 @@
         <v>26</v>
       </c>
       <c r="C882">
-        <v>1.96669602394104</v>
+        <v>0.8176083564758301</v>
       </c>
       <c r="D882" t="b">
         <v>1</v>
@@ -15752,7 +15752,7 @@
         <v>26</v>
       </c>
       <c r="C883">
-        <v>2.240699768066406</v>
+        <v>0.6466734409332275</v>
       </c>
       <c r="D883" t="b">
         <v>1</v>
@@ -15766,7 +15766,7 @@
         <v>26</v>
       </c>
       <c r="C884">
-        <v>2.366417407989502</v>
+        <v>0.6365725994110107</v>
       </c>
       <c r="D884" t="b">
         <v>1</v>
@@ -15780,7 +15780,7 @@
         <v>26</v>
       </c>
       <c r="C885">
-        <v>2.160796880722046</v>
+        <v>0.633059024810791</v>
       </c>
       <c r="D885" t="b">
         <v>1</v>
@@ -15794,7 +15794,7 @@
         <v>26</v>
       </c>
       <c r="C886">
-        <v>2.121927261352539</v>
+        <v>0.6797599792480469</v>
       </c>
       <c r="D886" t="b">
         <v>1</v>
@@ -15808,7 +15808,7 @@
         <v>26</v>
       </c>
       <c r="C887">
-        <v>1.97908878326416</v>
+        <v>0.6319568157196045</v>
       </c>
       <c r="D887" t="b">
         <v>1</v>
@@ -15822,7 +15822,7 @@
         <v>26</v>
       </c>
       <c r="C888">
-        <v>2.330022811889648</v>
+        <v>0.6261091232299805</v>
       </c>
       <c r="D888" t="b">
         <v>1</v>
@@ -15836,7 +15836,7 @@
         <v>26</v>
       </c>
       <c r="C889">
-        <v>2.468915224075317</v>
+        <v>0.705380916595459</v>
       </c>
       <c r="D889" t="b">
         <v>1</v>
@@ -15850,7 +15850,7 @@
         <v>26</v>
       </c>
       <c r="C890">
-        <v>2.309669017791748</v>
+        <v>0.6330306529998779</v>
       </c>
       <c r="D890" t="b">
         <v>1</v>
@@ -15864,7 +15864,7 @@
         <v>23</v>
       </c>
       <c r="C891">
-        <v>2.005834817886353</v>
+        <v>0.6795957088470459</v>
       </c>
       <c r="D891" t="b">
         <v>1</v>
@@ -15878,7 +15878,7 @@
         <v>26</v>
       </c>
       <c r="C892">
-        <v>1.934848546981812</v>
+        <v>0.648993968963623</v>
       </c>
       <c r="D892" t="b">
         <v>1</v>
@@ -15892,7 +15892,7 @@
         <v>26</v>
       </c>
       <c r="C893">
-        <v>2.009049892425537</v>
+        <v>0.750330924987793</v>
       </c>
       <c r="D893" t="b">
         <v>1</v>
@@ -15906,7 +15906,7 @@
         <v>26</v>
       </c>
       <c r="C894">
-        <v>1.952980756759644</v>
+        <v>1.273632764816284</v>
       </c>
       <c r="D894" t="b">
         <v>1</v>
@@ -15920,7 +15920,7 @@
         <v>26</v>
       </c>
       <c r="C895">
-        <v>1.959073066711426</v>
+        <v>0.6608047485351562</v>
       </c>
       <c r="D895" t="b">
         <v>1</v>
@@ -15934,7 +15934,7 @@
         <v>26</v>
       </c>
       <c r="C896">
-        <v>1.949044227600098</v>
+        <v>0.6244912147521973</v>
       </c>
       <c r="D896" t="b">
         <v>1</v>
@@ -15948,7 +15948,7 @@
         <v>26</v>
       </c>
       <c r="C897">
-        <v>1.969600915908813</v>
+        <v>0.7849071025848389</v>
       </c>
       <c r="D897" t="b">
         <v>1</v>
@@ -15962,7 +15962,7 @@
         <v>26</v>
       </c>
       <c r="C898">
-        <v>1.930774688720703</v>
+        <v>0.8382246494293213</v>
       </c>
       <c r="D898" t="b">
         <v>1</v>
@@ -15976,7 +15976,7 @@
         <v>26</v>
       </c>
       <c r="C899">
-        <v>1.988868713378906</v>
+        <v>0.6529088020324707</v>
       </c>
       <c r="D899" t="b">
         <v>1</v>
@@ -15990,7 +15990,7 @@
         <v>26</v>
       </c>
       <c r="C900">
-        <v>2.241754770278931</v>
+        <v>1.101594209671021</v>
       </c>
       <c r="D900" t="b">
         <v>1</v>
@@ -16004,7 +16004,7 @@
         <v>26</v>
       </c>
       <c r="C901">
-        <v>1.983251571655273</v>
+        <v>1.112174987792969</v>
       </c>
       <c r="D901" t="b">
         <v>1</v>
@@ -16018,7 +16018,7 @@
         <v>22</v>
       </c>
       <c r="C902">
-        <v>1.914698123931885</v>
+        <v>0.6886546611785889</v>
       </c>
       <c r="D902" t="b">
         <v>1</v>
@@ -16032,7 +16032,7 @@
         <v>23</v>
       </c>
       <c r="C903">
-        <v>2.089097738265991</v>
+        <v>0.6262373924255371</v>
       </c>
       <c r="D903" t="b">
         <v>1</v>
@@ -16046,7 +16046,7 @@
         <v>26</v>
       </c>
       <c r="C904">
-        <v>2.393975257873535</v>
+        <v>0.9785184860229492</v>
       </c>
       <c r="D904" t="b">
         <v>1</v>
@@ -16060,7 +16060,7 @@
         <v>26</v>
       </c>
       <c r="C905">
-        <v>1.935988187789917</v>
+        <v>0.6269116401672363</v>
       </c>
       <c r="D905" t="b">
         <v>1</v>
@@ -16074,7 +16074,7 @@
         <v>26</v>
       </c>
       <c r="C906">
-        <v>2.267968416213989</v>
+        <v>1.351953029632568</v>
       </c>
       <c r="D906" t="b">
         <v>1</v>
@@ -16088,7 +16088,7 @@
         <v>26</v>
       </c>
       <c r="C907">
-        <v>2.317015647888184</v>
+        <v>0.8948991298675537</v>
       </c>
       <c r="D907" t="b">
         <v>1</v>
@@ -16102,7 +16102,7 @@
         <v>26</v>
       </c>
       <c r="C908">
-        <v>1.969989776611328</v>
+        <v>1.114086866378784</v>
       </c>
       <c r="D908" t="b">
         <v>1</v>
@@ -16116,7 +16116,7 @@
         <v>26</v>
       </c>
       <c r="C909">
-        <v>2.082086086273193</v>
+        <v>0.7861251831054688</v>
       </c>
       <c r="D909" t="b">
         <v>1</v>
@@ -16130,7 +16130,7 @@
         <v>26</v>
       </c>
       <c r="C910">
-        <v>1.910057306289673</v>
+        <v>1.071013212203979</v>
       </c>
       <c r="D910" t="b">
         <v>1</v>
@@ -16144,7 +16144,7 @@
         <v>26</v>
       </c>
       <c r="C911">
-        <v>1.927918672561646</v>
+        <v>0.7258710861206055</v>
       </c>
       <c r="D911" t="b">
         <v>1</v>
@@ -16158,7 +16158,7 @@
         <v>26</v>
       </c>
       <c r="C912">
-        <v>2.190822839736938</v>
+        <v>0.6318793296813965</v>
       </c>
       <c r="D912" t="b">
         <v>1</v>
@@ -16172,7 +16172,7 @@
         <v>26</v>
       </c>
       <c r="C913">
-        <v>1.996608972549438</v>
+        <v>0.6951212882995605</v>
       </c>
       <c r="D913" t="b">
         <v>1</v>
@@ -16186,7 +16186,7 @@
         <v>23</v>
       </c>
       <c r="C914">
-        <v>2.477381706237793</v>
+        <v>0.6321163177490234</v>
       </c>
       <c r="D914" t="b">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>26</v>
       </c>
       <c r="C915">
-        <v>2.188626050949097</v>
+        <v>0.6840031147003174</v>
       </c>
       <c r="D915" t="b">
         <v>1</v>
@@ -16214,7 +16214,7 @@
         <v>26</v>
       </c>
       <c r="C916">
-        <v>1.946968793869019</v>
+        <v>0.649888277053833</v>
       </c>
       <c r="D916" t="b">
         <v>1</v>
@@ -16228,7 +16228,7 @@
         <v>26</v>
       </c>
       <c r="C917">
-        <v>2.43524169921875</v>
+        <v>0.6521477699279785</v>
       </c>
       <c r="D917" t="b">
         <v>1</v>
@@ -16242,7 +16242,7 @@
         <v>26</v>
       </c>
       <c r="C918">
-        <v>1.906915664672852</v>
+        <v>0.6717774868011475</v>
       </c>
       <c r="D918" t="b">
         <v>1</v>
@@ -16256,7 +16256,7 @@
         <v>26</v>
       </c>
       <c r="C919">
-        <v>1.987503051757812</v>
+        <v>0.7151737213134766</v>
       </c>
       <c r="D919" t="b">
         <v>1</v>
@@ -16270,7 +16270,7 @@
         <v>26</v>
       </c>
       <c r="C920">
-        <v>2.038738489151001</v>
+        <v>0.6564605236053467</v>
       </c>
       <c r="D920" t="b">
         <v>1</v>
@@ -16284,7 +16284,7 @@
         <v>27</v>
       </c>
       <c r="C921">
-        <v>2.025321960449219</v>
+        <v>0.6314966678619385</v>
       </c>
       <c r="D921" t="b">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>27</v>
       </c>
       <c r="C922">
-        <v>2.094715118408203</v>
+        <v>0.6290268898010254</v>
       </c>
       <c r="D922" t="b">
         <v>1</v>
@@ -16312,7 +16312,7 @@
         <v>27</v>
       </c>
       <c r="C923">
-        <v>2.047175168991089</v>
+        <v>0.6381428241729736</v>
       </c>
       <c r="D923" t="b">
         <v>1</v>
@@ -16326,7 +16326,7 @@
         <v>27</v>
       </c>
       <c r="C924">
-        <v>1.957597017288208</v>
+        <v>0.6752545833587646</v>
       </c>
       <c r="D924" t="b">
         <v>1</v>
@@ -16340,7 +16340,7 @@
         <v>23</v>
       </c>
       <c r="C925">
-        <v>2.12033224105835</v>
+        <v>0.6678750514984131</v>
       </c>
       <c r="D925" t="b">
         <v>1</v>
@@ -16354,7 +16354,7 @@
         <v>27</v>
       </c>
       <c r="C926">
-        <v>2.134320259094238</v>
+        <v>0.6412856578826904</v>
       </c>
       <c r="D926" t="b">
         <v>1</v>
@@ -16368,7 +16368,7 @@
         <v>27</v>
       </c>
       <c r="C927">
-        <v>2.077966928482056</v>
+        <v>0.7664546966552734</v>
       </c>
       <c r="D927" t="b">
         <v>1</v>
@@ -16382,7 +16382,7 @@
         <v>27</v>
       </c>
       <c r="C928">
-        <v>1.919079065322876</v>
+        <v>0.6389923095703125</v>
       </c>
       <c r="D928" t="b">
         <v>1</v>
@@ -16396,7 +16396,7 @@
         <v>27</v>
       </c>
       <c r="C929">
-        <v>1.908931732177734</v>
+        <v>0.7972259521484375</v>
       </c>
       <c r="D929" t="b">
         <v>1</v>
@@ -16410,7 +16410,7 @@
         <v>27</v>
       </c>
       <c r="C930">
-        <v>2.129345655441284</v>
+        <v>0.6629674434661865</v>
       </c>
       <c r="D930" t="b">
         <v>1</v>
@@ -16424,7 +16424,7 @@
         <v>27</v>
       </c>
       <c r="C931">
-        <v>2.142190456390381</v>
+        <v>0.6279268264770508</v>
       </c>
       <c r="D931" t="b">
         <v>1</v>
@@ -16438,7 +16438,7 @@
         <v>27</v>
       </c>
       <c r="C932">
-        <v>1.903709888458252</v>
+        <v>0.6397035121917725</v>
       </c>
       <c r="D932" t="b">
         <v>1</v>
@@ -16452,7 +16452,7 @@
         <v>27</v>
       </c>
       <c r="C933">
-        <v>2.053825378417969</v>
+        <v>0.6438212394714355</v>
       </c>
       <c r="D933" t="b">
         <v>1</v>
@@ -16466,7 +16466,7 @@
         <v>27</v>
       </c>
       <c r="C934">
-        <v>2.157660484313965</v>
+        <v>0.6698968410491943</v>
       </c>
       <c r="D934" t="b">
         <v>1</v>
@@ -16480,7 +16480,7 @@
         <v>27</v>
       </c>
       <c r="C935">
-        <v>1.925385475158691</v>
+        <v>0.9613409042358398</v>
       </c>
       <c r="D935" t="b">
         <v>1</v>
@@ -16494,7 +16494,7 @@
         <v>23</v>
       </c>
       <c r="C936">
-        <v>2.130884885787964</v>
+        <v>0.6296820640563965</v>
       </c>
       <c r="D936" t="b">
         <v>1</v>
@@ -16508,7 +16508,7 @@
         <v>27</v>
       </c>
       <c r="C937">
-        <v>1.929520606994629</v>
+        <v>1.230191707611084</v>
       </c>
       <c r="D937" t="b">
         <v>1</v>
@@ -16522,7 +16522,7 @@
         <v>27</v>
       </c>
       <c r="C938">
-        <v>2.103604793548584</v>
+        <v>0.6548061370849609</v>
       </c>
       <c r="D938" t="b">
         <v>1</v>
@@ -16536,7 +16536,7 @@
         <v>27</v>
       </c>
       <c r="C939">
-        <v>2.055136442184448</v>
+        <v>0.6509697437286377</v>
       </c>
       <c r="D939" t="b">
         <v>1</v>
@@ -16550,7 +16550,7 @@
         <v>27</v>
       </c>
       <c r="C940">
-        <v>2.269777774810791</v>
+        <v>0.7870194911956787</v>
       </c>
       <c r="D940" t="b">
         <v>1</v>
@@ -16564,7 +16564,7 @@
         <v>27</v>
       </c>
       <c r="C941">
-        <v>2.374600648880005</v>
+        <v>0.8367981910705566</v>
       </c>
       <c r="D941" t="b">
         <v>1</v>
@@ -16578,7 +16578,7 @@
         <v>27</v>
       </c>
       <c r="C942">
-        <v>1.915393352508545</v>
+        <v>0.8205561637878418</v>
       </c>
       <c r="D942" t="b">
         <v>1</v>
@@ -16592,7 +16592,7 @@
         <v>27</v>
       </c>
       <c r="C943">
-        <v>1.938174486160278</v>
+        <v>1.081555843353271</v>
       </c>
       <c r="D943" t="b">
         <v>1</v>
@@ -16606,7 +16606,7 @@
         <v>27</v>
       </c>
       <c r="C944">
-        <v>2.000841856002808</v>
+        <v>0.6297943592071533</v>
       </c>
       <c r="D944" t="b">
         <v>1</v>
@@ -16620,7 +16620,7 @@
         <v>27</v>
       </c>
       <c r="C945">
-        <v>2.419302225112915</v>
+        <v>0.8710396289825439</v>
       </c>
       <c r="D945" t="b">
         <v>1</v>
@@ -16634,7 +16634,7 @@
         <v>27</v>
       </c>
       <c r="C946">
-        <v>2.276416063308716</v>
+        <v>0.632988452911377</v>
       </c>
       <c r="D946" t="b">
         <v>1</v>
@@ -16648,7 +16648,7 @@
         <v>23</v>
       </c>
       <c r="C947">
-        <v>1.914756298065186</v>
+        <v>0.7070653438568115</v>
       </c>
       <c r="D947" t="b">
         <v>1</v>
@@ -16662,7 +16662,7 @@
         <v>27</v>
       </c>
       <c r="C948">
-        <v>1.937338829040527</v>
+        <v>0.8508768081665039</v>
       </c>
       <c r="D948" t="b">
         <v>1</v>
@@ -16676,7 +16676,7 @@
         <v>27</v>
       </c>
       <c r="C949">
-        <v>2.007866144180298</v>
+        <v>0.9538629055023193</v>
       </c>
       <c r="D949" t="b">
         <v>1</v>
@@ -16690,7 +16690,7 @@
         <v>27</v>
       </c>
       <c r="C950">
-        <v>1.970872402191162</v>
+        <v>0.7327425479888916</v>
       </c>
       <c r="D950" t="b">
         <v>1</v>
@@ -16704,7 +16704,7 @@
         <v>27</v>
       </c>
       <c r="C951">
-        <v>1.957062482833862</v>
+        <v>0.8328163623809814</v>
       </c>
       <c r="D951" t="b">
         <v>1</v>
@@ -16718,7 +16718,7 @@
         <v>27</v>
       </c>
       <c r="C952">
-        <v>2.151129245758057</v>
+        <v>0.8618056774139404</v>
       </c>
       <c r="D952" t="b">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>27</v>
       </c>
       <c r="C953">
-        <v>1.96893310546875</v>
+        <v>0.7713420391082764</v>
       </c>
       <c r="D953" t="b">
         <v>1</v>
@@ -16746,7 +16746,7 @@
         <v>27</v>
       </c>
       <c r="C954">
-        <v>1.940820217132568</v>
+        <v>0.7810001373291016</v>
       </c>
       <c r="D954" t="b">
         <v>1</v>
@@ -16760,7 +16760,7 @@
         <v>27</v>
       </c>
       <c r="C955">
-        <v>2.113681554794312</v>
+        <v>0.7216129302978516</v>
       </c>
       <c r="D955" t="b">
         <v>1</v>
@@ -16774,7 +16774,7 @@
         <v>27</v>
       </c>
       <c r="C956">
-        <v>1.937692403793335</v>
+        <v>1.287391185760498</v>
       </c>
       <c r="D956" t="b">
         <v>1</v>
@@ -16788,7 +16788,7 @@
         <v>27</v>
       </c>
       <c r="C957">
-        <v>1.951761722564697</v>
+        <v>0.6558890342712402</v>
       </c>
       <c r="D957" t="b">
         <v>1</v>
@@ -16802,7 +16802,7 @@
         <v>23</v>
       </c>
       <c r="C958">
-        <v>2.236659526824951</v>
+        <v>0.6902585029602051</v>
       </c>
       <c r="D958" t="b">
         <v>1</v>
@@ -16816,7 +16816,7 @@
         <v>27</v>
       </c>
       <c r="C959">
-        <v>1.996468067169189</v>
+        <v>1.031989097595215</v>
       </c>
       <c r="D959" t="b">
         <v>1</v>
@@ -16830,7 +16830,7 @@
         <v>27</v>
       </c>
       <c r="C960">
-        <v>1.939730882644653</v>
+        <v>0.6970846652984619</v>
       </c>
       <c r="D960" t="b">
         <v>1</v>
@@ -16844,7 +16844,7 @@
         <v>27</v>
       </c>
       <c r="C961">
-        <v>1.974798440933228</v>
+        <v>0.7248361110687256</v>
       </c>
       <c r="D961" t="b">
         <v>1</v>
@@ -16858,7 +16858,7 @@
         <v>27</v>
       </c>
       <c r="C962">
-        <v>2.152609348297119</v>
+        <v>0.6540303230285645</v>
       </c>
       <c r="D962" t="b">
         <v>1</v>
@@ -16872,7 +16872,7 @@
         <v>27</v>
       </c>
       <c r="C963">
-        <v>2.096386432647705</v>
+        <v>0.7494909763336182</v>
       </c>
       <c r="D963" t="b">
         <v>1</v>
@@ -16886,7 +16886,7 @@
         <v>27</v>
       </c>
       <c r="C964">
-        <v>1.934866666793823</v>
+        <v>1.31377911567688</v>
       </c>
       <c r="D964" t="b">
         <v>1</v>
@@ -16900,7 +16900,7 @@
         <v>27</v>
       </c>
       <c r="C965">
-        <v>2.256001234054565</v>
+        <v>0.6339621543884277</v>
       </c>
       <c r="D965" t="b">
         <v>1</v>
@@ -16914,7 +16914,7 @@
         <v>27</v>
       </c>
       <c r="C966">
-        <v>1.933125019073486</v>
+        <v>0.6447343826293945</v>
       </c>
       <c r="D966" t="b">
         <v>1</v>
@@ -16928,7 +16928,7 @@
         <v>27</v>
       </c>
       <c r="C967">
-        <v>1.985990285873413</v>
+        <v>0.8627004623413086</v>
       </c>
       <c r="D967" t="b">
         <v>1</v>
@@ -16942,7 +16942,7 @@
         <v>27</v>
       </c>
       <c r="C968">
-        <v>1.97382640838623</v>
+        <v>0.7451367378234863</v>
       </c>
       <c r="D968" t="b">
         <v>1</v>
@@ -16956,7 +16956,7 @@
         <v>23</v>
       </c>
       <c r="C969">
-        <v>1.938953876495361</v>
+        <v>0.6494491100311279</v>
       </c>
       <c r="D969" t="b">
         <v>1</v>
@@ -16970,7 +16970,7 @@
         <v>27</v>
       </c>
       <c r="C970">
-        <v>2.198235034942627</v>
+        <v>0.7581119537353516</v>
       </c>
       <c r="D970" t="b">
         <v>1</v>
@@ -16984,7 +16984,7 @@
         <v>27</v>
       </c>
       <c r="C971">
-        <v>2.215265274047852</v>
+        <v>0.7721023559570312</v>
       </c>
       <c r="D971" t="b">
         <v>1</v>
@@ -16998,7 +16998,7 @@
         <v>27</v>
       </c>
       <c r="C972">
-        <v>2.289624214172363</v>
+        <v>0.6371219158172607</v>
       </c>
       <c r="D972" t="b">
         <v>1</v>
@@ -17012,7 +17012,7 @@
         <v>27</v>
       </c>
       <c r="C973">
-        <v>1.974448680877686</v>
+        <v>0.7129166126251221</v>
       </c>
       <c r="D973" t="b">
         <v>1</v>
@@ -17026,7 +17026,7 @@
         <v>27</v>
       </c>
       <c r="C974">
-        <v>2.008770704269409</v>
+        <v>0.7170367240905762</v>
       </c>
       <c r="D974" t="b">
         <v>1</v>
@@ -17040,7 +17040,7 @@
         <v>27</v>
       </c>
       <c r="C975">
-        <v>1.932027816772461</v>
+        <v>0.6888129711151123</v>
       </c>
       <c r="D975" t="b">
         <v>1</v>
@@ -17054,7 +17054,7 @@
         <v>27</v>
       </c>
       <c r="C976">
-        <v>1.92785906791687</v>
+        <v>0.8042469024658203</v>
       </c>
       <c r="D976" t="b">
         <v>1</v>
@@ -17068,7 +17068,7 @@
         <v>27</v>
       </c>
       <c r="C977">
-        <v>2.041863441467285</v>
+        <v>0.6439931392669678</v>
       </c>
       <c r="D977" t="b">
         <v>1</v>
@@ -17082,7 +17082,7 @@
         <v>27</v>
       </c>
       <c r="C978">
-        <v>2.071375370025635</v>
+        <v>0.6824829578399658</v>
       </c>
       <c r="D978" t="b">
         <v>1</v>
@@ -17096,7 +17096,7 @@
         <v>27</v>
       </c>
       <c r="C979">
-        <v>1.928858280181885</v>
+        <v>0.6955142021179199</v>
       </c>
       <c r="D979" t="b">
         <v>1</v>
@@ -17110,7 +17110,7 @@
         <v>23</v>
       </c>
       <c r="C980">
-        <v>2.117855072021484</v>
+        <v>0.6515176296234131</v>
       </c>
       <c r="D980" t="b">
         <v>1</v>
@@ -17124,7 +17124,7 @@
         <v>27</v>
       </c>
       <c r="C981">
-        <v>1.954218626022339</v>
+        <v>0.7621099948883057</v>
       </c>
       <c r="D981" t="b">
         <v>1</v>
@@ -17138,7 +17138,7 @@
         <v>27</v>
       </c>
       <c r="C982">
-        <v>1.945905447006226</v>
+        <v>0.7104887962341309</v>
       </c>
       <c r="D982" t="b">
         <v>1</v>
@@ -17152,7 +17152,7 @@
         <v>27</v>
       </c>
       <c r="C983">
-        <v>1.982227802276611</v>
+        <v>0.7947561740875244</v>
       </c>
       <c r="D983" t="b">
         <v>1</v>
@@ -17166,7 +17166,7 @@
         <v>27</v>
       </c>
       <c r="C984">
-        <v>2.06197452545166</v>
+        <v>0.6428043842315674</v>
       </c>
       <c r="D984" t="b">
         <v>1</v>
@@ -17180,7 +17180,7 @@
         <v>27</v>
       </c>
       <c r="C985">
-        <v>1.938705921173096</v>
+        <v>0.7775089740753174</v>
       </c>
       <c r="D985" t="b">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>27</v>
       </c>
       <c r="C986">
-        <v>1.921901702880859</v>
+        <v>0.7120251655578613</v>
       </c>
       <c r="D986" t="b">
         <v>1</v>
@@ -17208,7 +17208,7 @@
         <v>27</v>
       </c>
       <c r="C987">
-        <v>1.990432977676392</v>
+        <v>0.666029691696167</v>
       </c>
       <c r="D987" t="b">
         <v>1</v>
@@ -17222,7 +17222,7 @@
         <v>27</v>
       </c>
       <c r="C988">
-        <v>1.953901052474976</v>
+        <v>0.6603875160217285</v>
       </c>
       <c r="D988" t="b">
         <v>1</v>
@@ -17236,7 +17236,7 @@
         <v>27</v>
       </c>
       <c r="C989">
-        <v>2.607585906982422</v>
+        <v>0.8435397148132324</v>
       </c>
       <c r="D989" t="b">
         <v>1</v>
@@ -17250,7 +17250,7 @@
         <v>27</v>
       </c>
       <c r="C990">
-        <v>1.992037296295166</v>
+        <v>0.7066595554351807</v>
       </c>
       <c r="D990" t="b">
         <v>1</v>
@@ -17264,7 +17264,7 @@
         <v>23</v>
       </c>
       <c r="C991">
-        <v>1.944063901901245</v>
+        <v>0.7662978172302246</v>
       </c>
       <c r="D991" t="b">
         <v>1</v>
@@ -17278,7 +17278,7 @@
         <v>27</v>
       </c>
       <c r="C992">
-        <v>2.074522018432617</v>
+        <v>0.8087060451507568</v>
       </c>
       <c r="D992" t="b">
         <v>1</v>
@@ -17292,7 +17292,7 @@
         <v>27</v>
       </c>
       <c r="C993">
-        <v>2.197372674942017</v>
+        <v>1.184597253799438</v>
       </c>
       <c r="D993" t="b">
         <v>1</v>
@@ -17306,7 +17306,7 @@
         <v>27</v>
       </c>
       <c r="C994">
-        <v>1.982292890548706</v>
+        <v>0.6576495170593262</v>
       </c>
       <c r="D994" t="b">
         <v>1</v>
@@ -17320,7 +17320,7 @@
         <v>27</v>
       </c>
       <c r="C995">
-        <v>1.935322046279907</v>
+        <v>0.805994987487793</v>
       </c>
       <c r="D995" t="b">
         <v>1</v>
@@ -17334,7 +17334,7 @@
         <v>27</v>
       </c>
       <c r="C996">
-        <v>2.418438196182251</v>
+        <v>0.7228572368621826</v>
       </c>
       <c r="D996" t="b">
         <v>1</v>
@@ -17348,7 +17348,7 @@
         <v>27</v>
       </c>
       <c r="C997">
-        <v>1.926192283630371</v>
+        <v>0.8276147842407227</v>
       </c>
       <c r="D997" t="b">
         <v>1</v>
@@ -17362,7 +17362,7 @@
         <v>27</v>
       </c>
       <c r="C998">
-        <v>1.917896032333374</v>
+        <v>0.6410613059997559</v>
       </c>
       <c r="D998" t="b">
         <v>1</v>
@@ -17376,7 +17376,7 @@
         <v>27</v>
       </c>
       <c r="C999">
-        <v>2.200372219085693</v>
+        <v>0.6979544162750244</v>
       </c>
       <c r="D999" t="b">
         <v>1</v>
@@ -17390,7 +17390,7 @@
         <v>27</v>
       </c>
       <c r="C1000">
-        <v>2.377578020095825</v>
+        <v>0.6598081588745117</v>
       </c>
       <c r="D1000" t="b">
         <v>1</v>
@@ -17404,7 +17404,7 @@
         <v>27</v>
       </c>
       <c r="C1001">
-        <v>1.90728235244751</v>
+        <v>0.628441333770752</v>
       </c>
       <c r="D1001" t="b">
         <v>1</v>
@@ -17418,7 +17418,7 @@
         <v>23</v>
       </c>
       <c r="C1002">
-        <v>1.919909477233887</v>
+        <v>0.6288976669311523</v>
       </c>
       <c r="D1002" t="b">
         <v>1</v>
@@ -17432,7 +17432,7 @@
         <v>27</v>
       </c>
       <c r="C1003">
-        <v>2.018748044967651</v>
+        <v>0.6321375370025635</v>
       </c>
       <c r="D1003" t="b">
         <v>1</v>
@@ -17446,7 +17446,7 @@
         <v>27</v>
       </c>
       <c r="C1004">
-        <v>2.20728063583374</v>
+        <v>0.7894954681396484</v>
       </c>
       <c r="D1004" t="b">
         <v>1</v>
@@ -17460,7 +17460,7 @@
         <v>27</v>
       </c>
       <c r="C1005">
-        <v>2.109945058822632</v>
+        <v>0.6366491317749023</v>
       </c>
       <c r="D1005" t="b">
         <v>1</v>
@@ -17474,7 +17474,7 @@
         <v>27</v>
       </c>
       <c r="C1006">
-        <v>2.177948236465454</v>
+        <v>0.6539928913116455</v>
       </c>
       <c r="D1006" t="b">
         <v>1</v>
@@ -17488,7 +17488,7 @@
         <v>27</v>
       </c>
       <c r="C1007">
-        <v>2.078534126281738</v>
+        <v>0.8052971363067627</v>
       </c>
       <c r="D1007" t="b">
         <v>1</v>
@@ -17502,7 +17502,7 @@
         <v>28</v>
       </c>
       <c r="C1008">
-        <v>1.955192804336548</v>
+        <v>0.6638374328613281</v>
       </c>
       <c r="D1008" t="b">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>28</v>
       </c>
       <c r="C1009">
-        <v>1.962580680847168</v>
+        <v>0.6441025733947754</v>
       </c>
       <c r="D1009" t="b">
         <v>1</v>
@@ -17530,7 +17530,7 @@
         <v>28</v>
       </c>
       <c r="C1010">
-        <v>1.922920942306519</v>
+        <v>0.6889433860778809</v>
       </c>
       <c r="D1010" t="b">
         <v>1</v>
@@ -17544,7 +17544,7 @@
         <v>28</v>
       </c>
       <c r="C1011">
-        <v>2.212464570999146</v>
+        <v>0.6480960845947266</v>
       </c>
       <c r="D1011" t="b">
         <v>1</v>
@@ -17558,7 +17558,7 @@
         <v>28</v>
       </c>
       <c r="C1012">
-        <v>1.944571018218994</v>
+        <v>0.7441282272338867</v>
       </c>
       <c r="D1012" t="b">
         <v>1</v>
